--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:40009_{FBDB12A5-EA3D-4522-9AAB-B853B66120D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96CF645C-1065-441A-B7C6-1A8F9D756D38}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:40009_{FBDB12A5-EA3D-4522-9AAB-B853B66120D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7ADE5E4B-027E-49BB-8D65-B4392BB86777}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -19,52 +19,53 @@
     <sheet name="updated_left-right_single-node" sheetId="11" r:id="rId4"/>
     <sheet name="updated_left-right_double-node" sheetId="12" r:id="rId5"/>
     <sheet name="all_features-double_node" sheetId="14" r:id="rId6"/>
-    <sheet name="left_right" sheetId="10" r:id="rId7"/>
-    <sheet name="decision_no_max" sheetId="8" r:id="rId8"/>
-    <sheet name="window_variance" sheetId="7" r:id="rId9"/>
-    <sheet name="gradients" sheetId="6" r:id="rId10"/>
-    <sheet name="first_peak_hist" sheetId="2" r:id="rId11"/>
-    <sheet name="second peak" sheetId="4" r:id="rId12"/>
-    <sheet name="overall distributions" sheetId="5" r:id="rId13"/>
+    <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
+    <sheet name="left_right" sheetId="10" r:id="rId8"/>
+    <sheet name="decision_no_max" sheetId="8" r:id="rId9"/>
+    <sheet name="window_variance" sheetId="7" r:id="rId10"/>
+    <sheet name="gradients" sheetId="6" r:id="rId11"/>
+    <sheet name="first_peak_hist" sheetId="2" r:id="rId12"/>
+    <sheet name="second peak" sheetId="4" r:id="rId13"/>
+    <sheet name="overall distributions" sheetId="5" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">decision_data!$A$1:$H$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">updated_data!$L$1:$L$158</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">window_variance!$B$1:$B$149</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">window_variance!$C$1:$C$149</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">first_peak_hist!$H$46:$H$71</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'second peak'!$D$1:$D$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'second peak'!$L$34:$L$87</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'second peak'!$M$34:$M$87</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'second peak'!$A$1:$A$26</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'second peak'!$D$34:$D$127</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'second peak'!$E$34:$E$127</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">first_peak_hist!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">first_peak_hist!$H$46:$H$71</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'second peak'!$E$34:$E$127</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'second peak'!$A$1:$A$26</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'second peak'!$L$34:$L$87</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'second peak'!$M$34:$M$87</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'second peak'!$D$1:$D$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'second peak'!$L$34:$L$87</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">gradients!$B$1:$B$149</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'second peak'!$E$34:$E$127</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">first_peak_hist!$B$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'second peak'!$L$34:$L$87</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'second peak'!$M$34:$M$87</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'second peak'!$M$34:$M$87</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">first_peak_hist!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'second peak'!$E$34:$E$127</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">gradients!$C$1:$C$149</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">first_peak_hist!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">first_peak_hist!$H$1:$H$42</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">first_peak_hist!$E$1:$E$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">first_peak_hist!$E$46:$E$73</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">first_peak_hist!$H$1:$H$42</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">first_peak_hist!$E$1:$E$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">first_peak_hist!$E$46:$E$73</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="24">
   <si>
     <t>first_peak</t>
   </si>
@@ -761,7 +762,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -837,10 +838,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -902,10 +903,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -967,10 +968,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1032,10 +1033,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1097,10 +1098,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1138,7 +1139,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B28F06-9089-4D4C-B857-909ED2DBB18C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>first-peak</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1168,10 +1169,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1298,10 +1299,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1339,7 +1340,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B28F06-9089-4D4C-B857-909ED2DBB18C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>first-peak</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1369,7 +1370,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1443,7 +1444,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1506,7 +1507,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1569,7 +1570,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1632,10 +1633,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1697,7 +1698,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17894,6 +17895,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:C149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>0.87336415899999997</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1.0195337339999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1.1159189780000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.174937323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1.1396153440000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1.1154854599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1.0138001780000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1.050857666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1.084087206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1.131246371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1.163411105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1.198465133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1.224679911</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1.2370932699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1.54355727</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1.583806023</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1.5731324760000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1.5095892710000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1.471394391</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1.4900035469999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1.49754593</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1.5032473079999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>1.49985415</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>1.4887884870000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1.492184524</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1.485664648</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1.4861822140000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1.4780808830000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.81071734900000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1.286825954</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1.1726504129999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1.0935778270000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1.0868538130000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>1.116058628</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>1.123875376</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>1.1623171269999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>1.1876391639999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1.2066067899999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>1.2184439490000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>1.2139949670000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>1.217624056</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>1.213396868</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>1.500949764</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>1.3831310889999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>1.1911207100000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1.1228037850000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1.1159069109999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>1.143490406</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>1.148864286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>1.1147769970000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>1.0930213689999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>1.130863956</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>1.164516025</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>1.1742807019999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>1.194828255</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>1.730154583</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>1.306925251</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1.365167757</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>1.332430303</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>1.376420601</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>1.4042314060000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>1.4188040230000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>1.536743492</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>1.465719182</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>1.4068710579999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>1.347037526</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>1.336132283</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>1.334444162</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1.313791111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>1.3190933330000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1.2769330860000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1.249176284</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1.3239142429999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>1.3238599419999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>1.288584881</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>1.285019916</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>1.258539538</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1.3235127550000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1.3498885890000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>1.3266380310000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>1.3112973779999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>1.306770548</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>1.288700626</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>1.28366753</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>1.193987726</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>1.1559417329999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>1.158516841</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>1.13737664</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>1.1382135120000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>1.2997152219999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1.293848927</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>1.255303058</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>1.220739214</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>1.2133429120000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>1.2053632240000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>1.206214699</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>0.87509572700000005</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>0.93854293600000005</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>0.94623006099999996</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>0.96493384500000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>1.0068011050000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>1.0344784250000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>1.495385049</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>1.366719499</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>1.3410080369999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>1.502184406</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>1.4524959529999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>1.4190159609999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>1.4225574670000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>1.4991329369999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>1.5431374849999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>1.46390485</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>1.501862982</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>1.391364823</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>1.3727639549999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>1.3244141250000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>1.333434886</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>1.285280835</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>1.315456755</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>1.374050303</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>1.3160068840000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>1.322516598</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>1.299449627</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>1.2829814989999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>1.2444107959999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>1.372969114</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>1.3447555659999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>1.3341869660000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>1.3141925640000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>1.302023672</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>1.292068035</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>1.303170084</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>1.218807838</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>1.1789914850000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>1.1714986270000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>1.1559706649999999</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>1.4640417969999999</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>1.3005033580000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>1.287015494</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>1.2511151650000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>1.238159534</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>1.217973693</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>1.219019485</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>1.186020246</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>0.921974768</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>0.92463407200000003</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>0.95694528099999998</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>0.99510803999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>1.0279084759999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C149"/>
   <sheetViews>
@@ -19101,7 +20310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
@@ -20803,7 +22012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
@@ -23121,7 +24330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38706,8 +39915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EBE5A0-7418-4EF8-9AB7-071505A0B865}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L212"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L212" sqref="L1:L212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46774,6 +47983,4897 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280A43AE-CF8F-4663-A188-ED2AA48FB61A}">
+  <dimension ref="A1:G212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.9023793129829398</v>
+      </c>
+      <c r="B2">
+        <v>3.2266850279244101</v>
+      </c>
+      <c r="C2">
+        <v>-0.18425658118777899</v>
+      </c>
+      <c r="D2">
+        <v>1.6598577002524699</v>
+      </c>
+      <c r="E2">
+        <v>4.1325070767347603</v>
+      </c>
+      <c r="F2">
+        <v>0.67427227173788695</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.0357279473643901</v>
+      </c>
+      <c r="B3">
+        <v>2.1690765817458502</v>
+      </c>
+      <c r="C3">
+        <v>-0.18131210480347101</v>
+      </c>
+      <c r="D3">
+        <v>1.6598577002524699</v>
+      </c>
+      <c r="E3">
+        <v>3.25606304031826</v>
+      </c>
+      <c r="F3">
+        <v>0.333942068734077</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.6134955244434201</v>
+      </c>
+      <c r="B4">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="C4">
+        <v>-9.2554714084154999E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E4">
+        <v>4.2255374493152802</v>
+      </c>
+      <c r="F4">
+        <v>-0.31072397268608898</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.8007038482136002</v>
+      </c>
+      <c r="B5">
+        <v>2.0907352153622498</v>
+      </c>
+      <c r="C5">
+        <v>-0.13983857490368201</v>
+      </c>
+      <c r="D5">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E5">
+        <v>3.25606304031826</v>
+      </c>
+      <c r="F5">
+        <v>-0.12042831796009899</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="B6">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="C6">
+        <v>1.0410066606309E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E6">
+        <v>4.2108484431183504</v>
+      </c>
+      <c r="F6">
+        <v>-3.1225808488175001E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.1555351541580601</v>
+      </c>
+      <c r="B7">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C7">
+        <v>0.20780887914593599</v>
+      </c>
+      <c r="D7">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E7">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="F7">
+        <v>-4.8541361895898E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="B8">
+        <v>3.2609593757172401</v>
+      </c>
+      <c r="C8">
+        <v>-2.7240778172460001E-3</v>
+      </c>
+      <c r="D8">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E8">
+        <v>4.2304337847142497</v>
+      </c>
+      <c r="F8">
+        <v>-1.6259086262813999E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.8104965190115498</v>
+      </c>
+      <c r="B9">
+        <v>2.05646086756943</v>
+      </c>
+      <c r="C9">
+        <v>-0.148959519751928</v>
+      </c>
+      <c r="D9">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E9">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="F9">
+        <v>-3.0027996750787999E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.9965572641725999</v>
+      </c>
+      <c r="B10">
+        <v>3.2266850279244101</v>
+      </c>
+      <c r="C10">
+        <v>6.1276828449928003E-2</v>
+      </c>
+      <c r="D10">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E10">
+        <v>4.1520924183306596</v>
+      </c>
+      <c r="F10">
+        <v>-1.2070336721384E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.81539285441053</v>
+      </c>
+      <c r="B11">
+        <v>2.0760462091653298</v>
+      </c>
+      <c r="C11">
+        <v>-0.147445816891975</v>
+      </c>
+      <c r="D11">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E11">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="F11">
+        <v>-2.1879082253131E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.1875143447326102</v>
+      </c>
+      <c r="B12">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="C12">
+        <v>1.3024788374745E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E12">
+        <v>4.17167775992655</v>
+      </c>
+      <c r="F12">
+        <v>-8.8787171726560001E-3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94499273200214196</v>
+      </c>
+      <c r="B13">
+        <v>2.09563155076123</v>
+      </c>
+      <c r="C13">
+        <v>0.26075559722519898</v>
+      </c>
+      <c r="D13">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E13">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="F13">
+        <v>-1.7374235485261E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.1826180093336398</v>
+      </c>
+      <c r="B14">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="C14">
+        <v>1.4102306098638001E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E14">
+        <v>4.2353301201132298</v>
+      </c>
+      <c r="F14">
+        <v>-6.6262701627049997E-3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.80299900543187197</v>
+      </c>
+      <c r="B15">
+        <v>2.0760462091653298</v>
+      </c>
+      <c r="C15">
+        <v>0.30002661578787698</v>
+      </c>
+      <c r="D15">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E15">
+        <v>3.3735750898936598</v>
+      </c>
+      <c r="F15">
+        <v>-1.3129842617627001E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.1091729783490201</v>
+      </c>
+      <c r="B16">
+        <v>3.3001300589090401</v>
+      </c>
+      <c r="C16">
+        <v>4.9325011961019002E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E16">
+        <v>4.2500191263101499</v>
+      </c>
+      <c r="F16">
+        <v>-5.4021411539370004E-3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.9084232269910499</v>
+      </c>
+      <c r="B17">
+        <v>2.0662535383673801</v>
+      </c>
+      <c r="C17">
+        <v>-0.17162679123330801</v>
+      </c>
+      <c r="D17">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E17">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="F17">
+        <v>-1.2321296090083001E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B18">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="C18">
+        <v>6.5241112153846995E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E18">
+        <v>4.1667814245275796</v>
+      </c>
+      <c r="F18">
+        <v>-5.1652948739640001E-3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.93030372580521803</v>
+      </c>
+      <c r="B19">
+        <v>2.0613572029684</v>
+      </c>
+      <c r="C19">
+        <v>0.26585184730628703</v>
+      </c>
+      <c r="D19">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E19">
+        <v>3.25606304031826</v>
+      </c>
+      <c r="F19">
+        <v>-1.0321940978474E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.0748986305561901</v>
+      </c>
+      <c r="B20">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="C20">
+        <v>5.0041429623204001E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E20">
+        <v>4.2500191263101499</v>
+      </c>
+      <c r="F20">
+        <v>-4.0581778720249996E-3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.0086450921888099</v>
+      </c>
+      <c r="B21">
+        <v>2.0858388799632799</v>
+      </c>
+      <c r="C21">
+        <v>0.247202886633973</v>
+      </c>
+      <c r="D21">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E21">
+        <v>3.35888608369673</v>
+      </c>
+      <c r="F21">
+        <v>-8.6181436323119996E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.0357279473643901</v>
+      </c>
+      <c r="B22">
+        <v>3.2266850279244101</v>
+      </c>
+      <c r="C22">
+        <v>4.8753650933883001E-2</v>
+      </c>
+      <c r="D22">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E22">
+        <v>4.0933363935429599</v>
+      </c>
+      <c r="F22">
+        <v>-4.4139336174780002E-3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.1359498125621601</v>
+      </c>
+      <c r="B23">
+        <v>2.0662535383673801</v>
+      </c>
+      <c r="C23">
+        <v>0.21659262886573799</v>
+      </c>
+      <c r="D23">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E23">
+        <v>3.1336546553438902</v>
+      </c>
+      <c r="F23">
+        <v>-8.7967720224190003E-3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.1091729783490201</v>
+      </c>
+      <c r="B24">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="C24">
+        <v>2.9941140142955E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E24">
+        <v>4.1961594369214303</v>
+      </c>
+      <c r="F24">
+        <v>-3.5013205576669999E-3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.07229745237549</v>
+      </c>
+      <c r="B25">
+        <v>2.1005278861601999</v>
+      </c>
+      <c r="C25">
+        <v>0.22709491968078399</v>
+      </c>
+      <c r="D25">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E25">
+        <v>3.25606304031826</v>
+      </c>
+      <c r="F25">
+        <v>-7.4338774112149997E-3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.1287583199449198</v>
+      </c>
+      <c r="B26">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="C26">
+        <v>3.9068586880449001E-2</v>
+      </c>
+      <c r="D26">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E26">
+        <v>4.2500191263101499</v>
+      </c>
+      <c r="F26">
+        <v>-2.9592626315180001E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.8056001836125799</v>
+      </c>
+      <c r="B27">
+        <v>2.1739729171448201</v>
+      </c>
+      <c r="C27">
+        <v>-0.11696538682567199</v>
+      </c>
+      <c r="D27">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E27">
+        <v>3.1728253385356902</v>
+      </c>
+      <c r="F27">
+        <v>-7.1237508495440001E-3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.0700022951572201</v>
+      </c>
+      <c r="B28">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="C28">
+        <v>3.9747867434608002E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E28">
+        <v>4.1765740953255301</v>
+      </c>
+      <c r="F28">
+        <v>-2.9876026930229999E-3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.9426975747838702</v>
+      </c>
+      <c r="B29">
+        <v>2.1348022339530299</v>
+      </c>
+      <c r="C29">
+        <v>-0.16090664682422401</v>
+      </c>
+      <c r="D29">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E29">
+        <v>3.2462703695203099</v>
+      </c>
+      <c r="F29">
+        <v>-6.280535039208E-3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.00634993497055</v>
+      </c>
+      <c r="B30">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="C30">
+        <v>8.2404332703421998E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E30">
+        <v>4.1667814245275796</v>
+      </c>
+      <c r="F30">
+        <v>-2.792317784372E-3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.12615714176421</v>
+      </c>
+      <c r="B31">
+        <v>2.1054242215591801</v>
+      </c>
+      <c r="C31">
+        <v>0.21365737541323901</v>
+      </c>
+      <c r="D31">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E31">
+        <v>3.1777216739346601</v>
+      </c>
+      <c r="F31">
+        <v>-6.0398589838439997E-3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.9867645933746498</v>
+      </c>
+      <c r="B32">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="C32">
+        <v>7.3394885731935006E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E32">
+        <v>4.1912631015224502</v>
+      </c>
+      <c r="F32">
+        <v>-2.509569430196E-3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.17512049575396</v>
+      </c>
+      <c r="B33">
+        <v>2.1299058985540502</v>
+      </c>
+      <c r="C33">
+        <v>0.203629997874341</v>
+      </c>
+      <c r="D33">
+        <v>4.9550914237625303</v>
+      </c>
+      <c r="E33">
+        <v>3.24137403412134</v>
+      </c>
+      <c r="F33">
+        <v>-5.4083337452240001E-3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.5302578226608499</v>
+      </c>
+      <c r="B34">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="C34">
+        <v>-6.7059691126370002E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E34">
+        <v>4.2500191263101499</v>
+      </c>
+      <c r="F34">
+        <v>0.89986829701089799</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.97437074439599103</v>
+      </c>
+      <c r="B35">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C35">
+        <v>0.26053927705881302</v>
+      </c>
+      <c r="D35">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E35">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F35">
+        <v>0.112587251277039</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3.4078494376864801</v>
+      </c>
+      <c r="B36">
+        <v>3.2609593757172401</v>
+      </c>
+      <c r="C36">
+        <v>-3.9634535550681999E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E36">
+        <v>4.2304337847142497</v>
+      </c>
+      <c r="F36">
+        <v>0.10835397518324801</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.1310534771631899</v>
+      </c>
+      <c r="B37">
+        <v>2.0809425445643002</v>
+      </c>
+      <c r="C37">
+        <v>0.21458415617433199</v>
+      </c>
+      <c r="D37">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E37">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="F37">
+        <v>4.6924077827232E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3.0014535995715699</v>
+      </c>
+      <c r="B38">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="C38">
+        <v>7.3318247217299001E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E38">
+        <v>4.2842934741029799</v>
+      </c>
+      <c r="F38">
+        <v>5.9246394490911E-2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.35628490551603</v>
+      </c>
+      <c r="B39">
+        <v>2.0613572029684</v>
+      </c>
+      <c r="C39">
+        <v>0.159936678237216</v>
+      </c>
+      <c r="D39">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E39">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="F39">
+        <v>2.7316573245170998E-2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="B40">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="C40">
+        <v>-4.0786011120950002E-3</v>
+      </c>
+      <c r="D40">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E40">
+        <v>4.1814704307245103</v>
+      </c>
+      <c r="F40">
+        <v>3.8918590174060998E-2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.10657180016831</v>
+      </c>
+      <c r="B41">
+        <v>2.09563155076123</v>
+      </c>
+      <c r="C41">
+        <v>0.221518854983976</v>
+      </c>
+      <c r="D41">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E41">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F41">
+        <v>2.1641691807385999E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="B42">
+        <v>3.2609593757172401</v>
+      </c>
+      <c r="C42">
+        <v>7.8101297095299997E-3</v>
+      </c>
+      <c r="D42">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E42">
+        <v>4.2108484431183504</v>
+      </c>
+      <c r="F42">
+        <v>2.9815443374328999E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.8202891898094999</v>
+      </c>
+      <c r="B43">
+        <v>2.1886619233417499</v>
+      </c>
+      <c r="C43">
+        <v>-0.121840558410118</v>
+      </c>
+      <c r="D43">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E43">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F43">
+        <v>1.7019827324562999E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3.1336546553438902</v>
+      </c>
+      <c r="B44">
+        <v>3.25606304031826</v>
+      </c>
+      <c r="C44">
+        <v>3.2084244171392003E-2</v>
+      </c>
+      <c r="D44">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E44">
+        <v>4.1422997475327099</v>
+      </c>
+      <c r="F44">
+        <v>2.3433231023674998E-2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.96947440899701598</v>
+      </c>
+      <c r="B45">
+        <v>2.11032055695815</v>
+      </c>
+      <c r="C45">
+        <v>0.25527198884060798</v>
+      </c>
+      <c r="D45">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E45">
+        <v>3.30992272970698</v>
+      </c>
+      <c r="F45">
+        <v>1.3883657774805E-2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3.2266850279244101</v>
+      </c>
+      <c r="B46">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="C46">
+        <v>-7.787238851079E-3</v>
+      </c>
+      <c r="D46">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E46">
+        <v>4.1422997475327099</v>
+      </c>
+      <c r="F46">
+        <v>1.8944559197069E-2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.07229745237549</v>
+      </c>
+      <c r="B47">
+        <v>2.0662535383673801</v>
+      </c>
+      <c r="C47">
+        <v>0.23315760214586401</v>
+      </c>
+      <c r="D47">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E47">
+        <v>3.29033738811109</v>
+      </c>
+      <c r="F47">
+        <v>1.1710438280426999E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.2070996863285099</v>
+      </c>
+      <c r="B48">
+        <v>3.1728253385356902</v>
+      </c>
+      <c r="C48">
+        <v>-9.1187537322319993E-3</v>
+      </c>
+      <c r="D48">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E48">
+        <v>4.1569887537296299</v>
+      </c>
+      <c r="F48">
+        <v>1.6484748631203999E-2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.0331267691836901</v>
+      </c>
+      <c r="B49">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C49">
+        <v>0.24790903838176501</v>
+      </c>
+      <c r="D49">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E49">
+        <v>3.3197154005049301</v>
+      </c>
+      <c r="F49">
+        <v>1.0424974618074E-2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="B50">
+        <v>3.16792900313671</v>
+      </c>
+      <c r="C50">
+        <v>-1.7413961790683E-2</v>
+      </c>
+      <c r="D50">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E50">
+        <v>4.1569887537296299</v>
+      </c>
+      <c r="F50">
+        <v>1.4531661884375E-2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.8251855252084801</v>
+      </c>
+      <c r="B51">
+        <v>2.0907352153622498</v>
+      </c>
+      <c r="C51">
+        <v>-0.14793483509446501</v>
+      </c>
+      <c r="D51">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E51">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F51">
+        <v>8.9731007271070008E-3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.3246117359039098</v>
+      </c>
+      <c r="B52">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="C52">
+        <v>-2.5467233117103E-2</v>
+      </c>
+      <c r="D52">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E52">
+        <v>4.2304337847142497</v>
+      </c>
+      <c r="F52">
+        <v>1.3370512857846E-2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.91071838420931805</v>
+      </c>
+      <c r="B53">
+        <v>2.09563155076123</v>
+      </c>
+      <c r="C53">
+        <v>0.27430626019993298</v>
+      </c>
+      <c r="D53">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E53">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F53">
+        <v>8.1025805314139995E-3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.2266850279244101</v>
+      </c>
+      <c r="B54">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="C54">
+        <v>-1.305542854346E-3</v>
+      </c>
+      <c r="D54">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E54">
+        <v>4.2451227909111804</v>
+      </c>
+      <c r="F54">
+        <v>1.2160005976326001E-2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.8349781960064302</v>
+      </c>
+      <c r="B55">
+        <v>2.11032055695815</v>
+      </c>
+      <c r="C55">
+        <v>-0.13990100043182799</v>
+      </c>
+      <c r="D55">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E55">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F55">
+        <v>7.3544378686839999E-3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3.2609593757172401</v>
+      </c>
+      <c r="B56">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="C56">
+        <v>-1.0691825355577E-2</v>
+      </c>
+      <c r="D56">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E56">
+        <v>4.1618850891286101</v>
+      </c>
+      <c r="F56">
+        <v>1.0751295789673E-2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.99885242139086505</v>
+      </c>
+      <c r="B57">
+        <v>2.09563155076123</v>
+      </c>
+      <c r="C57">
+        <v>0.261810584838848</v>
+      </c>
+      <c r="D57">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E57">
+        <v>3.39805676688853</v>
+      </c>
+      <c r="F57">
+        <v>7.2605992377869997E-3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="B58">
+        <v>3.21689235712646</v>
+      </c>
+      <c r="C58">
+        <v>-9.5136121080039993E-3</v>
+      </c>
+      <c r="D58">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E58">
+        <v>4.2451227909111804</v>
+      </c>
+      <c r="F58">
+        <v>1.0200931362682001E-2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.10657180016831</v>
+      </c>
+      <c r="B59">
+        <v>2.1005278861601999</v>
+      </c>
+      <c r="C59">
+        <v>0.23075090501404899</v>
+      </c>
+      <c r="D59">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E59">
+        <v>3.20220335092954</v>
+      </c>
+      <c r="F59">
+        <v>5.9892326123139996E-3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3.1924106801315899</v>
+      </c>
+      <c r="B60">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="C60">
+        <v>8.2925910239809997E-3</v>
+      </c>
+      <c r="D60">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E60">
+        <v>4.1863667661234798</v>
+      </c>
+      <c r="F60">
+        <v>9.2454234080779994E-3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.07719378777446</v>
+      </c>
+      <c r="B61">
+        <v>2.0662535383673801</v>
+      </c>
+      <c r="C61">
+        <v>0.232251446143344</v>
+      </c>
+      <c r="D61">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E61">
+        <v>3.2462703695203099</v>
+      </c>
+      <c r="F61">
+        <v>5.7066240942359996E-3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3.0797949659551702</v>
+      </c>
+      <c r="B62">
+        <v>3.1777216739346601</v>
+      </c>
+      <c r="C62">
+        <v>2.6025583724570998E-2</v>
+      </c>
+      <c r="D62">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E62">
+        <v>4.1912631015224502</v>
+      </c>
+      <c r="F62">
+        <v>8.6111138159729993E-3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.10657180016831</v>
+      </c>
+      <c r="B63">
+        <v>2.14949124014995</v>
+      </c>
+      <c r="C63">
+        <v>0.23079818222013401</v>
+      </c>
+      <c r="D63">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="E63">
+        <v>3.1924106801315899</v>
+      </c>
+      <c r="F63">
+        <v>5.1536656702960001E-3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.8104965190115498</v>
+      </c>
+      <c r="B64">
+        <v>3.2266850279244101</v>
+      </c>
+      <c r="C64">
+        <v>9.4307823888281003E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E64">
+        <v>4.1912631015224502</v>
+      </c>
+      <c r="F64">
+        <v>0.80758315080076504</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.2240838497437101</v>
+      </c>
+      <c r="B65">
+        <v>2.0662535383673801</v>
+      </c>
+      <c r="C65">
+        <v>0.186084008877132</v>
+      </c>
+      <c r="D65">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E65">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="F65">
+        <v>0.10990430883689201</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="B66">
+        <v>3.21689235712646</v>
+      </c>
+      <c r="C66">
+        <v>5.1310979216259997E-3</v>
+      </c>
+      <c r="D66">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E66">
+        <v>4.2304337847142497</v>
+      </c>
+      <c r="F66">
+        <v>0.106440571008315</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.1898095019508801</v>
+      </c>
+      <c r="B67">
+        <v>2.0809425445643002</v>
+      </c>
+      <c r="C67">
+        <v>0.21227117138283</v>
+      </c>
+      <c r="D67">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E67">
+        <v>3.2658557111162101</v>
+      </c>
+      <c r="F67">
+        <v>4.6036224277826998E-2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="B68">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="C68">
+        <v>-9.3635838856819999E-3</v>
+      </c>
+      <c r="D68">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E68">
+        <v>4.1765740953255301</v>
+      </c>
+      <c r="F68">
+        <v>5.6777902533819001E-2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.05271211077959</v>
+      </c>
+      <c r="B69">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C69">
+        <v>0.24264421180544599</v>
+      </c>
+      <c r="D69">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E69">
+        <v>3.16792900313671</v>
+      </c>
+      <c r="F69">
+        <v>2.745275826963E-2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="B70">
+        <v>3.1826180093336398</v>
+      </c>
+      <c r="C70">
+        <v>-2.3109703461659001E-2</v>
+      </c>
+      <c r="D70">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E70">
+        <v>4.1912631015224502</v>
+      </c>
+      <c r="F70">
+        <v>3.8924007318077998E-2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.01843776298676</v>
+      </c>
+      <c r="B71">
+        <v>2.0858388799632799</v>
+      </c>
+      <c r="C71">
+        <v>0.25143992445797098</v>
+      </c>
+      <c r="D71">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E71">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="F71">
+        <v>2.1551833565653999E-2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3.1189656491469702</v>
+      </c>
+      <c r="B72">
+        <v>3.24137403412134</v>
+      </c>
+      <c r="C72">
+        <v>3.1638290180471998E-2</v>
+      </c>
+      <c r="D72">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E72">
+        <v>4.1422997475327099</v>
+      </c>
+      <c r="F72">
+        <v>2.907224534675E-2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2.8986305561930998</v>
+      </c>
+      <c r="B73">
+        <v>2.1299058985540502</v>
+      </c>
+      <c r="C73">
+        <v>-0.156626896537299</v>
+      </c>
+      <c r="D73">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E73">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="F73">
+        <v>1.6195204860486E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3.2609593757172401</v>
+      </c>
+      <c r="B74">
+        <v>3.3197154005049301</v>
+      </c>
+      <c r="C74">
+        <v>1.6105143352409999E-2</v>
+      </c>
+      <c r="D74">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E74">
+        <v>4.2206411139163</v>
+      </c>
+      <c r="F74">
+        <v>2.4109242172451001E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.07719378777446</v>
+      </c>
+      <c r="B75">
+        <v>2.0809425445643002</v>
+      </c>
+      <c r="C75">
+        <v>0.23584837331779299</v>
+      </c>
+      <c r="D75">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E75">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="F75">
+        <v>1.4029236185149001E-2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3.06510595975824</v>
+      </c>
+      <c r="B76">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="C76">
+        <v>4.3642282066392001E-2</v>
+      </c>
+      <c r="D76">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E76">
+        <v>4.1912631015224502</v>
+      </c>
+      <c r="F76">
+        <v>2.0040600361394999E-2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.81539285441053</v>
+      </c>
+      <c r="B77">
+        <v>2.1005278861601999</v>
+      </c>
+      <c r="C77">
+        <v>-0.14726020917823601</v>
+      </c>
+      <c r="D77">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E77">
+        <v>3.15323999693979</v>
+      </c>
+      <c r="F77">
+        <v>1.1055198351030001E-2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="B78">
+        <v>3.21689235712646</v>
+      </c>
+      <c r="C78">
+        <v>5.3662387577139998E-3</v>
+      </c>
+      <c r="D78">
+        <v>1.5962053400657901</v>
+      </c>
+      <c r="E78">
+        <v>4.1765740953255301</v>
+      </c>
+      <c r="F78">
+        <v>1.7147970179214999E-2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.21689235712646</v>
+      </c>
+      <c r="B79">
+        <v>3.4176421084844302</v>
+      </c>
+      <c r="C79">
+        <v>5.1197433597588E-2</v>
+      </c>
+      <c r="D79">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E79">
+        <v>4.25491546170913</v>
+      </c>
+      <c r="F79">
+        <v>0.91244646224484705</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.1434473261418399</v>
+      </c>
+      <c r="B80">
+        <v>2.1592839109479001</v>
+      </c>
+      <c r="C80">
+        <v>-0.19410106360876</v>
+      </c>
+      <c r="D80">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E80">
+        <v>3.11406931374799</v>
+      </c>
+      <c r="F80">
+        <v>9.4280951251426007E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3.16792900313671</v>
+      </c>
+      <c r="B81">
+        <v>3.3735750898936598</v>
+      </c>
+      <c r="C81">
+        <v>5.2502033434763E-2</v>
+      </c>
+      <c r="D81">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E81">
+        <v>4.1569887537296299</v>
+      </c>
+      <c r="F81">
+        <v>0.100022489684508</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1.11146813556729</v>
+      </c>
+      <c r="B82">
+        <v>2.1690765817458502</v>
+      </c>
+      <c r="C82">
+        <v>0.210834020023484</v>
+      </c>
+      <c r="D82">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E82">
+        <v>2.9280085685869501</v>
+      </c>
+      <c r="F82">
+        <v>3.4237635798056998E-2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3.1924106801315899</v>
+      </c>
+      <c r="B83">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="C83">
+        <v>3.8599476880240999E-2</v>
+      </c>
+      <c r="D83">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E83">
+        <v>4.3283604926937498</v>
+      </c>
+      <c r="F83">
+        <v>5.8388041364867999E-2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.97437074439599103</v>
+      </c>
+      <c r="B84">
+        <v>2.1690765817458502</v>
+      </c>
+      <c r="C84">
+        <v>0.24317447370546699</v>
+      </c>
+      <c r="D84">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E84">
+        <v>3.1238619845459401</v>
+      </c>
+      <c r="F84">
+        <v>2.5469231981476E-2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="B85">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="C85">
+        <v>2.5079014397572999E-2</v>
+      </c>
+      <c r="D85">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E85">
+        <v>4.2647081325070797</v>
+      </c>
+      <c r="F85">
+        <v>3.8426674697659001E-2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.8104965190115498</v>
+      </c>
+      <c r="B86">
+        <v>2.14949124014995</v>
+      </c>
+      <c r="C86">
+        <v>-0.123604306781781</v>
+      </c>
+      <c r="D86">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E86">
+        <v>3.0944839721520898</v>
+      </c>
+      <c r="F86">
+        <v>1.8176495047481998E-2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="B87">
+        <v>3.3490934128987799</v>
+      </c>
+      <c r="C87">
+        <v>2.0856392904456001E-2</v>
+      </c>
+      <c r="D87">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E87">
+        <v>4.25491546170913</v>
+      </c>
+      <c r="F87">
+        <v>2.8759377283284E-2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.92311223318797</v>
+      </c>
+      <c r="B88">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C88">
+        <v>-0.146335931923991</v>
+      </c>
+      <c r="D88">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E88">
+        <v>3.1238619845459401</v>
+      </c>
+      <c r="F88">
+        <v>1.4001308932664E-2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3.15323999693979</v>
+      </c>
+      <c r="B89">
+        <v>3.3490934128987799</v>
+      </c>
+      <c r="C89">
+        <v>5.1293505038160998E-2</v>
+      </c>
+      <c r="D89">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E89">
+        <v>4.2500191263101499</v>
+      </c>
+      <c r="F89">
+        <v>2.2521650929975E-2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.84216968862367103</v>
+      </c>
+      <c r="B90">
+        <v>2.1788692525437998</v>
+      </c>
+      <c r="C90">
+        <v>0.269386498048305</v>
+      </c>
+      <c r="D90">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E90">
+        <v>3.0504169535613199</v>
+      </c>
+      <c r="F90">
+        <v>1.1060188567758001E-2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3.2364776987223598</v>
+      </c>
+      <c r="B91">
+        <v>3.3344044067018599</v>
+      </c>
+      <c r="C91">
+        <v>2.6403819457558E-2</v>
+      </c>
+      <c r="D91">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E91">
+        <v>4.3871165174814504</v>
+      </c>
+      <c r="F91">
+        <v>1.9924918770173002E-2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2.9329049039859201</v>
+      </c>
+      <c r="B92">
+        <v>2.14459490475098</v>
+      </c>
+      <c r="C92">
+        <v>-0.14756916914315499</v>
+      </c>
+      <c r="D92">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E92">
+        <v>3.0895876367531199</v>
+      </c>
+      <c r="F92">
+        <v>9.7532377548430003E-3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3.3148190651059601</v>
+      </c>
+      <c r="B93">
+        <v>3.35888608369673</v>
+      </c>
+      <c r="C93">
+        <v>1.1597862501354E-2</v>
+      </c>
+      <c r="D93">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E93">
+        <v>4.2255374493152802</v>
+      </c>
+      <c r="F93">
+        <v>1.6278429433325001E-2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3.09938030755107</v>
+      </c>
+      <c r="B94">
+        <v>2.14949124014995</v>
+      </c>
+      <c r="C94">
+        <v>-0.17069660758108399</v>
+      </c>
+      <c r="D94">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E94">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="F94">
+        <v>7.7177034451580001E-3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3.3539897482977601</v>
+      </c>
+      <c r="B95">
+        <v>3.3539897482977601</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E95">
+        <v>4.2304337847142497</v>
+      </c>
+      <c r="F95">
+        <v>1.4372700000958E-2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3.00634993497055</v>
+      </c>
+      <c r="B96">
+        <v>2.1543875755489199</v>
+      </c>
+      <c r="C96">
+        <v>-0.16321220780107501</v>
+      </c>
+      <c r="D96">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E96">
+        <v>3.06510595975824</v>
+      </c>
+      <c r="F96">
+        <v>7.4456491073209997E-3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="B97">
+        <v>3.30992272970698</v>
+      </c>
+      <c r="C97">
+        <v>1.0425584557345E-2</v>
+      </c>
+      <c r="D97">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E97">
+        <v>4.2402264555122002</v>
+      </c>
+      <c r="F97">
+        <v>1.2946727040946E-2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.92311223318797</v>
+      </c>
+      <c r="B98">
+        <v>2.1152168923571302</v>
+      </c>
+      <c r="C98">
+        <v>-0.15120017032774399</v>
+      </c>
+      <c r="D98">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E98">
+        <v>3.1042766429500399</v>
+      </c>
+      <c r="F98">
+        <v>6.9041894357750001E-3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3.2070996863285099</v>
+      </c>
+      <c r="B99">
+        <v>3.30992272970698</v>
+      </c>
+      <c r="C99">
+        <v>2.7319426296333001E-2</v>
+      </c>
+      <c r="D99">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E99">
+        <v>4.2402264555122002</v>
+      </c>
+      <c r="F99">
+        <v>1.1688495799998999E-2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.86925254379925</v>
+      </c>
+      <c r="B100">
+        <v>2.1739729171448201</v>
+      </c>
+      <c r="C100">
+        <v>-0.12650089466763501</v>
+      </c>
+      <c r="D100">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E100">
+        <v>3.14834366154082</v>
+      </c>
+      <c r="F100">
+        <v>6.4744743775180004E-3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3.2609593757172401</v>
+      </c>
+      <c r="B101">
+        <v>3.3490934128987799</v>
+      </c>
+      <c r="C101">
+        <v>2.3780563757763998E-2</v>
+      </c>
+      <c r="D101">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E101">
+        <v>4.2010557723203998</v>
+      </c>
+      <c r="F101">
+        <v>1.0522329013492E-2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.9378012393848998</v>
+      </c>
+      <c r="B102">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C102">
+        <v>-0.16376391576176799</v>
+      </c>
+      <c r="D102">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E102">
+        <v>3.1826180093336398</v>
+      </c>
+      <c r="F102">
+        <v>6.0752681080419998E-3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="B103">
+        <v>3.30992272970698</v>
+      </c>
+      <c r="C103">
+        <v>7.9228265743579995E-3</v>
+      </c>
+      <c r="D103">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E103">
+        <v>4.2108484431183504</v>
+      </c>
+      <c r="F103">
+        <v>9.7246703776900003E-3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.97207558717772</v>
+      </c>
+      <c r="B104">
+        <v>2.1739729171448201</v>
+      </c>
+      <c r="C104">
+        <v>-0.14773966674328401</v>
+      </c>
+      <c r="D104">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E104">
+        <v>3.0846913013541402</v>
+      </c>
+      <c r="F104">
+        <v>5.2528839133769998E-3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3.1189656491469702</v>
+      </c>
+      <c r="B105">
+        <v>3.30992272970698</v>
+      </c>
+      <c r="C105">
+        <v>5.1609419177960997E-2</v>
+      </c>
+      <c r="D105">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E105">
+        <v>4.1961594369214303</v>
+      </c>
+      <c r="F105">
+        <v>8.9682651979699993E-3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.87154770101751999</v>
+      </c>
+      <c r="B106">
+        <v>2.1348022339530299</v>
+      </c>
+      <c r="C106">
+        <v>0.26339893958390698</v>
+      </c>
+      <c r="D106">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E106">
+        <v>2.9769719225767002</v>
+      </c>
+      <c r="F106">
+        <v>4.5215657513480003E-3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="B107">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="C107">
+        <v>-1.0151448514418E-2</v>
+      </c>
+      <c r="D107">
+        <v>1.62068701706067</v>
+      </c>
+      <c r="E107">
+        <v>4.2010557723203998</v>
+      </c>
+      <c r="F107">
+        <v>8.3440315292230005E-3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3.7946599342054901</v>
+      </c>
+      <c r="B108">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C108">
+        <v>-0.30578426811973802</v>
+      </c>
+      <c r="D108">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E108">
+        <v>3.4959834748680301</v>
+      </c>
+      <c r="F108">
+        <v>0.393017770023181</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3.8632086297911399</v>
+      </c>
+      <c r="B109">
+        <v>2.0270828551755802</v>
+      </c>
+      <c r="C109">
+        <v>-0.27185719870632602</v>
+      </c>
+      <c r="D109">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E109">
+        <v>3.43233111468136</v>
+      </c>
+      <c r="F109">
+        <v>0.113713880999789</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3.8534159589931898</v>
+      </c>
+      <c r="B110">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C110">
+        <v>-0.34200630746496102</v>
+      </c>
+      <c r="D110">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E110">
+        <v>3.5057761456659802</v>
+      </c>
+      <c r="F110">
+        <v>7.2045458794658998E-2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3.7114222324229198</v>
+      </c>
+      <c r="B111">
+        <v>1.9977048427817301</v>
+      </c>
+      <c r="C111">
+        <v>-0.25201904985811702</v>
+      </c>
+      <c r="D111">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E111">
+        <v>3.4078494376864801</v>
+      </c>
+      <c r="F111">
+        <v>4.6365600174885002E-2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3.5498431642567501</v>
+      </c>
+      <c r="B112">
+        <v>1.9781195011858299</v>
+      </c>
+      <c r="C112">
+        <v>-0.23798564483787399</v>
+      </c>
+      <c r="D112">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E112">
+        <v>3.4127457730854598</v>
+      </c>
+      <c r="F112">
+        <v>3.5687227743361999E-2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3.86810496519012</v>
+      </c>
+      <c r="B113">
+        <v>1.9095708056001801</v>
+      </c>
+      <c r="C113">
+        <v>-0.35588784829237702</v>
+      </c>
+      <c r="D113">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E113">
+        <v>3.5596358350547002</v>
+      </c>
+      <c r="F113">
+        <v>3.1545161434996999E-2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3.5645321704536799</v>
+      </c>
+      <c r="B114">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C114">
+        <v>-0.24693176090917501</v>
+      </c>
+      <c r="D114">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E114">
+        <v>3.44702012087828</v>
+      </c>
+      <c r="F114">
+        <v>2.5282705369056999E-2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3.5841175120495801</v>
+      </c>
+      <c r="B115">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C115">
+        <v>-0.30437487991039103</v>
+      </c>
+      <c r="D115">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E115">
+        <v>3.53515415805983</v>
+      </c>
+      <c r="F115">
+        <v>2.2980124589379002E-2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3.4812944686710998</v>
+      </c>
+      <c r="B116">
+        <v>1.9438451533930099</v>
+      </c>
+      <c r="C116">
+        <v>-0.243082144944826</v>
+      </c>
+      <c r="D116">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E116">
+        <v>3.4372274500803299</v>
+      </c>
+      <c r="F116">
+        <v>1.9258230038780001E-2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="B117">
+        <v>1.95363782419096</v>
+      </c>
+      <c r="C117">
+        <v>-0.241046259821523</v>
+      </c>
+      <c r="D117">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E117">
+        <v>3.4617091270752001</v>
+      </c>
+      <c r="F117">
+        <v>1.7303627251414998E-2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.7995562696044698</v>
+      </c>
+      <c r="B118">
+        <v>2.0613572029684</v>
+      </c>
+      <c r="C118">
+        <v>-0.24348903513074799</v>
+      </c>
+      <c r="D118">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E118">
+        <v>3.39805676688853</v>
+      </c>
+      <c r="F118">
+        <v>1.5109783103103999E-2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3.77997092800857</v>
+      </c>
+      <c r="B119">
+        <v>1.98791217198378</v>
+      </c>
+      <c r="C119">
+        <v>-0.248663699571123</v>
+      </c>
+      <c r="D119">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E119">
+        <v>3.4568127916762301</v>
+      </c>
+      <c r="F119">
+        <v>1.4092049684889999E-2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3.7505929156147202</v>
+      </c>
+      <c r="B120">
+        <v>1.98791217198378</v>
+      </c>
+      <c r="C120">
+        <v>-0.24878796915895199</v>
+      </c>
+      <c r="D120">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E120">
+        <v>3.4421237854793101</v>
+      </c>
+      <c r="F120">
+        <v>1.2726985836516999E-2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3.78486726340754</v>
+      </c>
+      <c r="B121">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C121">
+        <v>-0.246059898486574</v>
+      </c>
+      <c r="D121">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E121">
+        <v>3.4568127916762301</v>
+      </c>
+      <c r="F121">
+        <v>1.180603370233E-2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.7163185678219</v>
+      </c>
+      <c r="B122">
+        <v>2.0221865197766</v>
+      </c>
+      <c r="C122">
+        <v>-0.220225950973192</v>
+      </c>
+      <c r="D122">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E122">
+        <v>3.4617091270752001</v>
+      </c>
+      <c r="F122">
+        <v>1.0957296204977001E-2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3.7408002448167701</v>
+      </c>
+      <c r="B123">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C123">
+        <v>-0.26063872039205199</v>
+      </c>
+      <c r="D123">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E123">
+        <v>3.4176421084844302</v>
+      </c>
+      <c r="F123">
+        <v>1.0021197067007E-2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3.5302578226608499</v>
+      </c>
+      <c r="B124">
+        <v>2.0466681967714799</v>
+      </c>
+      <c r="C124">
+        <v>-0.18801751820164</v>
+      </c>
+      <c r="D124">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E124">
+        <v>3.44702012087828</v>
+      </c>
+      <c r="F124">
+        <v>9.4998729973810002E-3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3.6526662076352201</v>
+      </c>
+      <c r="B125">
+        <v>1.97322316578686</v>
+      </c>
+      <c r="C125">
+        <v>-0.265575624534378</v>
+      </c>
+      <c r="D125">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E125">
+        <v>3.4274347792823798</v>
+      </c>
+      <c r="F125">
+        <v>8.9087219636519999E-3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.7408002448167701</v>
+      </c>
+      <c r="B126">
+        <v>1.9585341595899299</v>
+      </c>
+      <c r="C126">
+        <v>-0.26990631442750201</v>
+      </c>
+      <c r="D126">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E126">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F126">
+        <v>8.243965266031E-3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3.7016295616249701</v>
+      </c>
+      <c r="B127">
+        <v>1.9487414887919801</v>
+      </c>
+      <c r="C127">
+        <v>-0.25901366838802498</v>
+      </c>
+      <c r="D127">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E127">
+        <v>3.4225384438834099</v>
+      </c>
+      <c r="F127">
+        <v>7.9629010887159995E-3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3.7750745926095899</v>
+      </c>
+      <c r="B128">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C128">
+        <v>-0.25722730415030498</v>
+      </c>
+      <c r="D128">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E128">
+        <v>3.39316043148956</v>
+      </c>
+      <c r="F128">
+        <v>7.4654845239770003E-3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3.7603855864126698</v>
+      </c>
+      <c r="B129">
+        <v>1.9634304949889101</v>
+      </c>
+      <c r="C129">
+        <v>-0.23377192650980699</v>
+      </c>
+      <c r="D129">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E129">
+        <v>3.4910871394690499</v>
+      </c>
+      <c r="F129">
+        <v>7.4420374441189997E-3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3.7212149032208699</v>
+      </c>
+      <c r="B130">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C130">
+        <v>-0.22172793014609399</v>
+      </c>
+      <c r="D130">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E130">
+        <v>3.4666054624741802</v>
+      </c>
+      <c r="F130">
+        <v>7.0191188515140003E-3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3.6330808660393199</v>
+      </c>
+      <c r="B131">
+        <v>1.8948817994032601</v>
+      </c>
+      <c r="C131">
+        <v>-0.30095477799106002</v>
+      </c>
+      <c r="D131">
+        <v>1.35138857011705</v>
+      </c>
+      <c r="E131">
+        <v>3.45191645627725</v>
+      </c>
+      <c r="F131">
+        <v>6.6935234444689996E-3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3.3148190651059601</v>
+      </c>
+      <c r="B132">
+        <v>1.89977813480223</v>
+      </c>
+      <c r="C132">
+        <v>-0.447206233171622</v>
+      </c>
+      <c r="D132">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E132">
+        <v>3.4910871394690499</v>
+      </c>
+      <c r="F132">
+        <v>1.2395658103954E-2</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3.30502639430801</v>
+      </c>
+      <c r="B133">
+        <v>1.84591844541351</v>
+      </c>
+      <c r="C133">
+        <v>-0.45275841644623399</v>
+      </c>
+      <c r="D133">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E133">
+        <v>3.6624588784331702</v>
+      </c>
+      <c r="F133">
+        <v>1.4210772796454E-2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="B134">
+        <v>1.86550378700941</v>
+      </c>
+      <c r="C134">
+        <v>-0.31002605409929801</v>
+      </c>
+      <c r="D134">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E134">
+        <v>3.6232881952413698</v>
+      </c>
+      <c r="F134">
+        <v>8.8148893157430006E-3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2.8986305561930998</v>
+      </c>
+      <c r="B135">
+        <v>1.93405248259506</v>
+      </c>
+      <c r="C135">
+        <v>-0.28046124509452097</v>
+      </c>
+      <c r="D135">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E135">
+        <v>3.4666054624741802</v>
+      </c>
+      <c r="F135">
+        <v>3.6160199863589999E-3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="B136">
+        <v>1.8704001224083799</v>
+      </c>
+      <c r="C136">
+        <v>-0.48653021694375098</v>
+      </c>
+      <c r="D136">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E136">
+        <v>3.5400504934588</v>
+      </c>
+      <c r="F136">
+        <v>4.2121726421609999E-3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3.5841175120495801</v>
+      </c>
+      <c r="B137">
+        <v>1.7822660852268399</v>
+      </c>
+      <c r="C137">
+        <v>-0.36780621985573603</v>
+      </c>
+      <c r="D137">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E137">
+        <v>3.6379772014383001</v>
+      </c>
+      <c r="F137">
+        <v>4.8633869902520001E-3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3.6330808660393199</v>
+      </c>
+      <c r="B138">
+        <v>1.8557111162114599</v>
+      </c>
+      <c r="C138">
+        <v>-0.370848069199399</v>
+      </c>
+      <c r="D138">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E138">
+        <v>3.5596358350547002</v>
+      </c>
+      <c r="F138">
+        <v>3.1918498535309999E-3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2.8790452145972001</v>
+      </c>
+      <c r="B139">
+        <v>2.1054242215591801</v>
+      </c>
+      <c r="C139">
+        <v>-0.22500713899303901</v>
+      </c>
+      <c r="D139">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E139">
+        <v>2.9965572641725999</v>
+      </c>
+      <c r="F139">
+        <v>-3.1998606116540001E-3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.9133195623900199</v>
+      </c>
+      <c r="B140">
+        <v>2.0858388799632799</v>
+      </c>
+      <c r="C140">
+        <v>-0.258011566100666</v>
+      </c>
+      <c r="D140">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E140">
+        <v>3.1777216739346601</v>
+      </c>
+      <c r="F140">
+        <v>-1.1401755603599999E-3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3.0553132889602899</v>
+      </c>
+      <c r="B141">
+        <v>1.9487414887919801</v>
+      </c>
+      <c r="C141">
+        <v>-0.33891697599278198</v>
+      </c>
+      <c r="D141">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E141">
+        <v>3.3001300589090401</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4.33344696330817E-5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3.9023793129829398</v>
+      </c>
+      <c r="B142">
+        <v>1.86550378700941</v>
+      </c>
+      <c r="C142">
+        <v>-0.44440537589345103</v>
+      </c>
+      <c r="D142">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E142">
+        <v>3.6820442200290699</v>
+      </c>
+      <c r="F142">
+        <v>3.0885801600829999E-3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2.9475939101828499</v>
+      </c>
+      <c r="B143">
+        <v>1.85081478081249</v>
+      </c>
+      <c r="C143">
+        <v>-0.29132190023236398</v>
+      </c>
+      <c r="D143">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E143">
+        <v>3.64287353683727</v>
+      </c>
+      <c r="F143">
+        <v>2.5539123533849998E-3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2.8741488791982301</v>
+      </c>
+      <c r="B144">
+        <v>1.88019279320633</v>
+      </c>
+      <c r="C144">
+        <v>-0.19397239314325501</v>
+      </c>
+      <c r="D144">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E144">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="F144">
+        <v>2.677830249506E-3</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2.9769719225767002</v>
+      </c>
+      <c r="B145">
+        <v>1.9291561471960801</v>
+      </c>
+      <c r="C145">
+        <v>-0.30978292980542999</v>
+      </c>
+      <c r="D145">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E145">
+        <v>3.4568127916762301</v>
+      </c>
+      <c r="F145">
+        <v>1.0168177635289999E-3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2.9035268915920698</v>
+      </c>
+      <c r="B146">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C146">
+        <v>-0.268398247738942</v>
+      </c>
+      <c r="D146">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E146">
+        <v>3.1777216739346601</v>
+      </c>
+      <c r="F146">
+        <v>-6.9387894995900001E-4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2.9965572641725999</v>
+      </c>
+      <c r="B147">
+        <v>1.95363782419096</v>
+      </c>
+      <c r="C147">
+        <v>-0.29867873239187998</v>
+      </c>
+      <c r="D147">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E147">
+        <v>3.39805676688853</v>
+      </c>
+      <c r="F147">
+        <v>5.7124773066199997E-4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2.8741488791982301</v>
+      </c>
+      <c r="B148">
+        <v>2.0221865197766</v>
+      </c>
+      <c r="C148">
+        <v>-0.22950930127401001</v>
+      </c>
+      <c r="D148">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E148">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="F148">
+        <v>-1.02647353019E-4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="B149">
+        <v>1.84591844541351</v>
+      </c>
+      <c r="C149">
+        <v>-0.43618398826569899</v>
+      </c>
+      <c r="D149">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E149">
+        <v>3.5841175120495801</v>
+      </c>
+      <c r="F149">
+        <v>1.434665482546E-3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2.8937342207941201</v>
+      </c>
+      <c r="B150">
+        <v>1.9291561471960801</v>
+      </c>
+      <c r="C150">
+        <v>-0.256466339011647</v>
+      </c>
+      <c r="D150">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E150">
+        <v>3.4421237854793101</v>
+      </c>
+      <c r="F150">
+        <v>6.9315194080299999E-4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2.9475939101828499</v>
+      </c>
+      <c r="B151">
+        <v>1.82633310381761</v>
+      </c>
+      <c r="C151">
+        <v>-0.20776920308386801</v>
+      </c>
+      <c r="D151">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E151">
+        <v>3.6477698722362502</v>
+      </c>
+      <c r="F151">
+        <v>1.5717023946340001E-3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3.5204651518629002</v>
+      </c>
+      <c r="B152">
+        <v>1.83122943921659</v>
+      </c>
+      <c r="C152">
+        <v>-0.33711586149807099</v>
+      </c>
+      <c r="D152">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E152">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="F152">
+        <v>1.6738327213670001E-3</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.96947440899701598</v>
+      </c>
+      <c r="B153">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C153">
+        <v>0.45872120861885302</v>
+      </c>
+      <c r="D153">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E153">
+        <v>3.2070996863285099</v>
+      </c>
+      <c r="F153">
+        <v>-3.56256108559E-4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2.8545635376023299</v>
+      </c>
+      <c r="B154">
+        <v>1.9438451533930099</v>
+      </c>
+      <c r="C154">
+        <v>-0.17753316075733799</v>
+      </c>
+      <c r="D154">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E154">
+        <v>3.5204651518629002</v>
+      </c>
+      <c r="F154">
+        <v>8.6874037608900001E-4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1.8606074516104401</v>
+      </c>
+      <c r="B155">
+        <v>2.1348022339530299</v>
+      </c>
+      <c r="C155">
+        <v>7.7379675100571005E-2</v>
+      </c>
+      <c r="D155">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E155">
+        <v>3.0797949659551702</v>
+      </c>
+      <c r="F155">
+        <v>-7.5829678172899999E-4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3.0944839721520898</v>
+      </c>
+      <c r="B156">
+        <v>1.9095708056001801</v>
+      </c>
+      <c r="C156">
+        <v>-0.24106809069166901</v>
+      </c>
+      <c r="D156">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E156">
+        <v>3.59391018284752</v>
+      </c>
+      <c r="F156">
+        <v>1.0092758824039999E-3</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.55213832147502</v>
+      </c>
+      <c r="B157">
+        <v>2.16418024634687</v>
+      </c>
+      <c r="C157">
+        <v>0.135373702375265</v>
+      </c>
+      <c r="D157">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E157">
+        <v>3.1336546553438902</v>
+      </c>
+      <c r="F157">
+        <v>-5.2114175675000004E-4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2.9133195623900199</v>
+      </c>
+      <c r="B158">
+        <v>2.14459490475098</v>
+      </c>
+      <c r="C158">
+        <v>-0.25621736210250201</v>
+      </c>
+      <c r="D158">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="E158">
+        <v>3.15323999693979</v>
+      </c>
+      <c r="F158">
+        <v>-4.4370042921299999E-4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1.66965037105042</v>
+      </c>
+      <c r="B159">
+        <v>3.3882640960905799</v>
+      </c>
+      <c r="C159">
+        <v>0.25025092904785501</v>
+      </c>
+      <c r="D159">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E159">
+        <v>4.06395838114911</v>
+      </c>
+      <c r="F159">
+        <v>0.58487882419235304</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1.3464922347180801</v>
+      </c>
+      <c r="B160">
+        <v>3.2707520465151898</v>
+      </c>
+      <c r="C160">
+        <v>0.29140540992095598</v>
+      </c>
+      <c r="D160">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E160">
+        <v>4.1569887537296299</v>
+      </c>
+      <c r="F160">
+        <v>0.17311631355996801</v>
+      </c>
+      <c r="G160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1.3954555887078299</v>
+      </c>
+      <c r="B161">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="C161">
+        <v>0.27972705672128001</v>
+      </c>
+      <c r="D161">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E161">
+        <v>4.2500191263101499</v>
+      </c>
+      <c r="F161">
+        <v>0.103043229390837</v>
+      </c>
+      <c r="G161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1.24856552673858</v>
+      </c>
+      <c r="B162">
+        <v>3.5057761456659802</v>
+      </c>
+      <c r="C162">
+        <v>0.35423582778539198</v>
+      </c>
+      <c r="D162">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E162">
+        <v>4.1569887537296299</v>
+      </c>
+      <c r="F162">
+        <v>7.0770231050502994E-2</v>
+      </c>
+      <c r="G162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1.52765664448015</v>
+      </c>
+      <c r="B163">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="C163">
+        <v>0.28215199785226303</v>
+      </c>
+      <c r="D163">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E163">
+        <v>4.17167775992655</v>
+      </c>
+      <c r="F163">
+        <v>5.5366770058756003E-2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1.4835896258893699</v>
+      </c>
+      <c r="B164">
+        <v>3.4078494376864801</v>
+      </c>
+      <c r="C164">
+        <v>0.30413369613869201</v>
+      </c>
+      <c r="D164">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E164">
+        <v>4.1031290643409104</v>
+      </c>
+      <c r="F164">
+        <v>4.3897735541087002E-2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.2583581975365301</v>
+      </c>
+      <c r="B165">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="C165">
+        <v>0.29692481032350698</v>
+      </c>
+      <c r="D165">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E165">
+        <v>4.1765740953255301</v>
+      </c>
+      <c r="F165">
+        <v>3.7951688458152999E-2</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1.5570346568739999</v>
+      </c>
+      <c r="B166">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="C166">
+        <v>0.26966164765814998</v>
+      </c>
+      <c r="D166">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E166">
+        <v>4.0345803687552602</v>
+      </c>
+      <c r="F166">
+        <v>3.1149590866824999E-2</v>
+      </c>
+      <c r="G166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1.51296763828322</v>
+      </c>
+      <c r="B167">
+        <v>3.35888608369673</v>
+      </c>
+      <c r="C167">
+        <v>0.252536938471775</v>
+      </c>
+      <c r="D167">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E167">
+        <v>3.81914161120037</v>
+      </c>
+      <c r="F167">
+        <v>2.4971718119409E-2</v>
+      </c>
+      <c r="G167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1.2730472037334599</v>
+      </c>
+      <c r="B168">
+        <v>3.4274347792823798</v>
+      </c>
+      <c r="C168">
+        <v>0.32373940867832102</v>
+      </c>
+      <c r="D168">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E168">
+        <v>3.9905133501644898</v>
+      </c>
+      <c r="F168">
+        <v>2.3855765291759E-2</v>
+      </c>
+      <c r="G168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.76268074363094</v>
+      </c>
+      <c r="B169">
+        <v>2.14459490475098</v>
+      </c>
+      <c r="C169">
+        <v>4.1432080763781E-2</v>
+      </c>
+      <c r="D169">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E169">
+        <v>4.0884400581439797</v>
+      </c>
+      <c r="F169">
+        <v>2.2107576765335001E-2</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1.2093948435467801</v>
+      </c>
+      <c r="B170">
+        <v>3.3344044067018599</v>
+      </c>
+      <c r="C170">
+        <v>0.30658955598371601</v>
+      </c>
+      <c r="D170">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E170">
+        <v>4.0394767041542297</v>
+      </c>
+      <c r="F170">
+        <v>1.9548855280093001E-2</v>
+      </c>
+      <c r="G170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1.6598577002524699</v>
+      </c>
+      <c r="B171">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C171">
+        <v>6.2457048912638001E-2</v>
+      </c>
+      <c r="D171">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E171">
+        <v>4.0541657103511604</v>
+      </c>
+      <c r="F171">
+        <v>1.7909700422285998E-2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1.2779435391324301</v>
+      </c>
+      <c r="B172">
+        <v>3.4225384438834099</v>
+      </c>
+      <c r="C172">
+        <v>0.29978085995942599</v>
+      </c>
+      <c r="D172">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E172">
+        <v>4.1374034121337298</v>
+      </c>
+      <c r="F172">
+        <v>1.6983994801771998E-2</v>
+      </c>
+      <c r="G172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1.44441894269758</v>
+      </c>
+      <c r="B173">
+        <v>2.1837655879427702</v>
+      </c>
+      <c r="C173">
+        <v>8.4259296213726007E-2</v>
+      </c>
+      <c r="D173">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E173">
+        <v>4.06395838114911</v>
+      </c>
+      <c r="F173">
+        <v>1.5328494905100999E-2</v>
+      </c>
+      <c r="G173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1.68923571264632</v>
+      </c>
+      <c r="B174">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="C174">
+        <v>0.234957392798536</v>
+      </c>
+      <c r="D174">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E174">
+        <v>4.0933363935429599</v>
+      </c>
+      <c r="F174">
+        <v>1.4373228678158E-2</v>
+      </c>
+      <c r="G174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1.53255297987912</v>
+      </c>
+      <c r="B175">
+        <v>3.3344044067018599</v>
+      </c>
+      <c r="C175">
+        <v>0.26051575818415601</v>
+      </c>
+      <c r="D175">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E175">
+        <v>3.9807206793665402</v>
+      </c>
+      <c r="F175">
+        <v>1.2952987704829E-2</v>
+      </c>
+      <c r="G175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.7333027312370901</v>
+      </c>
+      <c r="B176">
+        <v>3.3148190651059601</v>
+      </c>
+      <c r="C176">
+        <v>0.22288402667271001</v>
+      </c>
+      <c r="D176">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E176">
+        <v>4.1276107413357801</v>
+      </c>
+      <c r="F176">
+        <v>1.2814775796482001E-2</v>
+      </c>
+      <c r="G176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.5717236630709199</v>
+      </c>
+      <c r="B177">
+        <v>3.4715017978731502</v>
+      </c>
+      <c r="C177">
+        <v>0.30047734859863601</v>
+      </c>
+      <c r="D177">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E177">
+        <v>4.1080253997398799</v>
+      </c>
+      <c r="F177">
+        <v>1.2033019837026E-2</v>
+      </c>
+      <c r="G177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.65496136485349</v>
+      </c>
+      <c r="B178">
+        <v>3.3148190651059601</v>
+      </c>
+      <c r="C178">
+        <v>0.211713564774094</v>
+      </c>
+      <c r="D178">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E178">
+        <v>3.9317573253767901</v>
+      </c>
+      <c r="F178">
+        <v>1.0669197809574E-2</v>
+      </c>
+      <c r="G178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.5570346568739999</v>
+      </c>
+      <c r="B179">
+        <v>3.3197154005049301</v>
+      </c>
+      <c r="C179">
+        <v>0.22305753784034299</v>
+      </c>
+      <c r="D179">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E179">
+        <v>4.0247876979573096</v>
+      </c>
+      <c r="F179">
+        <v>1.0482378119937999E-2</v>
+      </c>
+      <c r="G179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1.5570346568739999</v>
+      </c>
+      <c r="B180">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C180">
+        <v>7.5913306969903005E-2</v>
+      </c>
+      <c r="D180">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E180">
+        <v>3.9954096855634602</v>
+      </c>
+      <c r="F180">
+        <v>9.873690609717E-3</v>
+      </c>
+      <c r="G180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.7724734144288901</v>
+      </c>
+      <c r="B181">
+        <v>3.3344044067018599</v>
+      </c>
+      <c r="C181">
+        <v>0.19894321528755099</v>
+      </c>
+      <c r="D181">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E181">
+        <v>4.1080253997398799</v>
+      </c>
+      <c r="F181">
+        <v>9.7791293266329994E-3</v>
+      </c>
+      <c r="G181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.26815086833448</v>
+      </c>
+      <c r="B182">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C182">
+        <v>0.10590947862014199</v>
+      </c>
+      <c r="D182">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E182">
+        <v>3.86810496519012</v>
+      </c>
+      <c r="F182">
+        <v>8.5340222882909992E-3</v>
+      </c>
+      <c r="G182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1.3464922347180801</v>
+      </c>
+      <c r="B183">
+        <v>3.3686787544946801</v>
+      </c>
+      <c r="C183">
+        <v>0.27682169409051699</v>
+      </c>
+      <c r="D183">
+        <v>1.28773620993038</v>
+      </c>
+      <c r="E183">
+        <v>3.78486726340754</v>
+      </c>
+      <c r="F183">
+        <v>7.8844958628490006E-3</v>
+      </c>
+      <c r="G183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.82633310381761</v>
+      </c>
+      <c r="B184">
+        <v>3.6722515492311198</v>
+      </c>
+      <c r="C184">
+        <v>0.34986364053323998</v>
+      </c>
+      <c r="D184">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E184">
+        <v>3.30502639430801</v>
+      </c>
+      <c r="F184">
+        <v>0.106918364883429</v>
+      </c>
+      <c r="G184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.86550378700941</v>
+      </c>
+      <c r="B185">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="C185">
+        <v>0.35082808322289399</v>
+      </c>
+      <c r="D185">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E185">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="F185">
+        <v>4.5014997220389997E-3</v>
+      </c>
+      <c r="G185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1.81164409762069</v>
+      </c>
+      <c r="B186">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C186">
+        <v>4.7774509985150003E-2</v>
+      </c>
+      <c r="D186">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E186">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="F186">
+        <v>5.444694506884E-3</v>
+      </c>
+      <c r="G186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1.81654043301966</v>
+      </c>
+      <c r="B187">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="C187">
+        <v>0.38602970532646702</v>
+      </c>
+      <c r="D187">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E187">
+        <v>3.24137403412134</v>
+      </c>
+      <c r="F187">
+        <v>2.8429282006169998E-3</v>
+      </c>
+      <c r="G187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1.7675770790299099</v>
+      </c>
+      <c r="B188">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C188">
+        <v>7.2735943198647998E-2</v>
+      </c>
+      <c r="D188">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E188">
+        <v>1.74309540203504</v>
+      </c>
+      <c r="F188">
+        <v>-2.9076080031024E-2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1.60110167546477</v>
+      </c>
+      <c r="B189">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="C189">
+        <v>0.39914224525261899</v>
+      </c>
+      <c r="D189">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E189">
+        <v>1.7528880728329901</v>
+      </c>
+      <c r="F189">
+        <v>-2.3116240403607002E-2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.6843393772473401</v>
+      </c>
+      <c r="B190">
+        <v>3.7505929156147202</v>
+      </c>
+      <c r="C190">
+        <v>0.429297193638148</v>
+      </c>
+      <c r="D190">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E190">
+        <v>1.70882105424222</v>
+      </c>
+      <c r="F190">
+        <v>-2.0153369484978E-2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1.6990283834442701</v>
+      </c>
+      <c r="B191">
+        <v>3.48619080407008</v>
+      </c>
+      <c r="C191">
+        <v>0.40895213596419799</v>
+      </c>
+      <c r="D191">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E191">
+        <v>3.09938030755107</v>
+      </c>
+      <c r="F191">
+        <v>-4.8857287834600004E-4</v>
+      </c>
+      <c r="G191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1.88508912860531</v>
+      </c>
+      <c r="B192">
+        <v>3.2952337235100599</v>
+      </c>
+      <c r="C192">
+        <v>0.28784715522278298</v>
+      </c>
+      <c r="D192">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E192">
+        <v>3.1189656491469702</v>
+      </c>
+      <c r="F192">
+        <v>-2.1778172319899999E-4</v>
+      </c>
+      <c r="G192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1.7822660852268399</v>
+      </c>
+      <c r="B193">
+        <v>3.500879810267</v>
+      </c>
+      <c r="C193">
+        <v>0.36551352828623901</v>
+      </c>
+      <c r="D193">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E193">
+        <v>3.02593527656644</v>
+      </c>
+      <c r="F193">
+        <v>-1.1033743599290001E-3</v>
+      </c>
+      <c r="G193" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1.7137173896411899</v>
+      </c>
+      <c r="B194">
+        <v>3.4812944686710998</v>
+      </c>
+      <c r="C194">
+        <v>0.37841262019021299</v>
+      </c>
+      <c r="D194">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E194">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="F194">
+        <v>-1.0812100497910001E-3</v>
+      </c>
+      <c r="G194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1.33669956392013</v>
+      </c>
+      <c r="B195">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="C195">
+        <v>0.47923111321932099</v>
+      </c>
+      <c r="D195">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E195">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="F195">
+        <v>7.49046551971E-4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1.42483360110168</v>
+      </c>
+      <c r="B196">
+        <v>3.5988065182465001</v>
+      </c>
+      <c r="C196">
+        <v>0.45851337701580802</v>
+      </c>
+      <c r="D196">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E196">
+        <v>1.7675770790299099</v>
+      </c>
+      <c r="F196">
+        <v>-1.0057477124178E-2</v>
+      </c>
+      <c r="G196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1.5080713028842501</v>
+      </c>
+      <c r="B197">
+        <v>3.45191645627725</v>
+      </c>
+      <c r="C197">
+        <v>0.420197289449525</v>
+      </c>
+      <c r="D197">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E197">
+        <v>2.8202891898094999</v>
+      </c>
+      <c r="F197">
+        <v>-2.1934618854250001E-3</v>
+      </c>
+      <c r="G197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1.8606074516104401</v>
+      </c>
+      <c r="B198">
+        <v>3.3197154005049301</v>
+      </c>
+      <c r="C198">
+        <v>0.239691778004155</v>
+      </c>
+      <c r="D198">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E198">
+        <v>2.8056001836125799</v>
+      </c>
+      <c r="F198">
+        <v>-2.1192911400359999E-3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1.9242598117971099</v>
+      </c>
+      <c r="B199">
+        <v>3.4568127916762301</v>
+      </c>
+      <c r="C199">
+        <v>0.27072871478349297</v>
+      </c>
+      <c r="D199">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E199">
+        <v>2.9818682579756701</v>
+      </c>
+      <c r="F199">
+        <v>-9.3350455295400001E-4</v>
+      </c>
+      <c r="G199" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1.93405248259506</v>
+      </c>
+      <c r="B200">
+        <v>3.5302578226608499</v>
+      </c>
+      <c r="C200">
+        <v>0.31599377046608301</v>
+      </c>
+      <c r="D200">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E200">
+        <v>3.2315813633233899</v>
+      </c>
+      <c r="F200">
+        <v>5.2132335768100002E-4</v>
+      </c>
+      <c r="G200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1.75778440823196</v>
+      </c>
+      <c r="B201">
+        <v>3.4910871394690499</v>
+      </c>
+      <c r="C201">
+        <v>0.34115691441852602</v>
+      </c>
+      <c r="D201">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E201">
+        <v>3.14834366154082</v>
+      </c>
+      <c r="F201" s="1">
+        <v>5.1611546329705303E-5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1.79205875602479</v>
+      </c>
+      <c r="B202">
+        <v>3.4274347792823798</v>
+      </c>
+      <c r="C202">
+        <v>0.30793359269211401</v>
+      </c>
+      <c r="D202">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E202">
+        <v>2.9916609287736202</v>
+      </c>
+      <c r="F202">
+        <v>-7.3190457025899998E-4</v>
+      </c>
+      <c r="G202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1.88019279320633</v>
+      </c>
+      <c r="B203">
+        <v>3.53515415805983</v>
+      </c>
+      <c r="C203">
+        <v>0.296231585201779</v>
+      </c>
+      <c r="D203">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E203">
+        <v>3.7016295616249701</v>
+      </c>
+      <c r="F203">
+        <v>2.6533862814040001E-3</v>
+      </c>
+      <c r="G203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1.56682732767195</v>
+      </c>
+      <c r="B204">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C204">
+        <v>9.1180911688208993E-2</v>
+      </c>
+      <c r="D204">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E204">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="F204">
+        <v>2.1034834346810001E-3</v>
+      </c>
+      <c r="G204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1.6843393772473401</v>
+      </c>
+      <c r="B205">
+        <v>3.62818453064035</v>
+      </c>
+      <c r="C205">
+        <v>0.40381152766480899</v>
+      </c>
+      <c r="D205">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E205">
+        <v>3.3637824190957102</v>
+      </c>
+      <c r="F205">
+        <v>9.6050122079500001E-4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1.79695509142376</v>
+      </c>
+      <c r="B206">
+        <v>3.5694285058526498</v>
+      </c>
+      <c r="C206">
+        <v>0.31785269710251302</v>
+      </c>
+      <c r="D206">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E206">
+        <v>3.77997092800857</v>
+      </c>
+      <c r="F206">
+        <v>2.597750924733E-3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.6647540356514401</v>
+      </c>
+      <c r="B207">
+        <v>3.5204651518629002</v>
+      </c>
+      <c r="C207">
+        <v>0.38703638029663101</v>
+      </c>
+      <c r="D207">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E207">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.9242598117971099</v>
+      </c>
+      <c r="B208">
+        <v>3.5792211766505999</v>
+      </c>
+      <c r="C208">
+        <v>0.29882143953451501</v>
+      </c>
+      <c r="D208">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E208">
+        <v>3.4127457730854598</v>
+      </c>
+      <c r="F208">
+        <v>1.0172455669819999E-3</v>
+      </c>
+      <c r="G208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1.81164409762069</v>
+      </c>
+      <c r="B209">
+        <v>3.62818453064035</v>
+      </c>
+      <c r="C209">
+        <v>0.35913285751908602</v>
+      </c>
+      <c r="D209">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E209">
+        <v>3.4910871394690499</v>
+      </c>
+      <c r="F209">
+        <v>1.2562710472140001E-3</v>
+      </c>
+      <c r="G209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1.7479917374340099</v>
+      </c>
+      <c r="B210">
+        <v>3.5204651518629002</v>
+      </c>
+      <c r="C210">
+        <v>0.36327220684185302</v>
+      </c>
+      <c r="D210">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E210">
+        <v>3.1973070155305598</v>
+      </c>
+      <c r="F210">
+        <v>2.0145016428100001E-4</v>
+      </c>
+      <c r="G210" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1.79205875602479</v>
+      </c>
+      <c r="B211">
+        <v>3.6771478846301</v>
+      </c>
+      <c r="C211">
+        <v>0.37818242414471898</v>
+      </c>
+      <c r="D211">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E211">
+        <v>3.4176421084844302</v>
+      </c>
+      <c r="F211">
+        <v>9.2193385453999996E-4</v>
+      </c>
+      <c r="G211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1.70392471884324</v>
+      </c>
+      <c r="B212">
+        <v>3.6526662076352201</v>
+      </c>
+      <c r="C212">
+        <v>0.406649112437029</v>
+      </c>
+      <c r="D212">
+        <v>3.1385509907428699</v>
+      </c>
+      <c r="E212">
+        <v>1.79205875602479</v>
+      </c>
+      <c r="F212">
+        <v>-4.2646734424029997E-3</v>
+      </c>
+      <c r="G212" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD78CBD-CB6B-4A5A-A0C0-4C49F4BC7A67}">
   <dimension ref="A1:D214"/>
   <sheetViews>
@@ -49784,7 +55884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30C5D75-E846-4A28-88ED-5C3749105C4C}">
   <dimension ref="A1:F215"/>
   <sheetViews>
@@ -54097,1212 +60197,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:C149"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>0.87336415899999997</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1.0195337339999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1.1159189780000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1.174937323</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1.1396153440000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1.1154854599999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1.0138001780000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1.050857666</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1.084087206</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1.131246371</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1.163411105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1.198465133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1.224679911</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1.2370932699999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1.54355727</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1.583806023</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>1.5731324760000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>1.5095892710000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1.471394391</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>1.4900035469999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>1.49754593</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>1.5032473079999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>1.49985415</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>1.4887884870000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>1.492184524</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>1.485664648</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>1.4861822140000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>1.4780808830000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>0.81071734900000003</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>1.286825954</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>1.1726504129999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>1.0935778270000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>1.0868538130000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>1.116058628</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>1.123875376</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>1.1623171269999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>1.1876391639999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38">
-        <v>1.2066067899999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39">
-        <v>1.2184439490000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>1.2139949670000001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>1.217624056</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>1.213396868</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>1.500949764</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>1.3831310889999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45">
-        <v>1.1911207100000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>1.1228037850000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47">
-        <v>1.1159069109999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48">
-        <v>1.143490406</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49">
-        <v>1.148864286</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>1.1147769970000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>1.0930213689999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>1.130863956</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>1.164516025</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54">
-        <v>1.1742807019999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>1.194828255</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>1.730154583</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57">
-        <v>1.306925251</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>1.365167757</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59">
-        <v>1.332430303</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>1.376420601</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61">
-        <v>1.4042314060000001</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>1.4188040230000001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63">
-        <v>1.536743492</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>1.465719182</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65">
-        <v>1.4068710579999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66">
-        <v>1.347037526</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67">
-        <v>1.336132283</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68">
-        <v>1.334444162</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>1.313791111</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>1.3190933330000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71">
-        <v>1.2769330860000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72">
-        <v>1.249176284</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73">
-        <v>1.3239142429999999</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74">
-        <v>1.3238599419999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75">
-        <v>1.288584881</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>1.285019916</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77">
-        <v>1.258539538</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>1.3235127550000001</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79">
-        <v>1.3498885890000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>1.3266380310000001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81">
-        <v>1.3112973779999999</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>1.306770548</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83">
-        <v>1.288700626</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84">
-        <v>1.28366753</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85">
-        <v>1.193987726</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86">
-        <v>1.1559417329999999</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87">
-        <v>1.158516841</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88">
-        <v>1.13737664</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89">
-        <v>1.1382135120000001</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90">
-        <v>1.2997152219999999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91">
-        <v>1.293848927</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92">
-        <v>1.255303058</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93">
-        <v>1.220739214</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94">
-        <v>1.2133429120000001</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95">
-        <v>1.2053632240000001</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96">
-        <v>1.206214699</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97">
-        <v>0.87509572700000005</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98">
-        <v>0.93854293600000005</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <v>0.94623006099999996</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>0.96493384500000001</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101">
-        <v>1.0068011050000001</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102">
-        <v>1.0344784250000001</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103">
-        <v>1.495385049</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104">
-        <v>1.366719499</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105">
-        <v>1.3410080369999999</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106">
-        <v>1.502184406</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107">
-        <v>1.4524959529999999</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108">
-        <v>1.4190159609999999</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109">
-        <v>1.4225574670000001</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110">
-        <v>1.4991329369999999</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111">
-        <v>1.5431374849999999</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112">
-        <v>1.46390485</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113">
-        <v>1.501862982</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114">
-        <v>1.391364823</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115">
-        <v>1.3727639549999999</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116">
-        <v>1.3244141250000001</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117">
-        <v>1.333434886</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118">
-        <v>1.285280835</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119">
-        <v>1.315456755</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120">
-        <v>1.374050303</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121">
-        <v>1.3160068840000001</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122">
-        <v>1.322516598</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123">
-        <v>1.299449627</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124">
-        <v>1.2829814989999999</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125">
-        <v>1.2444107959999999</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126">
-        <v>1.372969114</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127">
-        <v>1.3447555659999999</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128">
-        <v>1.3341869660000001</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129">
-        <v>1.3141925640000001</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130">
-        <v>1.302023672</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131">
-        <v>1.292068035</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132">
-        <v>1.303170084</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133">
-        <v>1.218807838</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134">
-        <v>1.1789914850000001</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135">
-        <v>1.1714986270000001</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136">
-        <v>1.1559706649999999</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137">
-        <v>1.4640417969999999</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138">
-        <v>1.3005033580000001</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139">
-        <v>1.287015494</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140">
-        <v>1.2511151650000001</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141">
-        <v>1.238159534</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142">
-        <v>1.217973693</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143">
-        <v>1.219019485</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144">
-        <v>1.186020246</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145">
-        <v>0.921974768</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146">
-        <v>0.92463407200000003</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147">
-        <v>0.95694528099999998</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148">
-        <v>0.99510803999999997</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149">
-        <v>1.0279084759999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:40009_{FBDB12A5-EA3D-4522-9AAB-B853B66120D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7ADE5E4B-027E-49BB-8D65-B4392BB86777}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:40009_{FBDB12A5-EA3D-4522-9AAB-B853B66120D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD07978A-A0DA-47BA-B4CA-3670533DA7CF}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,39 +33,39 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">updated_data!$L$1:$L$158</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">window_variance!$B$1:$B$149</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">window_variance!$C$1:$C$149</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">first_peak_hist!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">first_peak_hist!$H$46:$H$71</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'second peak'!$D$34:$D$127</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'second peak'!$E$34:$E$127</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'second peak'!$A$1:$A$26</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'second peak'!$L$34:$L$87</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'second peak'!$M$34:$M$87</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'second peak'!$D$1:$D$28</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'second peak'!$D$1:$D$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'second peak'!$A$1:$A$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'second peak'!$E$34:$E$127</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'second peak'!$L$34:$L$87</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'second peak'!$M$34:$M$87</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'second peak'!$L$34:$L$87</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">gradients!$B$1:$B$149</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'second peak'!$M$34:$M$87</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">first_peak_hist!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'second peak'!$D$34:$D$127</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'second peak'!$E$34:$E$127</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'second peak'!$E$34:$E$127</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">first_peak_hist!$B$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">gradients!$C$1:$C$149</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">first_peak_hist!$H$1:$H$42</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">first_peak_hist!$E$1:$E$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">first_peak_hist!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">first_peak_hist!$H$1:$H$42</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">first_peak_hist!$E$46:$E$73</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">first_peak_hist!$E$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="24">
   <si>
     <t>first_peak</t>
   </si>
@@ -762,7 +762,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -838,10 +838,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -903,10 +903,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1033,10 +1033,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1098,10 +1098,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1139,7 +1139,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B28F06-9089-4D4C-B857-909ED2DBB18C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>first-peak</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1169,10 +1169,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1299,10 +1299,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1340,7 +1340,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B28F06-9089-4D4C-B857-909ED2DBB18C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>first-peak</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1370,7 +1370,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1444,7 +1444,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1633,10 +1633,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1698,7 +1698,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -39913,10 +39913,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EBE5A0-7418-4EF8-9AB7-071505A0B865}">
-  <dimension ref="A1:L212"/>
+  <dimension ref="A1:L269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L212" sqref="L1:L212"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="L269" sqref="L213:L269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47977,6 +47977,2172 @@
         <v>23</v>
       </c>
     </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="B213">
+        <v>3.6330808660393199</v>
+      </c>
+      <c r="C213">
+        <v>9.3959783780388995E-2</v>
+      </c>
+      <c r="D213">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E213">
+        <v>4.5829699334404399</v>
+      </c>
+      <c r="F213">
+        <v>-0.120036631337265</v>
+      </c>
+      <c r="G213">
+        <v>2.53781464929224</v>
+      </c>
+      <c r="H213">
+        <v>0.69845466770003495</v>
+      </c>
+      <c r="I213">
+        <v>-0.194952870416638</v>
+      </c>
+      <c r="J213">
+        <v>0.66955282975497399</v>
+      </c>
+      <c r="K213">
+        <v>0.17155210949567901</v>
+      </c>
+      <c r="L213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2.8496672022033498</v>
+      </c>
+      <c r="B214">
+        <v>2.0368755259735298</v>
+      </c>
+      <c r="C214">
+        <v>-0.143945153017036</v>
+      </c>
+      <c r="D214">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E214">
+        <v>3.4078494376864801</v>
+      </c>
+      <c r="F214">
+        <v>-0.106999173806949</v>
+      </c>
+      <c r="G214">
+        <v>2.5273228981852802</v>
+      </c>
+      <c r="H214">
+        <v>0.67638606548824198</v>
+      </c>
+      <c r="I214">
+        <v>-6.5051166672705996E-2</v>
+      </c>
+      <c r="J214">
+        <v>0.74456272112073296</v>
+      </c>
+      <c r="K214">
+        <v>-0.20357965664349401</v>
+      </c>
+      <c r="L214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="B215">
+        <v>3.6037028536454701</v>
+      </c>
+      <c r="C215">
+        <v>9.7485167921640997E-2</v>
+      </c>
+      <c r="D215">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E215">
+        <v>4.5878662688394201</v>
+      </c>
+      <c r="F215">
+        <v>-1.2220866247374999E-2</v>
+      </c>
+      <c r="G215">
+        <v>2.5221740387629201</v>
+      </c>
+      <c r="H215">
+        <v>0.65135934426625797</v>
+      </c>
+      <c r="I215">
+        <v>-8.6215486769999003E-2</v>
+      </c>
+      <c r="J215">
+        <v>0.68905609601981399</v>
+      </c>
+      <c r="K215">
+        <v>-7.8189965643791007E-2</v>
+      </c>
+      <c r="L215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2.8349781960064302</v>
+      </c>
+      <c r="B216">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C216">
+        <v>-0.13615899055318301</v>
+      </c>
+      <c r="D216">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E216">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="F216">
+        <v>-4.5349683351529002E-2</v>
+      </c>
+      <c r="G216">
+        <v>2.5184041227400802</v>
+      </c>
+      <c r="H216">
+        <v>0.64523303254674202</v>
+      </c>
+      <c r="I216">
+        <v>-4.5447182433464003E-2</v>
+      </c>
+      <c r="J216">
+        <v>0.71041684421499196</v>
+      </c>
+      <c r="K216">
+        <v>-0.20807759496434</v>
+      </c>
+      <c r="L216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3.1434473261418399</v>
+      </c>
+      <c r="B217">
+        <v>3.5400504934588</v>
+      </c>
+      <c r="C217">
+        <v>0.10114831418631499</v>
+      </c>
+      <c r="D217">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E217">
+        <v>4.5682809272435199</v>
+      </c>
+      <c r="F217">
+        <v>-6.8442023262280001E-3</v>
+      </c>
+      <c r="G217">
+        <v>2.5163695713156402</v>
+      </c>
+      <c r="H217">
+        <v>0.63780669501899401</v>
+      </c>
+      <c r="I217">
+        <v>-6.8080799074133003E-2</v>
+      </c>
+      <c r="J217">
+        <v>0.68191455022836001</v>
+      </c>
+      <c r="K217">
+        <v>-0.14443486898475599</v>
+      </c>
+      <c r="L217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2.9475939101828499</v>
+      </c>
+      <c r="B218">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C218">
+        <v>-0.171054706680837</v>
+      </c>
+      <c r="D218">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E218">
+        <v>3.39316043148956</v>
+      </c>
+      <c r="F218">
+        <v>-2.6249092150864E-2</v>
+      </c>
+      <c r="G218">
+        <v>2.51462281887905</v>
+      </c>
+      <c r="H218">
+        <v>0.64050788513379897</v>
+      </c>
+      <c r="I218">
+        <v>-4.6195940080856E-2</v>
+      </c>
+      <c r="J218">
+        <v>0.702778718547861</v>
+      </c>
+      <c r="K218">
+        <v>-0.20466147725599099</v>
+      </c>
+      <c r="L218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2.9867645933746498</v>
+      </c>
+      <c r="B219">
+        <v>3.5449468288577801</v>
+      </c>
+      <c r="C219">
+        <v>0.14026768947595</v>
+      </c>
+      <c r="D219">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E219">
+        <v>4.6074516104353203</v>
+      </c>
+      <c r="F219">
+        <v>-4.0459076635740001E-3</v>
+      </c>
+      <c r="G219">
+        <v>2.51320868064396</v>
+      </c>
+      <c r="H219">
+        <v>0.62972960898785402</v>
+      </c>
+      <c r="I219">
+        <v>-5.2219040770305002E-2</v>
+      </c>
+      <c r="J219">
+        <v>0.68478185074188902</v>
+      </c>
+      <c r="K219">
+        <v>-0.15387527902033399</v>
+      </c>
+      <c r="L219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.87644403641649404</v>
+      </c>
+      <c r="B220">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C220">
+        <v>0.243980945931011</v>
+      </c>
+      <c r="D220">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E220">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F220">
+        <v>-1.8974972698538001E-2</v>
+      </c>
+      <c r="G220">
+        <v>2.51260209143441</v>
+      </c>
+      <c r="H220">
+        <v>0.62665619635459802</v>
+      </c>
+      <c r="I220">
+        <v>-3.4980194756529998E-2</v>
+      </c>
+      <c r="J220">
+        <v>0.69276914127893596</v>
+      </c>
+      <c r="K220">
+        <v>-0.20515553134304401</v>
+      </c>
+      <c r="L220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B221">
+        <v>3.5498431642567501</v>
+      </c>
+      <c r="C221">
+        <v>0.130853435147127</v>
+      </c>
+      <c r="D221">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E221">
+        <v>4.5927626042383896</v>
+      </c>
+      <c r="F221">
+        <v>-3.2056760960250002E-3</v>
+      </c>
+      <c r="G221">
+        <v>2.51209331757221</v>
+      </c>
+      <c r="H221">
+        <v>0.62171525599808397</v>
+      </c>
+      <c r="I221">
+        <v>-5.0510689726825E-2</v>
+      </c>
+      <c r="J221">
+        <v>0.68180937545273501</v>
+      </c>
+      <c r="K221">
+        <v>-0.166460073645813</v>
+      </c>
+      <c r="L221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2.9622829163797699</v>
+      </c>
+      <c r="B222">
+        <v>2.0123938489786499</v>
+      </c>
+      <c r="C222">
+        <v>-0.17667752145604301</v>
+      </c>
+      <c r="D222">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E222">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="F222">
+        <v>-1.5879170968848E-2</v>
+      </c>
+      <c r="G222">
+        <v>2.51201541218617</v>
+      </c>
+      <c r="H222">
+        <v>0.62613563830524199</v>
+      </c>
+      <c r="I222">
+        <v>-3.9825704804146003E-2</v>
+      </c>
+      <c r="J222">
+        <v>0.69162500479574696</v>
+      </c>
+      <c r="K222">
+        <v>-0.19983811710077201</v>
+      </c>
+      <c r="L222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="B223">
+        <v>3.6183918598423999</v>
+      </c>
+      <c r="C223">
+        <v>9.6375588596307002E-2</v>
+      </c>
+      <c r="D223">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E223">
+        <v>4.50462856705684</v>
+      </c>
+      <c r="F223">
+        <v>-3.3884040251289998E-3</v>
+      </c>
+      <c r="G223">
+        <v>2.5113415387064202</v>
+      </c>
+      <c r="H223">
+        <v>0.62567171997542304</v>
+      </c>
+      <c r="I223">
+        <v>-5.4310030624781E-2</v>
+      </c>
+      <c r="J223">
+        <v>0.68232647152520398</v>
+      </c>
+      <c r="K223">
+        <v>-0.16981751148476501</v>
+      </c>
+      <c r="L223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2.88394154999617</v>
+      </c>
+      <c r="B224">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C224">
+        <v>-0.153654527869623</v>
+      </c>
+      <c r="D224">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E224">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="F224">
+        <v>-1.2312880822101999E-2</v>
+      </c>
+      <c r="G224">
+        <v>2.5107659731171101</v>
+      </c>
+      <c r="H224">
+        <v>0.62568234975054604</v>
+      </c>
+      <c r="I224">
+        <v>-4.441640114973E-2</v>
+      </c>
+      <c r="J224">
+        <v>0.690737925548498</v>
+      </c>
+      <c r="K224">
+        <v>-0.201617034878112</v>
+      </c>
+      <c r="L224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B225">
+        <v>3.59391018284752</v>
+      </c>
+      <c r="C225">
+        <v>0.149844108071604</v>
+      </c>
+      <c r="D225">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E225">
+        <v>4.4997322316578696</v>
+      </c>
+      <c r="F225">
+        <v>-2.8647595527409998E-3</v>
+      </c>
+      <c r="G225">
+        <v>2.5102297968949299</v>
+      </c>
+      <c r="H225">
+        <v>0.62326282521541998</v>
+      </c>
+      <c r="I225">
+        <v>-4.7680202734848E-2</v>
+      </c>
+      <c r="J225">
+        <v>0.68250450655289296</v>
+      </c>
+      <c r="K225">
+        <v>-0.17847194303019001</v>
+      </c>
+      <c r="L225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2.9475939101828499</v>
+      </c>
+      <c r="B226">
+        <v>2.09563155076123</v>
+      </c>
+      <c r="C226">
+        <v>-0.14865728919948501</v>
+      </c>
+      <c r="D226">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E226">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="F226">
+        <v>-1.0459512080017001E-2</v>
+      </c>
+      <c r="G226">
+        <v>2.5102366763921902</v>
+      </c>
+      <c r="H226">
+        <v>0.62366311133077201</v>
+      </c>
+      <c r="I226">
+        <v>-4.2199381255732998E-2</v>
+      </c>
+      <c r="J226">
+        <v>0.68792831815038402</v>
+      </c>
+      <c r="K226">
+        <v>-0.20289002807008999</v>
+      </c>
+      <c r="L226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3.0553132889602899</v>
+      </c>
+      <c r="B227">
+        <v>3.5302578226608499</v>
+      </c>
+      <c r="C227">
+        <v>0.123187059469392</v>
+      </c>
+      <c r="D227">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E227">
+        <v>4.5437992502486404</v>
+      </c>
+      <c r="F227">
+        <v>-2.1736918738030002E-3</v>
+      </c>
+      <c r="G227">
+        <v>2.5098375849596302</v>
+      </c>
+      <c r="H227">
+        <v>0.62112922782621605</v>
+      </c>
+      <c r="I227">
+        <v>-5.1040268268237002E-2</v>
+      </c>
+      <c r="J227">
+        <v>0.68068142428997802</v>
+      </c>
+      <c r="K227">
+        <v>-0.18019998397811601</v>
+      </c>
+      <c r="L227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2.9329049039859201</v>
+      </c>
+      <c r="B228">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C228">
+        <v>-0.16548666381016899</v>
+      </c>
+      <c r="D228">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E228">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F228">
+        <v>-9.0318716489089998E-3</v>
+      </c>
+      <c r="G228">
+        <v>2.5097709998881301</v>
+      </c>
+      <c r="H228">
+        <v>0.62008971750615804</v>
+      </c>
+      <c r="I228">
+        <v>-4.1099554533158E-2</v>
+      </c>
+      <c r="J228">
+        <v>0.68281627935026001</v>
+      </c>
+      <c r="K228">
+        <v>-0.20645354581897901</v>
+      </c>
+      <c r="L228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2.9378012393848998</v>
+      </c>
+      <c r="B229">
+        <v>3.6379772014383001</v>
+      </c>
+      <c r="C229">
+        <v>0.165610941554929</v>
+      </c>
+      <c r="D229">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E229">
+        <v>4.48993956085992</v>
+      </c>
+      <c r="F229">
+        <v>-2.203427777861E-3</v>
+      </c>
+      <c r="G229">
+        <v>2.5094558660645601</v>
+      </c>
+      <c r="H229">
+        <v>0.61785140059819998</v>
+      </c>
+      <c r="I229">
+        <v>-4.7533261449163998E-2</v>
+      </c>
+      <c r="J229">
+        <v>0.67597864511579497</v>
+      </c>
+      <c r="K229">
+        <v>-0.19216799782723301</v>
+      </c>
+      <c r="L229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2.9035268915920698</v>
+      </c>
+      <c r="B230">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C230">
+        <v>-0.156014004857745</v>
+      </c>
+      <c r="D230">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E230">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="F230">
+        <v>-8.0125455782940006E-3</v>
+      </c>
+      <c r="G230">
+        <v>2.5094674864486</v>
+      </c>
+      <c r="H230">
+        <v>0.62001642558311498</v>
+      </c>
+      <c r="I230">
+        <v>-4.0271280321169001E-2</v>
+      </c>
+      <c r="J230">
+        <v>0.68162436104851798</v>
+      </c>
+      <c r="K230">
+        <v>-0.212771890051242</v>
+      </c>
+      <c r="L230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="B231">
+        <v>3.5449468288577801</v>
+      </c>
+      <c r="C231">
+        <v>0.14761240033547501</v>
+      </c>
+      <c r="D231">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E231">
+        <v>4.5437992502486404</v>
+      </c>
+      <c r="F231">
+        <v>-1.6887330558749999E-3</v>
+      </c>
+      <c r="G231">
+        <v>2.5092027877693002</v>
+      </c>
+      <c r="H231">
+        <v>0.61741076547485196</v>
+      </c>
+      <c r="I231">
+        <v>-4.5490503974643999E-2</v>
+      </c>
+      <c r="J231">
+        <v>0.67573239294787701</v>
+      </c>
+      <c r="K231">
+        <v>-0.19423200334857099</v>
+      </c>
+      <c r="L231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2.8545635376023299</v>
+      </c>
+      <c r="B232">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C232">
+        <v>-0.15441384603028599</v>
+      </c>
+      <c r="D232">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E232">
+        <v>3.39805676688853</v>
+      </c>
+      <c r="F232">
+        <v>-7.0787381929050004E-3</v>
+      </c>
+      <c r="G232">
+        <v>2.5090499245103999</v>
+      </c>
+      <c r="H232">
+        <v>0.61810503949897899</v>
+      </c>
+      <c r="I232">
+        <v>-3.8786806655877998E-2</v>
+      </c>
+      <c r="J232">
+        <v>0.68136502325446902</v>
+      </c>
+      <c r="K232">
+        <v>-0.21226077493401799</v>
+      </c>
+      <c r="L232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2.9818682579756701</v>
+      </c>
+      <c r="B233">
+        <v>3.5694285058526498</v>
+      </c>
+      <c r="C233">
+        <v>0.14802489014456199</v>
+      </c>
+      <c r="D233">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E233">
+        <v>1.6451686940555399</v>
+      </c>
+      <c r="F233">
+        <v>-1.467053074135E-2</v>
+      </c>
+      <c r="G233">
+        <v>2.50881829781666</v>
+      </c>
+      <c r="H233">
+        <v>0.61525374915258102</v>
+      </c>
+      <c r="I233">
+        <v>-4.3878909142616003E-2</v>
+      </c>
+      <c r="J233">
+        <v>0.67653157477527903</v>
+      </c>
+      <c r="K233">
+        <v>-0.19827424969606899</v>
+      </c>
+      <c r="L233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2.9084232269910499</v>
+      </c>
+      <c r="B234">
+        <v>2.0270828551755802</v>
+      </c>
+      <c r="C234">
+        <v>-0.15773858622905901</v>
+      </c>
+      <c r="D234">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E234">
+        <v>3.4029531022875101</v>
+      </c>
+      <c r="F234">
+        <v>-6.3814953907620001E-3</v>
+      </c>
+      <c r="G234">
+        <v>2.50894880628756</v>
+      </c>
+      <c r="H234">
+        <v>0.61656120630102196</v>
+      </c>
+      <c r="I234">
+        <v>-3.9634486935354998E-2</v>
+      </c>
+      <c r="J234">
+        <v>0.68183997546415198</v>
+      </c>
+      <c r="K234">
+        <v>-0.217265409657597</v>
+      </c>
+      <c r="L234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3.0014535995715699</v>
+      </c>
+      <c r="B235">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="C235">
+        <v>0.154996229376754</v>
+      </c>
+      <c r="D235">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E235">
+        <v>4.5927626042383896</v>
+      </c>
+      <c r="F235">
+        <v>-1.1783618920679999E-3</v>
+      </c>
+      <c r="G235">
+        <v>2.5089098345283101</v>
+      </c>
+      <c r="H235">
+        <v>0.61641689048857096</v>
+      </c>
+      <c r="I235">
+        <v>-4.8168302070452002E-2</v>
+      </c>
+      <c r="J235">
+        <v>0.67798000121216095</v>
+      </c>
+      <c r="K235">
+        <v>-0.20021522605033301</v>
+      </c>
+      <c r="L235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2.8888378853951502</v>
+      </c>
+      <c r="B236">
+        <v>2.0466681967714799</v>
+      </c>
+      <c r="C236">
+        <v>-0.14932662095785201</v>
+      </c>
+      <c r="D236">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E236">
+        <v>3.3735750898936598</v>
+      </c>
+      <c r="F236">
+        <v>-5.9490297472769996E-3</v>
+      </c>
+      <c r="G236">
+        <v>2.5088401199089301</v>
+      </c>
+      <c r="H236">
+        <v>0.61723376579320999</v>
+      </c>
+      <c r="I236">
+        <v>-4.2236539942993999E-2</v>
+      </c>
+      <c r="J236">
+        <v>0.68180436077213202</v>
+      </c>
+      <c r="K236">
+        <v>-0.21753511094733399</v>
+      </c>
+      <c r="L236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2.97207558717772</v>
+      </c>
+      <c r="B237">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C237">
+        <v>-0.14111155411516901</v>
+      </c>
+      <c r="D237">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E237">
+        <v>1.7724734144288901</v>
+      </c>
+      <c r="F237">
+        <v>-1.1745573235205E-2</v>
+      </c>
+      <c r="G237">
+        <v>2.5086948213492501</v>
+      </c>
+      <c r="H237">
+        <v>0.61469479471245503</v>
+      </c>
+      <c r="I237">
+        <v>-4.2949794754261E-2</v>
+      </c>
+      <c r="J237">
+        <v>0.67713345236927203</v>
+      </c>
+      <c r="K237">
+        <v>-0.204056435877876</v>
+      </c>
+      <c r="L237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2.9280085685869501</v>
+      </c>
+      <c r="B238">
+        <v>1.9977048427817301</v>
+      </c>
+      <c r="C238">
+        <v>-0.16371886216470599</v>
+      </c>
+      <c r="D238">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E238">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="F238">
+        <v>-5.5935078283450004E-3</v>
+      </c>
+      <c r="G238">
+        <v>2.5087778478676701</v>
+      </c>
+      <c r="H238">
+        <v>0.616374329726045</v>
+      </c>
+      <c r="I238">
+        <v>-3.8282025858512002E-2</v>
+      </c>
+      <c r="J238">
+        <v>0.68073375996178298</v>
+      </c>
+      <c r="K238">
+        <v>-0.221682205045106</v>
+      </c>
+      <c r="L238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3.09938030755107</v>
+      </c>
+      <c r="B239">
+        <v>3.6134955244434201</v>
+      </c>
+      <c r="C239">
+        <v>0.129705243545054</v>
+      </c>
+      <c r="D239">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E239">
+        <v>4.5193175732537698</v>
+      </c>
+      <c r="F239">
+        <v>-1.254073107859E-3</v>
+      </c>
+      <c r="G239">
+        <v>2.5086156563650199</v>
+      </c>
+      <c r="H239">
+        <v>0.61546867519395698</v>
+      </c>
+      <c r="I239">
+        <v>-4.1104738091761003E-2</v>
+      </c>
+      <c r="J239">
+        <v>0.67644900124481799</v>
+      </c>
+      <c r="K239">
+        <v>-0.21078182010259799</v>
+      </c>
+      <c r="L239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.99885242139086505</v>
+      </c>
+      <c r="B240">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C240">
+        <v>0.20960041447908401</v>
+      </c>
+      <c r="D240">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E240">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="F240">
+        <v>-5.2245540278220001E-3</v>
+      </c>
+      <c r="G240">
+        <v>2.50869840871525</v>
+      </c>
+      <c r="H240">
+        <v>0.61677460618017699</v>
+      </c>
+      <c r="I240">
+        <v>-3.8180126269961E-2</v>
+      </c>
+      <c r="J240">
+        <v>0.679749155693256</v>
+      </c>
+      <c r="K240">
+        <v>-0.22045258366929699</v>
+      </c>
+      <c r="L240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2.92311223318797</v>
+      </c>
+      <c r="B241">
+        <v>3.5645321704536799</v>
+      </c>
+      <c r="C241">
+        <v>0.14644517610795901</v>
+      </c>
+      <c r="D241">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E241">
+        <v>4.5144212378547897</v>
+      </c>
+      <c r="F241">
+        <v>-1.1811943212219999E-3</v>
+      </c>
+      <c r="G241">
+        <v>2.5085572201587301</v>
+      </c>
+      <c r="H241">
+        <v>0.61492518438148402</v>
+      </c>
+      <c r="I241">
+        <v>-4.2734089274991997E-2</v>
+      </c>
+      <c r="J241">
+        <v>0.67541857144883899</v>
+      </c>
+      <c r="K241">
+        <v>-0.209392805247266</v>
+      </c>
+      <c r="L241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B242">
+        <v>2.0907352153622498</v>
+      </c>
+      <c r="C242">
+        <v>-0.166873163779311</v>
+      </c>
+      <c r="D242">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E242">
+        <v>3.4176421084844302</v>
+      </c>
+      <c r="F242">
+        <v>-6.4737672558050005E-2</v>
+      </c>
+      <c r="G242">
+        <v>2.5288132237058201</v>
+      </c>
+      <c r="H242">
+        <v>0.61547052330636198</v>
+      </c>
+      <c r="I242">
+        <v>5.9315187406878002E-2</v>
+      </c>
+      <c r="J242">
+        <v>0.75500311431536704</v>
+      </c>
+      <c r="K242">
+        <v>-0.479086829640333</v>
+      </c>
+      <c r="L242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3.14834366154082</v>
+      </c>
+      <c r="B243">
+        <v>3.500879810267</v>
+      </c>
+      <c r="C243">
+        <v>9.5624242307142004E-2</v>
+      </c>
+      <c r="D243">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E243">
+        <v>4.5095249024558202</v>
+      </c>
+      <c r="F243">
+        <v>5.7728422931791E-2</v>
+      </c>
+      <c r="G243">
+        <v>2.52164954502391</v>
+      </c>
+      <c r="H243">
+        <v>0.61705786211463698</v>
+      </c>
+      <c r="I243">
+        <v>-6.6352208914047001E-2</v>
+      </c>
+      <c r="J243">
+        <v>0.66907216997066998</v>
+      </c>
+      <c r="K243">
+        <v>-0.21390259116937799</v>
+      </c>
+      <c r="L243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2.8986305561930998</v>
+      </c>
+      <c r="B244">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C244">
+        <v>-0.161327582419976</v>
+      </c>
+      <c r="D244">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E244">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="F244">
+        <v>-1.3476557993102999E-2</v>
+      </c>
+      <c r="G244">
+        <v>2.5181280238948398</v>
+      </c>
+      <c r="H244">
+        <v>0.61188172727100498</v>
+      </c>
+      <c r="I244">
+        <v>-1.8988668991591E-2</v>
+      </c>
+      <c r="J244">
+        <v>0.68622730797257203</v>
+      </c>
+      <c r="K244">
+        <v>-0.29520506163911597</v>
+      </c>
+      <c r="L244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3.1091729783490201</v>
+      </c>
+      <c r="B245">
+        <v>3.4812944686710998</v>
+      </c>
+      <c r="C245">
+        <v>9.7579714460333006E-2</v>
+      </c>
+      <c r="D245">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E245">
+        <v>4.4850432254609398</v>
+      </c>
+      <c r="F245">
+        <v>2.1922744910506001E-2</v>
+      </c>
+      <c r="G245">
+        <v>2.5153583318964801</v>
+      </c>
+      <c r="H245">
+        <v>0.60902870461367598</v>
+      </c>
+      <c r="I245">
+        <v>-4.9165863968048999E-2</v>
+      </c>
+      <c r="J245">
+        <v>0.65819230308027099</v>
+      </c>
+      <c r="K245">
+        <v>-0.20218321852938001</v>
+      </c>
+      <c r="L245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="B246">
+        <v>2.05646086756943</v>
+      </c>
+      <c r="C246">
+        <v>-0.16665454320454601</v>
+      </c>
+      <c r="D246">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E246">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F246">
+        <v>-6.2895378993240002E-3</v>
+      </c>
+      <c r="G246">
+        <v>2.5137881476588499</v>
+      </c>
+      <c r="H246">
+        <v>0.60100827588396299</v>
+      </c>
+      <c r="I246">
+        <v>-2.7384758309613001E-2</v>
+      </c>
+      <c r="J246">
+        <v>0.66750532762373405</v>
+      </c>
+      <c r="K246">
+        <v>-0.255996694871158</v>
+      </c>
+      <c r="L246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="B247">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C247">
+        <v>0.14758857011440801</v>
+      </c>
+      <c r="D247">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E247">
+        <v>4.5486955856476197</v>
+      </c>
+      <c r="F247">
+        <v>1.448080316237E-2</v>
+      </c>
+      <c r="G247">
+        <v>2.5128281287268202</v>
+      </c>
+      <c r="H247">
+        <v>0.60084098289463095</v>
+      </c>
+      <c r="I247">
+        <v>-5.7655437014898003E-2</v>
+      </c>
+      <c r="J247">
+        <v>0.65268716147601302</v>
+      </c>
+      <c r="K247">
+        <v>-0.192625036341144</v>
+      </c>
+      <c r="L247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2.9084232269910499</v>
+      </c>
+      <c r="B248">
+        <v>2.0270828551755802</v>
+      </c>
+      <c r="C248">
+        <v>-0.167406676625802</v>
+      </c>
+      <c r="D248">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E248">
+        <v>3.3490934128987799</v>
+      </c>
+      <c r="F248">
+        <v>-4.7969700130909999E-3</v>
+      </c>
+      <c r="G248">
+        <v>2.5119602480479402</v>
+      </c>
+      <c r="H248">
+        <v>0.60151255358006395</v>
+      </c>
+      <c r="I248">
+        <v>-4.8166222795742002E-2</v>
+      </c>
+      <c r="J248">
+        <v>0.66262208094423103</v>
+      </c>
+      <c r="K248">
+        <v>-0.229606649413793</v>
+      </c>
+      <c r="L248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2.9622829163797699</v>
+      </c>
+      <c r="B249">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C249">
+        <v>0.143617620503765</v>
+      </c>
+      <c r="D249">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E249">
+        <v>4.4262872006732499</v>
+      </c>
+      <c r="F249">
+        <v>9.0405246649559994E-3</v>
+      </c>
+      <c r="G249">
+        <v>2.51067290116695</v>
+      </c>
+      <c r="H249">
+        <v>0.59787685771545795</v>
+      </c>
+      <c r="I249">
+        <v>-6.4380037736954998E-2</v>
+      </c>
+      <c r="J249">
+        <v>0.646166618129702</v>
+      </c>
+      <c r="K249">
+        <v>-0.19443131585671</v>
+      </c>
+      <c r="L249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2.9818682579756701</v>
+      </c>
+      <c r="B250">
+        <v>2.0858388799632799</v>
+      </c>
+      <c r="C250">
+        <v>-0.163483681724262</v>
+      </c>
+      <c r="D250">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E250">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="F250">
+        <v>-3.8119122733669998E-3</v>
+      </c>
+      <c r="G250">
+        <v>2.5100829889162499</v>
+      </c>
+      <c r="H250">
+        <v>0.59241337729598698</v>
+      </c>
+      <c r="I250">
+        <v>-4.9944952152933E-2</v>
+      </c>
+      <c r="J250">
+        <v>0.65139732537286199</v>
+      </c>
+      <c r="K250">
+        <v>-0.225403844820078</v>
+      </c>
+      <c r="L250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2.9426975747838702</v>
+      </c>
+      <c r="B251">
+        <v>3.5155688164639298</v>
+      </c>
+      <c r="C251">
+        <v>0.14073166411674301</v>
+      </c>
+      <c r="D251">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E251">
+        <v>4.6221406166322403</v>
+      </c>
+      <c r="F251">
+        <v>8.8487970382079995E-3</v>
+      </c>
+      <c r="G251">
+        <v>2.5098117322731501</v>
+      </c>
+      <c r="H251">
+        <v>0.59050610711396001</v>
+      </c>
+      <c r="I251">
+        <v>-5.8363374906840002E-2</v>
+      </c>
+      <c r="J251">
+        <v>0.645263547456421</v>
+      </c>
+      <c r="K251">
+        <v>-0.18965186350167501</v>
+      </c>
+      <c r="L251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2.8545635376023299</v>
+      </c>
+      <c r="B252">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C252">
+        <v>-0.14719689954997001</v>
+      </c>
+      <c r="D252">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E252">
+        <v>3.3882640960905799</v>
+      </c>
+      <c r="F252">
+        <v>-2.5980271538639998E-3</v>
+      </c>
+      <c r="G252">
+        <v>2.5096611816322101</v>
+      </c>
+      <c r="H252">
+        <v>0.59226265828811198</v>
+      </c>
+      <c r="I252">
+        <v>-4.6682295730805998E-2</v>
+      </c>
+      <c r="J252">
+        <v>0.65561440211667699</v>
+      </c>
+      <c r="K252">
+        <v>-0.218352117291088</v>
+      </c>
+      <c r="L252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3.0504169535613199</v>
+      </c>
+      <c r="B253">
+        <v>3.4812944686710998</v>
+      </c>
+      <c r="C253">
+        <v>0.118136292690478</v>
+      </c>
+      <c r="D253">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E253">
+        <v>4.4360798714712004</v>
+      </c>
+      <c r="F253">
+        <v>5.8803300288829997E-3</v>
+      </c>
+      <c r="G253">
+        <v>2.50938285243235</v>
+      </c>
+      <c r="H253">
+        <v>0.59633335551230804</v>
+      </c>
+      <c r="I253">
+        <v>-5.8773368482183001E-2</v>
+      </c>
+      <c r="J253">
+        <v>0.65011217294781298</v>
+      </c>
+      <c r="K253">
+        <v>-0.196888354432529</v>
+      </c>
+      <c r="L253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3.1434473261418399</v>
+      </c>
+      <c r="B254">
+        <v>2.0466681967714799</v>
+      </c>
+      <c r="C254">
+        <v>-0.21897740979796099</v>
+      </c>
+      <c r="D254">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E254">
+        <v>3.4372274500803299</v>
+      </c>
+      <c r="F254">
+        <v>-1.825890732776E-3</v>
+      </c>
+      <c r="G254">
+        <v>2.50881241526359</v>
+      </c>
+      <c r="H254">
+        <v>0.59517621962104195</v>
+      </c>
+      <c r="I254">
+        <v>-4.4945666160626001E-2</v>
+      </c>
+      <c r="J254">
+        <v>0.65603164369184197</v>
+      </c>
+      <c r="K254">
+        <v>-0.21217188609853499</v>
+      </c>
+      <c r="L254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3.11406931374799</v>
+      </c>
+      <c r="B255">
+        <v>3.4959834748680301</v>
+      </c>
+      <c r="C255">
+        <v>9.4724480564364999E-2</v>
+      </c>
+      <c r="D255">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E255">
+        <v>4.4262872006732499</v>
+      </c>
+      <c r="F255">
+        <v>4.8982347190220004E-3</v>
+      </c>
+      <c r="G255">
+        <v>2.50936510094076</v>
+      </c>
+      <c r="H255">
+        <v>0.593214115919945</v>
+      </c>
+      <c r="I255">
+        <v>-6.3180195954813001E-2</v>
+      </c>
+      <c r="J255">
+        <v>0.64841111464635304</v>
+      </c>
+      <c r="K255">
+        <v>-0.193505402633116</v>
+      </c>
+      <c r="L255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2.86435620840028</v>
+      </c>
+      <c r="B256">
+        <v>2.0368755259735298</v>
+      </c>
+      <c r="C256">
+        <v>-0.14106422483428899</v>
+      </c>
+      <c r="D256">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E256">
+        <v>3.39316043148956</v>
+      </c>
+      <c r="F256">
+        <v>-1.841616514774E-3</v>
+      </c>
+      <c r="G256">
+        <v>2.5093892997604401</v>
+      </c>
+      <c r="H256">
+        <v>0.59188171577284299</v>
+      </c>
+      <c r="I256">
+        <v>-5.1069582179689002E-2</v>
+      </c>
+      <c r="J256">
+        <v>0.64394755606822296</v>
+      </c>
+      <c r="K256">
+        <v>-0.21602371363143499</v>
+      </c>
+      <c r="L256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3.0944839721520898</v>
+      </c>
+      <c r="B257">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C257">
+        <v>0.10459428293691</v>
+      </c>
+      <c r="D257">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E257">
+        <v>4.3381531634917003</v>
+      </c>
+      <c r="F257">
+        <v>3.7395339817399998E-3</v>
+      </c>
+      <c r="G257">
+        <v>2.5096233093784601</v>
+      </c>
+      <c r="H257">
+        <v>0.59063134499801995</v>
+      </c>
+      <c r="I257">
+        <v>-6.6739457084158002E-2</v>
+      </c>
+      <c r="J257">
+        <v>0.63731512145151004</v>
+      </c>
+      <c r="K257">
+        <v>-0.198042285085306</v>
+      </c>
+      <c r="L257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2.83008186060745</v>
+      </c>
+      <c r="B258">
+        <v>2.00260117818071</v>
+      </c>
+      <c r="C258">
+        <v>-0.14222443281404001</v>
+      </c>
+      <c r="D258">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E258">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="F258">
+        <v>-2.1876901537599999E-3</v>
+      </c>
+      <c r="G258">
+        <v>2.5093496105848399</v>
+      </c>
+      <c r="H258">
+        <v>0.58805871513540098</v>
+      </c>
+      <c r="I258">
+        <v>-5.5552261633468998E-2</v>
+      </c>
+      <c r="J258">
+        <v>0.63176907085849898</v>
+      </c>
+      <c r="K258">
+        <v>-0.21410536333449701</v>
+      </c>
+      <c r="L258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2.92311223318797</v>
+      </c>
+      <c r="B259">
+        <v>3.5792211766505999</v>
+      </c>
+      <c r="C259">
+        <v>0.15673246446441699</v>
+      </c>
+      <c r="D259">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E259">
+        <v>1.79695509142376</v>
+      </c>
+      <c r="F259">
+        <v>-9.6140712596380004E-3</v>
+      </c>
+      <c r="G259">
+        <v>2.5089556442835499</v>
+      </c>
+      <c r="H259">
+        <v>0.58641410677500305</v>
+      </c>
+      <c r="I259">
+        <v>-6.1329716918519003E-2</v>
+      </c>
+      <c r="J259">
+        <v>0.62840489579801695</v>
+      </c>
+      <c r="K259">
+        <v>-0.195529344944739</v>
+      </c>
+      <c r="L259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2.8251855252084801</v>
+      </c>
+      <c r="B260">
+        <v>2.0319791905745501</v>
+      </c>
+      <c r="C260">
+        <v>-0.14064343155756001</v>
+      </c>
+      <c r="D260">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E260">
+        <v>3.3735750898936598</v>
+      </c>
+      <c r="F260">
+        <v>-1.523908769143E-3</v>
+      </c>
+      <c r="G260">
+        <v>2.5087381023671198</v>
+      </c>
+      <c r="H260">
+        <v>0.58580403766266997</v>
+      </c>
+      <c r="I260">
+        <v>-5.2689489593868002E-2</v>
+      </c>
+      <c r="J260">
+        <v>0.63180369875056197</v>
+      </c>
+      <c r="K260">
+        <v>-0.21706523051384999</v>
+      </c>
+      <c r="L260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2.918215897789</v>
+      </c>
+      <c r="B261">
+        <v>3.59391018284752</v>
+      </c>
+      <c r="C261">
+        <v>0.15752300357103599</v>
+      </c>
+      <c r="D261">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E261">
+        <v>4.6074516104353203</v>
+      </c>
+      <c r="F261">
+        <v>4.1669361824800003E-3</v>
+      </c>
+      <c r="G261">
+        <v>2.5085004503313901</v>
+      </c>
+      <c r="H261">
+        <v>0.58293841695861803</v>
+      </c>
+      <c r="I261">
+        <v>-5.6999975616552997E-2</v>
+      </c>
+      <c r="J261">
+        <v>0.62702518728954104</v>
+      </c>
+      <c r="K261">
+        <v>-0.20086650348097601</v>
+      </c>
+      <c r="L261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2.8790452145972001</v>
+      </c>
+      <c r="B262">
+        <v>2.00260117818071</v>
+      </c>
+      <c r="C262">
+        <v>-0.15839088760772399</v>
+      </c>
+      <c r="D262">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E262">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="F262">
+        <v>-1.7468464780890001E-3</v>
+      </c>
+      <c r="G262">
+        <v>2.5084300305678</v>
+      </c>
+      <c r="H262">
+        <v>0.58253770319875597</v>
+      </c>
+      <c r="I262">
+        <v>-5.0317595751971998E-2</v>
+      </c>
+      <c r="J262">
+        <v>0.63088349464526705</v>
+      </c>
+      <c r="K262">
+        <v>-0.22094486782120101</v>
+      </c>
+      <c r="L262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2.8496672022033498</v>
+      </c>
+      <c r="B263">
+        <v>3.5449468288577801</v>
+      </c>
+      <c r="C263">
+        <v>0.160178571668807</v>
+      </c>
+      <c r="D263">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E263">
+        <v>4.5242139086527402</v>
+      </c>
+      <c r="F263">
+        <v>3.4268969802940001E-3</v>
+      </c>
+      <c r="G263">
+        <v>2.5084474090671001</v>
+      </c>
+      <c r="H263">
+        <v>0.58253270344655494</v>
+      </c>
+      <c r="I263">
+        <v>-5.8387275998789998E-2</v>
+      </c>
+      <c r="J263">
+        <v>0.628432192795362</v>
+      </c>
+      <c r="K263">
+        <v>-0.20435725299885099</v>
+      </c>
+      <c r="L263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2.8056001836125799</v>
+      </c>
+      <c r="B264">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C264">
+        <v>-0.127621294393931</v>
+      </c>
+      <c r="D264">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E264">
+        <v>3.3246117359039098</v>
+      </c>
+      <c r="F264">
+        <v>-1.440866736733E-3</v>
+      </c>
+      <c r="G264">
+        <v>2.5084469148061301</v>
+      </c>
+      <c r="H264">
+        <v>0.58308009119876003</v>
+      </c>
+      <c r="I264">
+        <v>-5.1869662347061002E-2</v>
+      </c>
+      <c r="J264">
+        <v>0.63020918425259698</v>
+      </c>
+      <c r="K264">
+        <v>-0.21766778897487499</v>
+      </c>
+      <c r="L264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3.0700022951572201</v>
+      </c>
+      <c r="B265">
+        <v>3.5155688164639298</v>
+      </c>
+      <c r="C265">
+        <v>0.12035103512492901</v>
+      </c>
+      <c r="D265">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E265">
+        <v>4.4948358962588904</v>
+      </c>
+      <c r="F265">
+        <v>3.031741618003E-3</v>
+      </c>
+      <c r="G265">
+        <v>2.5083176146902599</v>
+      </c>
+      <c r="H265">
+        <v>0.583741135934291</v>
+      </c>
+      <c r="I265">
+        <v>-5.6225966260125999E-2</v>
+      </c>
+      <c r="J265">
+        <v>0.62825140973490701</v>
+      </c>
+      <c r="K265">
+        <v>-0.20609515513214999</v>
+      </c>
+      <c r="L265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2.81539285441053</v>
+      </c>
+      <c r="B266">
+        <v>2.05646086756943</v>
+      </c>
+      <c r="C266">
+        <v>-0.131817598116234</v>
+      </c>
+      <c r="D266">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E266">
+        <v>3.29033738811109</v>
+      </c>
+      <c r="F266">
+        <v>-1.4492720115199999E-3</v>
+      </c>
+      <c r="G266">
+        <v>2.5083935701333</v>
+      </c>
+      <c r="H266">
+        <v>0.58480696583844405</v>
+      </c>
+      <c r="I266">
+        <v>-4.9505243970999001E-2</v>
+      </c>
+      <c r="J266">
+        <v>0.629064254337942</v>
+      </c>
+      <c r="K266">
+        <v>-0.21688604862751501</v>
+      </c>
+      <c r="L266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2.8496672022033498</v>
+      </c>
+      <c r="B267">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C267">
+        <v>0.16609772209850299</v>
+      </c>
+      <c r="D267">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E267">
+        <v>4.5682809272435199</v>
+      </c>
+      <c r="F267">
+        <v>3.0483206090980001E-3</v>
+      </c>
+      <c r="G267">
+        <v>2.5082723991259099</v>
+      </c>
+      <c r="H267">
+        <v>0.58444335491198796</v>
+      </c>
+      <c r="I267">
+        <v>-5.5779980453144001E-2</v>
+      </c>
+      <c r="J267">
+        <v>0.62695349970383696</v>
+      </c>
+      <c r="K267">
+        <v>-0.20336004322054799</v>
+      </c>
+      <c r="L267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2.8398745314054001</v>
+      </c>
+      <c r="B268">
+        <v>2.0221865197766</v>
+      </c>
+      <c r="C268">
+        <v>-0.142859515290512</v>
+      </c>
+      <c r="D268">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E268">
+        <v>3.3637824190957102</v>
+      </c>
+      <c r="F268">
+        <v>-1.0935530808869999E-3</v>
+      </c>
+      <c r="G268">
+        <v>2.5083461722577298</v>
+      </c>
+      <c r="H268">
+        <v>0.583991140645025</v>
+      </c>
+      <c r="I268">
+        <v>-5.1096226978937002E-2</v>
+      </c>
+      <c r="J268">
+        <v>0.62751291802272202</v>
+      </c>
+      <c r="K268">
+        <v>-0.21373897875680001</v>
+      </c>
+      <c r="L268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2.9035268915920698</v>
+      </c>
+      <c r="B269">
+        <v>3.5694285058526498</v>
+      </c>
+      <c r="C269">
+        <v>0.15508702129753199</v>
+      </c>
+      <c r="D269">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E269">
+        <v>1.7871624206258101</v>
+      </c>
+      <c r="F269">
+        <v>-6.1118392436169998E-3</v>
+      </c>
+      <c r="G269">
+        <v>2.5080966906862101</v>
+      </c>
+      <c r="H269">
+        <v>0.58101436579726895</v>
+      </c>
+      <c r="I269">
+        <v>-5.4771526468338001E-2</v>
+      </c>
+      <c r="J269">
+        <v>0.62289608270314401</v>
+      </c>
+      <c r="K269">
+        <v>-0.20583583686883</v>
+      </c>
+      <c r="L269" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47984,10 +50150,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280A43AE-CF8F-4663-A188-ED2AA48FB61A}">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G212"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213:G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52866,6 +55032,1317 @@
       </c>
       <c r="G212" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3.2756483819141602</v>
+      </c>
+      <c r="B213">
+        <v>3.6330808660393199</v>
+      </c>
+      <c r="C213">
+        <v>9.3959783780388995E-2</v>
+      </c>
+      <c r="D213">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E213">
+        <v>4.5829699334404399</v>
+      </c>
+      <c r="F213">
+        <v>-0.120036631337265</v>
+      </c>
+      <c r="G213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2.8496672022033498</v>
+      </c>
+      <c r="B214">
+        <v>2.0368755259735298</v>
+      </c>
+      <c r="C214">
+        <v>-0.143945153017036</v>
+      </c>
+      <c r="D214">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E214">
+        <v>3.4078494376864801</v>
+      </c>
+      <c r="F214">
+        <v>-0.106999173806949</v>
+      </c>
+      <c r="G214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3.2217886925254402</v>
+      </c>
+      <c r="B215">
+        <v>3.6037028536454701</v>
+      </c>
+      <c r="C215">
+        <v>9.7485167921640997E-2</v>
+      </c>
+      <c r="D215">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E215">
+        <v>4.5878662688394201</v>
+      </c>
+      <c r="F215">
+        <v>-1.2220866247374999E-2</v>
+      </c>
+      <c r="G215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2.8349781960064302</v>
+      </c>
+      <c r="B216">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C216">
+        <v>-0.13615899055318301</v>
+      </c>
+      <c r="D216">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E216">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="F216">
+        <v>-4.5349683351529002E-2</v>
+      </c>
+      <c r="G216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3.1434473261418399</v>
+      </c>
+      <c r="B217">
+        <v>3.5400504934588</v>
+      </c>
+      <c r="C217">
+        <v>0.10114831418631499</v>
+      </c>
+      <c r="D217">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E217">
+        <v>4.5682809272435199</v>
+      </c>
+      <c r="F217">
+        <v>-6.8442023262280001E-3</v>
+      </c>
+      <c r="G217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2.9475939101828499</v>
+      </c>
+      <c r="B218">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C218">
+        <v>-0.171054706680837</v>
+      </c>
+      <c r="D218">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E218">
+        <v>3.39316043148956</v>
+      </c>
+      <c r="F218">
+        <v>-2.6249092150864E-2</v>
+      </c>
+      <c r="G218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2.9867645933746498</v>
+      </c>
+      <c r="B219">
+        <v>3.5449468288577801</v>
+      </c>
+      <c r="C219">
+        <v>0.14026768947595</v>
+      </c>
+      <c r="D219">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E219">
+        <v>4.6074516104353203</v>
+      </c>
+      <c r="F219">
+        <v>-4.0459076635740001E-3</v>
+      </c>
+      <c r="G219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.87644403641649404</v>
+      </c>
+      <c r="B220">
+        <v>2.1250095631550798</v>
+      </c>
+      <c r="C220">
+        <v>0.243980945931011</v>
+      </c>
+      <c r="D220">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E220">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F220">
+        <v>-1.8974972698538001E-2</v>
+      </c>
+      <c r="G220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B221">
+        <v>3.5498431642567501</v>
+      </c>
+      <c r="C221">
+        <v>0.130853435147127</v>
+      </c>
+      <c r="D221">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E221">
+        <v>4.5927626042383896</v>
+      </c>
+      <c r="F221">
+        <v>-3.2056760960250002E-3</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2.9622829163797699</v>
+      </c>
+      <c r="B222">
+        <v>2.0123938489786499</v>
+      </c>
+      <c r="C222">
+        <v>-0.17667752145604301</v>
+      </c>
+      <c r="D222">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E222">
+        <v>3.2805447173131399</v>
+      </c>
+      <c r="F222">
+        <v>-1.5879170968848E-2</v>
+      </c>
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3.2511667049192901</v>
+      </c>
+      <c r="B223">
+        <v>3.6183918598423999</v>
+      </c>
+      <c r="C223">
+        <v>9.6375588596307002E-2</v>
+      </c>
+      <c r="D223">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E223">
+        <v>4.50462856705684</v>
+      </c>
+      <c r="F223">
+        <v>-3.3884040251289998E-3</v>
+      </c>
+      <c r="G223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2.88394154999617</v>
+      </c>
+      <c r="B224">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C224">
+        <v>-0.153654527869623</v>
+      </c>
+      <c r="D224">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E224">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="F224">
+        <v>-1.2312880822101999E-2</v>
+      </c>
+      <c r="G224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B225">
+        <v>3.59391018284752</v>
+      </c>
+      <c r="C225">
+        <v>0.149844108071604</v>
+      </c>
+      <c r="D225">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E225">
+        <v>4.4997322316578696</v>
+      </c>
+      <c r="F225">
+        <v>-2.8647595527409998E-3</v>
+      </c>
+      <c r="G225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2.9475939101828499</v>
+      </c>
+      <c r="B226">
+        <v>2.09563155076123</v>
+      </c>
+      <c r="C226">
+        <v>-0.14865728919948501</v>
+      </c>
+      <c r="D226">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E226">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="F226">
+        <v>-1.0459512080017001E-2</v>
+      </c>
+      <c r="G226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3.0553132889602899</v>
+      </c>
+      <c r="B227">
+        <v>3.5302578226608499</v>
+      </c>
+      <c r="C227">
+        <v>0.123187059469392</v>
+      </c>
+      <c r="D227">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E227">
+        <v>4.5437992502486404</v>
+      </c>
+      <c r="F227">
+        <v>-2.1736918738030002E-3</v>
+      </c>
+      <c r="G227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2.9329049039859201</v>
+      </c>
+      <c r="B228">
+        <v>1.9928085073827599</v>
+      </c>
+      <c r="C228">
+        <v>-0.16548666381016899</v>
+      </c>
+      <c r="D228">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E228">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F228">
+        <v>-9.0318716489089998E-3</v>
+      </c>
+      <c r="G228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2.9378012393848998</v>
+      </c>
+      <c r="B229">
+        <v>3.6379772014383001</v>
+      </c>
+      <c r="C229">
+        <v>0.165610941554929</v>
+      </c>
+      <c r="D229">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E229">
+        <v>4.48993956085992</v>
+      </c>
+      <c r="F229">
+        <v>-2.203427777861E-3</v>
+      </c>
+      <c r="G229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2.9035268915920698</v>
+      </c>
+      <c r="B230">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C230">
+        <v>-0.156014004857745</v>
+      </c>
+      <c r="D230">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E230">
+        <v>3.3784714252926298</v>
+      </c>
+      <c r="F230">
+        <v>-8.0125455782940006E-3</v>
+      </c>
+      <c r="G230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="B231">
+        <v>3.5449468288577801</v>
+      </c>
+      <c r="C231">
+        <v>0.14761240033547501</v>
+      </c>
+      <c r="D231">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E231">
+        <v>4.5437992502486404</v>
+      </c>
+      <c r="F231">
+        <v>-1.6887330558749999E-3</v>
+      </c>
+      <c r="G231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2.8545635376023299</v>
+      </c>
+      <c r="B232">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C232">
+        <v>-0.15441384603028599</v>
+      </c>
+      <c r="D232">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E232">
+        <v>3.39805676688853</v>
+      </c>
+      <c r="F232">
+        <v>-7.0787381929050004E-3</v>
+      </c>
+      <c r="G232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2.9818682579756701</v>
+      </c>
+      <c r="B233">
+        <v>3.5694285058526498</v>
+      </c>
+      <c r="C233">
+        <v>0.14802489014456199</v>
+      </c>
+      <c r="D233">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E233">
+        <v>1.6451686940555399</v>
+      </c>
+      <c r="F233">
+        <v>-1.467053074135E-2</v>
+      </c>
+      <c r="G233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2.9084232269910499</v>
+      </c>
+      <c r="B234">
+        <v>2.0270828551755802</v>
+      </c>
+      <c r="C234">
+        <v>-0.15773858622905901</v>
+      </c>
+      <c r="D234">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E234">
+        <v>3.4029531022875101</v>
+      </c>
+      <c r="F234">
+        <v>-6.3814953907620001E-3</v>
+      </c>
+      <c r="G234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3.0014535995715699</v>
+      </c>
+      <c r="B235">
+        <v>3.6085991890444502</v>
+      </c>
+      <c r="C235">
+        <v>0.154996229376754</v>
+      </c>
+      <c r="D235">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E235">
+        <v>4.5927626042383896</v>
+      </c>
+      <c r="F235">
+        <v>-1.1783618920679999E-3</v>
+      </c>
+      <c r="G235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2.8888378853951502</v>
+      </c>
+      <c r="B236">
+        <v>2.0466681967714799</v>
+      </c>
+      <c r="C236">
+        <v>-0.14932662095785201</v>
+      </c>
+      <c r="D236">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E236">
+        <v>3.3735750898936598</v>
+      </c>
+      <c r="F236">
+        <v>-5.9490297472769996E-3</v>
+      </c>
+      <c r="G236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2.97207558717772</v>
+      </c>
+      <c r="B237">
+        <v>2.1984545941397</v>
+      </c>
+      <c r="C237">
+        <v>-0.14111155411516901</v>
+      </c>
+      <c r="D237">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E237">
+        <v>1.7724734144288901</v>
+      </c>
+      <c r="F237">
+        <v>-1.1745573235205E-2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2.9280085685869501</v>
+      </c>
+      <c r="B238">
+        <v>1.9977048427817301</v>
+      </c>
+      <c r="C238">
+        <v>-0.16371886216470599</v>
+      </c>
+      <c r="D238">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E238">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="F238">
+        <v>-5.5935078283450004E-3</v>
+      </c>
+      <c r="G238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3.09938030755107</v>
+      </c>
+      <c r="B239">
+        <v>3.6134955244434201</v>
+      </c>
+      <c r="C239">
+        <v>0.129705243545054</v>
+      </c>
+      <c r="D239">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E239">
+        <v>4.5193175732537698</v>
+      </c>
+      <c r="F239">
+        <v>-1.254073107859E-3</v>
+      </c>
+      <c r="G239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.99885242139086505</v>
+      </c>
+      <c r="B240">
+        <v>2.0172901843776301</v>
+      </c>
+      <c r="C240">
+        <v>0.20960041447908401</v>
+      </c>
+      <c r="D240">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E240">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="F240">
+        <v>-5.2245540278220001E-3</v>
+      </c>
+      <c r="G240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2.92311223318797</v>
+      </c>
+      <c r="B241">
+        <v>3.5645321704536799</v>
+      </c>
+      <c r="C241">
+        <v>0.14644517610795901</v>
+      </c>
+      <c r="D241">
+        <v>4.8767500573789304</v>
+      </c>
+      <c r="E241">
+        <v>4.5144212378547897</v>
+      </c>
+      <c r="F241">
+        <v>-1.1811943212219999E-3</v>
+      </c>
+      <c r="G241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3.0161426057685001</v>
+      </c>
+      <c r="B242">
+        <v>2.0907352153622498</v>
+      </c>
+      <c r="C242">
+        <v>-0.166873163779311</v>
+      </c>
+      <c r="D242">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E242">
+        <v>3.4176421084844302</v>
+      </c>
+      <c r="F242">
+        <v>-6.4737672558050005E-2</v>
+      </c>
+      <c r="G242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3.14834366154082</v>
+      </c>
+      <c r="B243">
+        <v>3.500879810267</v>
+      </c>
+      <c r="C243">
+        <v>9.5624242307142004E-2</v>
+      </c>
+      <c r="D243">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E243">
+        <v>4.5095249024558202</v>
+      </c>
+      <c r="F243">
+        <v>5.7728422931791E-2</v>
+      </c>
+      <c r="G243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2.8986305561930998</v>
+      </c>
+      <c r="B244">
+        <v>2.0417718613725002</v>
+      </c>
+      <c r="C244">
+        <v>-0.161327582419976</v>
+      </c>
+      <c r="D244">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E244">
+        <v>3.3393007421008298</v>
+      </c>
+      <c r="F244">
+        <v>-1.3476557993102999E-2</v>
+      </c>
+      <c r="G244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3.1091729783490201</v>
+      </c>
+      <c r="B245">
+        <v>3.4812944686710998</v>
+      </c>
+      <c r="C245">
+        <v>9.7579714460333006E-2</v>
+      </c>
+      <c r="D245">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E245">
+        <v>4.4850432254609398</v>
+      </c>
+      <c r="F245">
+        <v>2.1922744910506001E-2</v>
+      </c>
+      <c r="G245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="B246">
+        <v>2.05646086756943</v>
+      </c>
+      <c r="C246">
+        <v>-0.16665454320454601</v>
+      </c>
+      <c r="D246">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E246">
+        <v>3.3833677606916099</v>
+      </c>
+      <c r="F246">
+        <v>-6.2895378993240002E-3</v>
+      </c>
+      <c r="G246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2.9524902455818198</v>
+      </c>
+      <c r="B247">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C247">
+        <v>0.14758857011440801</v>
+      </c>
+      <c r="D247">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E247">
+        <v>4.5486955856476197</v>
+      </c>
+      <c r="F247">
+        <v>1.448080316237E-2</v>
+      </c>
+      <c r="G247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2.9084232269910499</v>
+      </c>
+      <c r="B248">
+        <v>2.0270828551755802</v>
+      </c>
+      <c r="C248">
+        <v>-0.167406676625802</v>
+      </c>
+      <c r="D248">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E248">
+        <v>3.3490934128987799</v>
+      </c>
+      <c r="F248">
+        <v>-4.7969700130909999E-3</v>
+      </c>
+      <c r="G248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2.9622829163797699</v>
+      </c>
+      <c r="B249">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C249">
+        <v>0.143617620503765</v>
+      </c>
+      <c r="D249">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E249">
+        <v>4.4262872006732499</v>
+      </c>
+      <c r="F249">
+        <v>9.0405246649559994E-3</v>
+      </c>
+      <c r="G249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2.9818682579756701</v>
+      </c>
+      <c r="B250">
+        <v>2.0858388799632799</v>
+      </c>
+      <c r="C250">
+        <v>-0.163483681724262</v>
+      </c>
+      <c r="D250">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E250">
+        <v>3.3295080713028802</v>
+      </c>
+      <c r="F250">
+        <v>-3.8119122733669998E-3</v>
+      </c>
+      <c r="G250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2.9426975747838702</v>
+      </c>
+      <c r="B251">
+        <v>3.5155688164639298</v>
+      </c>
+      <c r="C251">
+        <v>0.14073166411674301</v>
+      </c>
+      <c r="D251">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E251">
+        <v>4.6221406166322403</v>
+      </c>
+      <c r="F251">
+        <v>8.8487970382079995E-3</v>
+      </c>
+      <c r="G251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2.8545635376023299</v>
+      </c>
+      <c r="B252">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C252">
+        <v>-0.14719689954997001</v>
+      </c>
+      <c r="D252">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E252">
+        <v>3.3882640960905799</v>
+      </c>
+      <c r="F252">
+        <v>-2.5980271538639998E-3</v>
+      </c>
+      <c r="G252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3.0504169535613199</v>
+      </c>
+      <c r="B253">
+        <v>3.4812944686710998</v>
+      </c>
+      <c r="C253">
+        <v>0.118136292690478</v>
+      </c>
+      <c r="D253">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E253">
+        <v>4.4360798714712004</v>
+      </c>
+      <c r="F253">
+        <v>5.8803300288829997E-3</v>
+      </c>
+      <c r="G253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3.1434473261418399</v>
+      </c>
+      <c r="B254">
+        <v>2.0466681967714799</v>
+      </c>
+      <c r="C254">
+        <v>-0.21897740979796099</v>
+      </c>
+      <c r="D254">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E254">
+        <v>3.4372274500803299</v>
+      </c>
+      <c r="F254">
+        <v>-1.825890732776E-3</v>
+      </c>
+      <c r="G254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3.11406931374799</v>
+      </c>
+      <c r="B255">
+        <v>3.4959834748680301</v>
+      </c>
+      <c r="C255">
+        <v>9.4724480564364999E-2</v>
+      </c>
+      <c r="D255">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E255">
+        <v>4.4262872006732499</v>
+      </c>
+      <c r="F255">
+        <v>4.8982347190220004E-3</v>
+      </c>
+      <c r="G255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2.86435620840028</v>
+      </c>
+      <c r="B256">
+        <v>2.0368755259735298</v>
+      </c>
+      <c r="C256">
+        <v>-0.14106422483428899</v>
+      </c>
+      <c r="D256">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E256">
+        <v>3.39316043148956</v>
+      </c>
+      <c r="F256">
+        <v>-1.841616514774E-3</v>
+      </c>
+      <c r="G256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3.0944839721520898</v>
+      </c>
+      <c r="B257">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C257">
+        <v>0.10459428293691</v>
+      </c>
+      <c r="D257">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E257">
+        <v>4.3381531634917003</v>
+      </c>
+      <c r="F257">
+        <v>3.7395339817399998E-3</v>
+      </c>
+      <c r="G257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2.83008186060745</v>
+      </c>
+      <c r="B258">
+        <v>2.00260117818071</v>
+      </c>
+      <c r="C258">
+        <v>-0.14222443281404001</v>
+      </c>
+      <c r="D258">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E258">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="F258">
+        <v>-2.1876901537599999E-3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2.92311223318797</v>
+      </c>
+      <c r="B259">
+        <v>3.5792211766505999</v>
+      </c>
+      <c r="C259">
+        <v>0.15673246446441699</v>
+      </c>
+      <c r="D259">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E259">
+        <v>1.79695509142376</v>
+      </c>
+      <c r="F259">
+        <v>-9.6140712596380004E-3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2.8251855252084801</v>
+      </c>
+      <c r="B260">
+        <v>2.0319791905745501</v>
+      </c>
+      <c r="C260">
+        <v>-0.14064343155756001</v>
+      </c>
+      <c r="D260">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E260">
+        <v>3.3735750898936598</v>
+      </c>
+      <c r="F260">
+        <v>-1.523908769143E-3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2.918215897789</v>
+      </c>
+      <c r="B261">
+        <v>3.59391018284752</v>
+      </c>
+      <c r="C261">
+        <v>0.15752300357103599</v>
+      </c>
+      <c r="D261">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E261">
+        <v>4.6074516104353203</v>
+      </c>
+      <c r="F261">
+        <v>4.1669361824800003E-3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2.8790452145972001</v>
+      </c>
+      <c r="B262">
+        <v>2.00260117818071</v>
+      </c>
+      <c r="C262">
+        <v>-0.15839088760772399</v>
+      </c>
+      <c r="D262">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E262">
+        <v>3.2854410527121098</v>
+      </c>
+      <c r="F262">
+        <v>-1.7468464780890001E-3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2.8496672022033498</v>
+      </c>
+      <c r="B263">
+        <v>3.5449468288577801</v>
+      </c>
+      <c r="C263">
+        <v>0.160178571668807</v>
+      </c>
+      <c r="D263">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E263">
+        <v>4.5242139086527402</v>
+      </c>
+      <c r="F263">
+        <v>3.4268969802940001E-3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2.8056001836125799</v>
+      </c>
+      <c r="B264">
+        <v>2.0711498737663501</v>
+      </c>
+      <c r="C264">
+        <v>-0.127621294393931</v>
+      </c>
+      <c r="D264">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E264">
+        <v>3.3246117359039098</v>
+      </c>
+      <c r="F264">
+        <v>-1.440866736733E-3</v>
+      </c>
+      <c r="G264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3.0700022951572201</v>
+      </c>
+      <c r="B265">
+        <v>3.5155688164639298</v>
+      </c>
+      <c r="C265">
+        <v>0.12035103512492901</v>
+      </c>
+      <c r="D265">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E265">
+        <v>4.4948358962588904</v>
+      </c>
+      <c r="F265">
+        <v>3.031741618003E-3</v>
+      </c>
+      <c r="G265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2.81539285441053</v>
+      </c>
+      <c r="B266">
+        <v>2.05646086756943</v>
+      </c>
+      <c r="C266">
+        <v>-0.131817598116234</v>
+      </c>
+      <c r="D266">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E266">
+        <v>3.29033738811109</v>
+      </c>
+      <c r="F266">
+        <v>-1.4492720115199999E-3</v>
+      </c>
+      <c r="G266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2.8496672022033498</v>
+      </c>
+      <c r="B267">
+        <v>3.5547394996557302</v>
+      </c>
+      <c r="C267">
+        <v>0.16609772209850299</v>
+      </c>
+      <c r="D267">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E267">
+        <v>4.5682809272435199</v>
+      </c>
+      <c r="F267">
+        <v>3.0483206090980001E-3</v>
+      </c>
+      <c r="G267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2.8398745314054001</v>
+      </c>
+      <c r="B268">
+        <v>2.0221865197766</v>
+      </c>
+      <c r="C268">
+        <v>-0.142859515290512</v>
+      </c>
+      <c r="D268">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E268">
+        <v>3.3637824190957102</v>
+      </c>
+      <c r="F268">
+        <v>-1.0935530808869999E-3</v>
+      </c>
+      <c r="G268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2.9035268915920698</v>
+      </c>
+      <c r="B269">
+        <v>3.5694285058526498</v>
+      </c>
+      <c r="C269">
+        <v>0.15508702129753199</v>
+      </c>
+      <c r="D269">
+        <v>3.69183689082702</v>
+      </c>
+      <c r="E269">
+        <v>1.7871624206258101</v>
+      </c>
+      <c r="F269">
+        <v>-6.1118392436169998E-3</v>
+      </c>
+      <c r="G269" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:40009_{FBDB12A5-EA3D-4522-9AAB-B853B66120D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD07978A-A0DA-47BA-B4CA-3670533DA7CF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,29 @@
     <definedName name="_xlchart.v1.10" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">first_peak_hist!$H$46:$H$71</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'second peak'!$D$1:$D$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'second peak'!$A$1:$A$26</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'second peak'!$D$34:$D$127</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'second peak'!$E$34:$E$127</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'second peak'!$L$34:$L$87</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'second peak'!$M$34:$M$87</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'second peak'!$E$34:$E$127</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'second peak'!$L$34:$L$87</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'second peak'!$M$34:$M$87</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'second peak'!$A$1:$A$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'second peak'!$D$1:$D$28</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'second peak'!$L$34:$L$87</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">gradients!$B$1:$B$149</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'second peak'!$M$34:$M$87</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'second peak'!$D$34:$D$127</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'second peak'!$E$34:$E$127</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">first_peak_hist!$B$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">first_peak_hist!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'second peak'!$D$34:$D$127</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'second peak'!$E$34:$E$127</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">first_peak_hist!$D$46:$D$99</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">first_peak_hist!$E$46:$E$99</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">gradients!$C$1:$C$149</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">first_peak_hist!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">first_peak_hist!$H$1:$H$42</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">first_peak_hist!$E$46:$E$73</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">first_peak_hist!$E$1:$E$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">first_peak_hist!$H$1:$H$42</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">first_peak_hist!$E$46:$E$73</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">first_peak_hist!$E$1:$E$41</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">first_peak_hist!$A$2:$A$84</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">first_peak_hist!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">first_peak_hist!$B$2:$B$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -762,7 +762,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -838,10 +838,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -903,10 +903,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1033,10 +1033,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1098,10 +1098,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1139,7 +1139,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B28F06-9089-4D4C-B857-909ED2DBB18C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>first-peak</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1299,10 +1299,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1340,7 +1340,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B28F06-9089-4D4C-B857-909ED2DBB18C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>first-peak</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1370,7 +1370,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1444,7 +1444,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1507,7 +1507,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1698,7 +1698,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -39915,8 +39915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EBE5A0-7418-4EF8-9AB7-071505A0B865}">
   <dimension ref="A1:L269"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="L269" sqref="L213:L269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50152,8 +50152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280A43AE-CF8F-4663-A188-ED2AA48FB61A}">
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213:G269"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2875FD5F-396C-4C3E-8F80-49B2073CDFDB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{49299341-AA56-49CF-9BC5-48FFE20EBE45}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38160" yWindow="3735" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="all_features-double_node" sheetId="14" r:id="rId6"/>
     <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
     <sheet name="increased_gain" sheetId="16" r:id="rId8"/>
+    <sheet name="schema_2" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">decision_data!$A$1:$H$151</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="25">
   <si>
     <t>first_peak</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>skewness</t>
+  </si>
+  <si>
+    <t>second_peak</t>
+  </si>
+  <si>
+    <t>second_peak_2</t>
   </si>
 </sst>
 </file>
@@ -38554,7 +38561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC28BB55-25D6-4159-87A6-7B6071A1B196}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -42518,4 +42525,3176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
+  <dimension ref="A1:M77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-0.17961008691793301</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-0.22444477383981501</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.30080979772323602</v>
+      </c>
+      <c r="J2">
+        <v>0.20629816933702999</v>
+      </c>
+      <c r="K2">
+        <v>0.37494805731889402</v>
+      </c>
+      <c r="L2">
+        <v>-0.23876825021275</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-0.35861668636614102</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-0.74762574291583805</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.35497164679200599</v>
+      </c>
+      <c r="J3">
+        <v>0.23993183156297701</v>
+      </c>
+      <c r="K3">
+        <v>0.43691047820428103</v>
+      </c>
+      <c r="L3">
+        <v>-0.31435683964461503</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-9.9722477300889997E-3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.157315771439798</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.30723520174042601</v>
+      </c>
+      <c r="J4">
+        <v>0.160853743786114</v>
+      </c>
+      <c r="K4">
+        <v>0.39148954402373398</v>
+      </c>
+      <c r="L4">
+        <v>0.21229444663330699</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-0.30049732235495302</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-0.78481839453643398</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.32624635266785301</v>
+      </c>
+      <c r="J5">
+        <v>0.218875879492166</v>
+      </c>
+      <c r="K5">
+        <v>0.406008093637376</v>
+      </c>
+      <c r="L5">
+        <v>-6.4843851910280003E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-2.2481705954554999E-2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.15736982006175801</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.31191201982879002</v>
+      </c>
+      <c r="J6">
+        <v>0.23550246115041101</v>
+      </c>
+      <c r="K6">
+        <v>0.381249187886745</v>
+      </c>
+      <c r="L6">
+        <v>0.14835266560375401</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-0.23091984147660399</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-0.75550781746829698</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.32219887402674102</v>
+      </c>
+      <c r="J7">
+        <v>0.20011473460148699</v>
+      </c>
+      <c r="K7">
+        <v>0.38645813965949599</v>
+      </c>
+      <c r="L7">
+        <v>8.7651024879931996E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.401927196059787</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.14962303804549601</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.31094292652739502</v>
+      </c>
+      <c r="J8">
+        <v>0.173840302010454</v>
+      </c>
+      <c r="K8">
+        <v>0.37189673746081298</v>
+      </c>
+      <c r="L8">
+        <v>0.176105489567394</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-0.19543133656881601</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-0.23482893444206401</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.30791479122285897</v>
+      </c>
+      <c r="J9">
+        <v>0.16181458378576799</v>
+      </c>
+      <c r="K9">
+        <v>0.37623083666366702</v>
+      </c>
+      <c r="L9">
+        <v>0.10254563247543</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-0.30441172624907398</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.22127413462884399</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.30066803501024902</v>
+      </c>
+      <c r="J10">
+        <v>0.16090118395473399</v>
+      </c>
+      <c r="K10">
+        <v>0.37332139487256999</v>
+      </c>
+      <c r="L10">
+        <v>0.176220414851923</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-0.251789649096548</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-0.68573215357512396</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.30354513138497502</v>
+      </c>
+      <c r="J11">
+        <v>0.13381508982750401</v>
+      </c>
+      <c r="K11">
+        <v>0.37113216356826101</v>
+      </c>
+      <c r="L11">
+        <v>0.14868918021226399</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.39766098941782801</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.118778017057615</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.29692758351569298</v>
+      </c>
+      <c r="J12">
+        <v>0.133891118241694</v>
+      </c>
+      <c r="K12">
+        <v>0.36559245663176798</v>
+      </c>
+      <c r="L12">
+        <v>0.18946825831335501</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-0.233180526094657</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.77561175607176303</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.300642028806057</v>
+      </c>
+      <c r="J13">
+        <v>0.12955233721916501</v>
+      </c>
+      <c r="K13">
+        <v>0.37245901819834498</v>
+      </c>
+      <c r="L13">
+        <v>0.137591757963099</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>-4.5938647990929997E-3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.133431620803516</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.29812168224459701</v>
+      </c>
+      <c r="J14">
+        <v>0.116371596619122</v>
+      </c>
+      <c r="K14">
+        <v>0.37061752871736697</v>
+      </c>
+      <c r="L14">
+        <v>0.16601054616959801</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-0.218004449415866</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-0.66884651221967495</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.29557494412627699</v>
+      </c>
+      <c r="J15">
+        <v>0.10986020770343501</v>
+      </c>
+      <c r="K15">
+        <v>0.36872634321523001</v>
+      </c>
+      <c r="L15">
+        <v>0.130344919985003</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.1026967129625E-2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.13289585826366401</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.28703701889827998</v>
+      </c>
+      <c r="J16">
+        <v>9.9521366108945006E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.35626655546140701</v>
+      </c>
+      <c r="L16">
+        <v>0.16451383006376399</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-0.29137858995280902</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-0.72505776603035299</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.278455759329435</v>
+      </c>
+      <c r="J17">
+        <v>9.6697949017982995E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.34922652104979302</v>
+      </c>
+      <c r="L17">
+        <v>0.131504898713554</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.38547382999882301</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.101077796575131</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.27767390944208298</v>
+      </c>
+      <c r="J18">
+        <v>9.7151158850333999E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.34475223501444902</v>
+      </c>
+      <c r="L18">
+        <v>0.15643645488052399</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>-0.24185836139733699</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-0.85715442516332396</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.28337926257683399</v>
+      </c>
+      <c r="J19">
+        <v>0.113998534244937</v>
+      </c>
+      <c r="K19">
+        <v>0.35394855692448401</v>
+      </c>
+      <c r="L19">
+        <v>0.119502963301895</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>-0.32302530077242197</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>-0.71125635765697903</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.32660649403275399</v>
+      </c>
+      <c r="J20">
+        <v>0.266772605442962</v>
+      </c>
+      <c r="K20">
+        <v>0.40740014271314401</v>
+      </c>
+      <c r="L20">
+        <v>-0.24456879780849899</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.313061013668818</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.23237309621049099</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.28374335572966097</v>
+      </c>
+      <c r="J21">
+        <v>0.32767475918883598</v>
+      </c>
+      <c r="K21">
+        <v>0.38316204041370999</v>
+      </c>
+      <c r="L21">
+        <v>0.100664910131698</v>
+      </c>
+      <c r="M21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>-0.17734098381944999</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-0.71744051299182299</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.27639072951014598</v>
+      </c>
+      <c r="J22">
+        <v>0.31802045155140901</v>
+      </c>
+      <c r="K22">
+        <v>0.38827733408787202</v>
+      </c>
+      <c r="L22">
+        <v>-2.5075794440729E-2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.28621412456317902</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.19573218393483499</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.254714724095842</v>
+      </c>
+      <c r="J23">
+        <v>0.32817568927619001</v>
+      </c>
+      <c r="K23">
+        <v>0.35724353556362598</v>
+      </c>
+      <c r="L23">
+        <v>9.0990209811286998E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-0.31796775199940303</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>-0.83749044915417103</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.26503036225466797</v>
+      </c>
+      <c r="J24">
+        <v>0.318689938248997</v>
+      </c>
+      <c r="K24">
+        <v>0.37872263040383902</v>
+      </c>
+      <c r="L24">
+        <v>-2.6279497739145001E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3.543024677083E-3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.17598592500263699</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.25731871612829799</v>
+      </c>
+      <c r="J25">
+        <v>0.27521861741319298</v>
+      </c>
+      <c r="K25">
+        <v>0.36108981142837698</v>
+      </c>
+      <c r="L25">
+        <v>0.1024540203103</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-0.27265410961631498</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>-0.81647670360670599</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.25718612214139702</v>
+      </c>
+      <c r="J26">
+        <v>0.26124017958662799</v>
+      </c>
+      <c r="K26">
+        <v>0.372633723770604</v>
+      </c>
+      <c r="L26">
+        <v>-2.4747258559656999E-2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2.6755165391659998E-3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.198255836396074</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.25685932490847102</v>
+      </c>
+      <c r="J27">
+        <v>0.27072925868730302</v>
+      </c>
+      <c r="K27">
+        <v>0.36677938028909102</v>
+      </c>
+      <c r="L27">
+        <v>4.1984573255447001E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-0.221989884887</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>-0.242943971616045</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.25970053326575698</v>
+      </c>
+      <c r="J28">
+        <v>0.25681291799568201</v>
+      </c>
+      <c r="K28">
+        <v>0.37037051391239201</v>
+      </c>
+      <c r="L28">
+        <v>-7.1420333888979996E-3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.165037699958069</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.20744017186190999</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.25599449791114298</v>
+      </c>
+      <c r="J29">
+        <v>0.27041832593276599</v>
+      </c>
+      <c r="K29">
+        <v>0.36362269262924801</v>
+      </c>
+      <c r="L29">
+        <v>4.1621347903005E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>-0.31382335361477598</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>-0.77633552070589595</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.26025738082684302</v>
+      </c>
+      <c r="J30">
+        <v>0.253172690175476</v>
+      </c>
+      <c r="K30">
+        <v>0.364724694033222</v>
+      </c>
+      <c r="L30">
+        <v>1.2080226520055999E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.37025524374177199</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.13484492024964401</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.25977243249235799</v>
+      </c>
+      <c r="J31">
+        <v>0.233253656645805</v>
+      </c>
+      <c r="K31">
+        <v>0.36234604984758101</v>
+      </c>
+      <c r="L31">
+        <v>6.9788292721130005E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>-0.24398930753074999</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>-0.24027575724334399</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.26604144652307299</v>
+      </c>
+      <c r="J32">
+        <v>0.23851561382192699</v>
+      </c>
+      <c r="K32">
+        <v>0.36997821971770001</v>
+      </c>
+      <c r="L32">
+        <v>2.2931345300098001E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.40394214235110598</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.158808092884029</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.26673116844922801</v>
+      </c>
+      <c r="J33">
+        <v>0.22613902137356501</v>
+      </c>
+      <c r="K33">
+        <v>0.36648023416437497</v>
+      </c>
+      <c r="L33">
+        <v>7.1165117711326997E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-0.219674248772359</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>-0.270534248025809</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.27047637718623302</v>
+      </c>
+      <c r="J34">
+        <v>0.20345063433996999</v>
+      </c>
+      <c r="K34">
+        <v>0.37311726583850202</v>
+      </c>
+      <c r="L34">
+        <v>2.9562340691050001E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0.28135104973533298</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.30302817106063801</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.26811656710135001</v>
+      </c>
+      <c r="J35">
+        <v>0.20381750860696199</v>
+      </c>
+      <c r="K35">
+        <v>0.36920690652858301</v>
+      </c>
+      <c r="L35">
+        <v>7.1535336341002995E-2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-0.37001418335202602</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>-0.80588194611541297</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.270398624280346</v>
+      </c>
+      <c r="J36">
+        <v>0.198392579879789</v>
+      </c>
+      <c r="K36">
+        <v>0.37090395057104802</v>
+      </c>
+      <c r="L36">
+        <v>3.9197036053515003E-2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.28782173153181301</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.326325796370391</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.26613675899356298</v>
+      </c>
+      <c r="J37">
+        <v>0.196595521821601</v>
+      </c>
+      <c r="K37">
+        <v>0.36577794050771301</v>
+      </c>
+      <c r="L37">
+        <v>8.1450214144696997E-2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-0.28014425958998501</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>-0.186686597485648</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.35421119597752698</v>
+      </c>
+      <c r="J38">
+        <v>4.4766610015816E-2</v>
+      </c>
+      <c r="K38">
+        <v>0.445178763825747</v>
+      </c>
+      <c r="L38">
+        <v>-0.35560241550828398</v>
+      </c>
+      <c r="M38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.42228742906646199</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.20709902780618</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.31725160692633497</v>
+      </c>
+      <c r="J39">
+        <v>2.9864417981795999E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.39609167401811302</v>
+      </c>
+      <c r="L39">
+        <v>0.19387199204165301</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>-0.19123219261982699</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>-0.19340485215384501</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.311105109758475</v>
+      </c>
+      <c r="J40">
+        <v>0.14929667436243499</v>
+      </c>
+      <c r="K40">
+        <v>0.39185902416034302</v>
+      </c>
+      <c r="L40">
+        <v>2.2115685253674001E-2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.12991042248430601</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>-0.94505784292223904</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0.27826474705230703</v>
+      </c>
+      <c r="J41">
+        <v>0.18544463972640801</v>
+      </c>
+      <c r="K41">
+        <v>0.37551617259919601</v>
+      </c>
+      <c r="L41">
+        <v>0.228042526841747</v>
+      </c>
+      <c r="M41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>-0.19419257766782899</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>-0.28079611332545101</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.277023231003244</v>
+      </c>
+      <c r="J42">
+        <v>0.145207368356226</v>
+      </c>
+      <c r="K42">
+        <v>0.390509160482643</v>
+      </c>
+      <c r="L42">
+        <v>2.7589047107895E-2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.13490848996386401</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.31112142935356502</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.26891310618777797</v>
+      </c>
+      <c r="J43">
+        <v>0.19794670751931701</v>
+      </c>
+      <c r="K43">
+        <v>0.38388099970239098</v>
+      </c>
+      <c r="L43">
+        <v>0.12815291520140201</v>
+      </c>
+      <c r="M43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>-0.18449870619332001</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-0.75988596147770004</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.258668502182621</v>
+      </c>
+      <c r="J44">
+        <v>0.183937925987915</v>
+      </c>
+      <c r="K44">
+        <v>0.37329699921184001</v>
+      </c>
+      <c r="L44">
+        <v>4.3971099375522002E-2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.362297806862312</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>-1.5472212760408099</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0.25591264358820098</v>
+      </c>
+      <c r="J45">
+        <v>0.18284394123210301</v>
+      </c>
+      <c r="K45">
+        <v>0.37535737873355102</v>
+      </c>
+      <c r="L45">
+        <v>0.13885020830835401</v>
+      </c>
+      <c r="M45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>-0.214285313840342</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>-0.76243147492395202</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.25890861244788899</v>
+      </c>
+      <c r="J46">
+        <v>0.174235659728389</v>
+      </c>
+      <c r="K46">
+        <v>0.375971246446626</v>
+      </c>
+      <c r="L46">
+        <v>9.8316969859528994E-2</v>
+      </c>
+      <c r="M46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>-0.180349008566419</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>-0.77049753320190995</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.25513486406846803</v>
+      </c>
+      <c r="J47">
+        <v>0.16569313985276801</v>
+      </c>
+      <c r="K47">
+        <v>0.37140119809871203</v>
+      </c>
+      <c r="L47">
+        <v>0.108387042426431</v>
+      </c>
+      <c r="M47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.31003417498951802</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.219775864815587</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.25023268966373702</v>
+      </c>
+      <c r="J48">
+        <v>0.16358300493412101</v>
+      </c>
+      <c r="K48">
+        <v>0.36180599638938199</v>
+      </c>
+      <c r="L48">
+        <v>0.15232283801552801</v>
+      </c>
+      <c r="M48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>-0.37433216674394398</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>-0.95492233481238897</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.26344884830099502</v>
+      </c>
+      <c r="J49">
+        <v>0.169129065081255</v>
+      </c>
+      <c r="K49">
+        <v>0.38042468144365099</v>
+      </c>
+      <c r="L49">
+        <v>5.6764036264467001E-2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>-2.7011057033119999E-3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.14703864856452101</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0.26204655977073399</v>
+      </c>
+      <c r="J50">
+        <v>0.153525893242133</v>
+      </c>
+      <c r="K50">
+        <v>0.37334030359231501</v>
+      </c>
+      <c r="L50">
+        <v>8.1983213829308996E-2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>-0.208984126771075</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>-0.87554947402950001</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.267622497920527</v>
+      </c>
+      <c r="J51">
+        <v>0.147581901132258</v>
+      </c>
+      <c r="K51">
+        <v>0.38071959272912598</v>
+      </c>
+      <c r="L51">
+        <v>3.6810057359334E-2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0.354412200284002</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0.224978742289622</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.26564834018474598</v>
+      </c>
+      <c r="J52">
+        <v>0.14133904593070401</v>
+      </c>
+      <c r="K52">
+        <v>0.37655064805017902</v>
+      </c>
+      <c r="L52">
+        <v>8.8191276278658998E-2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>-0.23176181892981301</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>-0.82451104713145296</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.26835354581718601</v>
+      </c>
+      <c r="J53">
+        <v>0.13005903381245801</v>
+      </c>
+      <c r="K53">
+        <v>0.37794523907127697</v>
+      </c>
+      <c r="L53">
+        <v>5.9482542254067003E-2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>7.3325810878669996E-3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.246821069055632</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.26859076242579899</v>
+      </c>
+      <c r="J54">
+        <v>0.11909406599783399</v>
+      </c>
+      <c r="K54">
+        <v>0.377854095938639</v>
+      </c>
+      <c r="L54">
+        <v>8.1952726189424993E-2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>-0.249691451397072</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>-0.253767878491367</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.45025839710764098</v>
+      </c>
+      <c r="J55">
+        <v>0.290499754762363</v>
+      </c>
+      <c r="K55">
+        <v>0.60337639746206095</v>
+      </c>
+      <c r="L55">
+        <v>-0.27503656017775902</v>
+      </c>
+      <c r="M55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>-9.2471346860200005E-4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.21976515512744901</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.37895422412228003</v>
+      </c>
+      <c r="J56">
+        <v>0.19371287437800599</v>
+      </c>
+      <c r="K56">
+        <v>0.52652982546375005</v>
+      </c>
+      <c r="L56">
+        <v>0.16500316214207</v>
+      </c>
+      <c r="M56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>-0.19042586432973599</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>-0.25720935341865397</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0.38226854987791697</v>
+      </c>
+      <c r="J57">
+        <v>0.19382104940849501</v>
+      </c>
+      <c r="K57">
+        <v>0.51962390139124903</v>
+      </c>
+      <c r="L57">
+        <v>5.1889544872777998E-2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>-7.4656273037180003E-3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>-1.2715783350474999E-2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>9.9441013090804997E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.155293989829317</v>
+      </c>
+      <c r="K58">
+        <v>0.12884778341810799</v>
+      </c>
+      <c r="L58">
+        <v>0.28789362862538997</v>
+      </c>
+      <c r="M58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>-0.26011147093894799</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>-0.82300331443618602</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.11373955963804699</v>
+      </c>
+      <c r="J59">
+        <v>0.14375223729282599</v>
+      </c>
+      <c r="K59">
+        <v>0.14904150781616299</v>
+      </c>
+      <c r="L59">
+        <v>6.1148883320508003E-2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3.5128905576049998E-3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>7.9547263855553996E-2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0.12524431291945301</v>
+      </c>
+      <c r="J60">
+        <v>0.120233141941177</v>
+      </c>
+      <c r="K60">
+        <v>0.160438450228581</v>
+      </c>
+      <c r="L60">
+        <v>0.17031643888116599</v>
+      </c>
+      <c r="M60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>-0.230119975366854</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>-0.29993677242301597</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0.48364766023236599</v>
+      </c>
+      <c r="J61">
+        <v>0.23698745092892301</v>
+      </c>
+      <c r="K61">
+        <v>0.63093912169672794</v>
+      </c>
+      <c r="L61">
+        <v>-0.38822685064985901</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>-8.7849669519799996E-4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0.21383921035150699</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0.36819616273674999</v>
+      </c>
+      <c r="J62">
+        <v>0.28300571858988099</v>
+      </c>
+      <c r="K62">
+        <v>0.49294691288783399</v>
+      </c>
+      <c r="L62">
+        <v>-5.6303776959872001E-2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>-0.18480559518807901</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>-0.27192107084678402</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0.35449271522515102</v>
+      </c>
+      <c r="J63">
+        <v>0.21871662326888999</v>
+      </c>
+      <c r="K63">
+        <v>0.48377471901569202</v>
+      </c>
+      <c r="L63">
+        <v>-0.13661519906015199</v>
+      </c>
+      <c r="M63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>-5.2391295947639997E-3</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0.15694755637224</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.33191740940702102</v>
+      </c>
+      <c r="J64">
+        <v>0.13743942203635701</v>
+      </c>
+      <c r="K64">
+        <v>0.428816842479817</v>
+      </c>
+      <c r="L64">
+        <v>1.6467556205887999E-2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>-0.23909420728869801</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>-0.238766089230915</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0.33243042010868101</v>
+      </c>
+      <c r="J65">
+        <v>0.121599693271347</v>
+      </c>
+      <c r="K65">
+        <v>0.42778531257173702</v>
+      </c>
+      <c r="L65">
+        <v>-3.2123081002950998E-2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>-1.6152664199044001E-2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0.16072360957579701</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0.31992833203300902</v>
+      </c>
+      <c r="J66">
+        <v>0.105029495648575</v>
+      </c>
+      <c r="K66">
+        <v>0.406905276729634</v>
+      </c>
+      <c r="L66">
+        <v>5.8982726123467E-2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>-0.29240072332749001</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.23431987699307699</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0.31016865817645001</v>
+      </c>
+      <c r="J67">
+        <v>0.114617008469063</v>
+      </c>
+      <c r="K67">
+        <v>0.39841185574705101</v>
+      </c>
+      <c r="L67">
+        <v>2.0573520365719999E-3</v>
+      </c>
+      <c r="M67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0.43473067686844502</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>6.3392340905295996E-2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0.305326674803795</v>
+      </c>
+      <c r="J68">
+        <v>6.6956602298675005E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.38497162838295801</v>
+      </c>
+      <c r="L68">
+        <v>6.7492519000386997E-2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>-0.32523041964957899</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>-0.19790387832954101</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0.30532550942895498</v>
+      </c>
+      <c r="J69">
+        <v>7.1224930913854997E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.38396296171858002</v>
+      </c>
+      <c r="L69">
+        <v>1.4335506631377001E-2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>8.6586184933039999E-3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0.109037645593087</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0.30205321440319</v>
+      </c>
+      <c r="J70">
+        <v>7.0048958913121004E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.37696038762668399</v>
+      </c>
+      <c r="L70">
+        <v>6.9574953873796003E-2</v>
+      </c>
+      <c r="M70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>-0.206989148604456</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>-0.29485253954148899</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0.30086916105929001</v>
+      </c>
+      <c r="J71">
+        <v>7.1885852609734999E-2</v>
+      </c>
+      <c r="K71">
+        <v>0.38236331732881601</v>
+      </c>
+      <c r="L71">
+        <v>2.9179639066661E-2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>-0.19735439713903299</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0.23164399539137101</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0.29523894395113198</v>
+      </c>
+      <c r="J72">
+        <v>9.2196740276461006E-2</v>
+      </c>
+      <c r="K72">
+        <v>0.373917222660823</v>
+      </c>
+      <c r="L72">
+        <v>4.8684593773887001E-2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>-0.22217398820197501</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-0.274535033568995</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0.28647895475967</v>
+      </c>
+      <c r="J73">
+        <v>9.0929649062522003E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.36561094209198902</v>
+      </c>
+      <c r="L73">
+        <v>1.8118859078443999E-2</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.24151181180342601</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0.27713635452072399</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0.27904809026010802</v>
+      </c>
+      <c r="J74">
+        <v>0.10914946453785</v>
+      </c>
+      <c r="K74">
+        <v>0.356639484666053</v>
+      </c>
+      <c r="L74">
+        <v>5.4975844728038001E-2</v>
+      </c>
+      <c r="M74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>-0.22564130713966499</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>-0.81314440233484797</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0.277602096730865</v>
+      </c>
+      <c r="J75">
+        <v>0.118736906995344</v>
+      </c>
+      <c r="K75">
+        <v>0.35846727525962802</v>
+      </c>
+      <c r="L75">
+        <v>2.2435271010955E-2</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0.28246278808249098</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0.27680412807958499</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0.27419033400009102</v>
+      </c>
+      <c r="J76">
+        <v>0.124624022623448</v>
+      </c>
+      <c r="K76">
+        <v>0.35444581376419099</v>
+      </c>
+      <c r="L76">
+        <v>5.0460927444269998E-2</v>
+      </c>
+      <c r="M76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>-0.20780444793959299</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>-0.79739662548118895</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0.27448720349278499</v>
+      </c>
+      <c r="J77">
+        <v>0.13018852579708301</v>
+      </c>
+      <c r="K77">
+        <v>0.35760795787956301</v>
+      </c>
+      <c r="L77">
+        <v>1.9709668592304001E-2</v>
+      </c>
+      <c r="M77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{49299341-AA56-49CF-9BC5-48FFE20EBE45}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B341B2B0-5D3E-4F2C-9152-86A9623FDE7C}"/>
   <bookViews>
-    <workbookView xWindow="-38160" yWindow="3735" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="25">
   <si>
     <t>first_peak</t>
   </si>
@@ -42529,15 +42529,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42566,19 +42566,10 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42606,20 +42597,11 @@
       <c r="I2">
         <v>0.30080979772323602</v>
       </c>
-      <c r="J2">
-        <v>0.20629816933702999</v>
-      </c>
-      <c r="K2">
-        <v>0.37494805731889402</v>
-      </c>
-      <c r="L2">
-        <v>-0.23876825021275</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -42647,20 +42629,11 @@
       <c r="I3">
         <v>0.35497164679200599</v>
       </c>
-      <c r="J3">
-        <v>0.23993183156297701</v>
-      </c>
-      <c r="K3">
-        <v>0.43691047820428103</v>
-      </c>
-      <c r="L3">
-        <v>-0.31435683964461503</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -42688,20 +42661,11 @@
       <c r="I4">
         <v>0.30723520174042601</v>
       </c>
-      <c r="J4">
-        <v>0.160853743786114</v>
-      </c>
-      <c r="K4">
-        <v>0.39148954402373398</v>
-      </c>
-      <c r="L4">
-        <v>0.21229444663330699</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -42729,20 +42693,11 @@
       <c r="I5">
         <v>0.32624635266785301</v>
       </c>
-      <c r="J5">
-        <v>0.218875879492166</v>
-      </c>
-      <c r="K5">
-        <v>0.406008093637376</v>
-      </c>
-      <c r="L5">
-        <v>-6.4843851910280003E-3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -42770,20 +42725,11 @@
       <c r="I6">
         <v>0.31191201982879002</v>
       </c>
-      <c r="J6">
-        <v>0.23550246115041101</v>
-      </c>
-      <c r="K6">
-        <v>0.381249187886745</v>
-      </c>
-      <c r="L6">
-        <v>0.14835266560375401</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -42811,20 +42757,11 @@
       <c r="I7">
         <v>0.32219887402674102</v>
       </c>
-      <c r="J7">
-        <v>0.20011473460148699</v>
-      </c>
-      <c r="K7">
-        <v>0.38645813965949599</v>
-      </c>
-      <c r="L7">
-        <v>8.7651024879931996E-2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -42852,20 +42789,11 @@
       <c r="I8">
         <v>0.31094292652739502</v>
       </c>
-      <c r="J8">
-        <v>0.173840302010454</v>
-      </c>
-      <c r="K8">
-        <v>0.37189673746081298</v>
-      </c>
-      <c r="L8">
-        <v>0.176105489567394</v>
-      </c>
-      <c r="M8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -42893,20 +42821,11 @@
       <c r="I9">
         <v>0.30791479122285897</v>
       </c>
-      <c r="J9">
-        <v>0.16181458378576799</v>
-      </c>
-      <c r="K9">
-        <v>0.37623083666366702</v>
-      </c>
-      <c r="L9">
-        <v>0.10254563247543</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -42934,20 +42853,11 @@
       <c r="I10">
         <v>0.30066803501024902</v>
       </c>
-      <c r="J10">
-        <v>0.16090118395473399</v>
-      </c>
-      <c r="K10">
-        <v>0.37332139487256999</v>
-      </c>
-      <c r="L10">
-        <v>0.176220414851923</v>
-      </c>
-      <c r="M10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -42975,20 +42885,11 @@
       <c r="I11">
         <v>0.30354513138497502</v>
       </c>
-      <c r="J11">
-        <v>0.13381508982750401</v>
-      </c>
-      <c r="K11">
-        <v>0.37113216356826101</v>
-      </c>
-      <c r="L11">
-        <v>0.14868918021226399</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -43016,20 +42917,11 @@
       <c r="I12">
         <v>0.29692758351569298</v>
       </c>
-      <c r="J12">
-        <v>0.133891118241694</v>
-      </c>
-      <c r="K12">
-        <v>0.36559245663176798</v>
-      </c>
-      <c r="L12">
-        <v>0.18946825831335501</v>
-      </c>
-      <c r="M12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -43057,20 +42949,11 @@
       <c r="I13">
         <v>0.300642028806057</v>
       </c>
-      <c r="J13">
-        <v>0.12955233721916501</v>
-      </c>
-      <c r="K13">
-        <v>0.37245901819834498</v>
-      </c>
-      <c r="L13">
-        <v>0.137591757963099</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -43098,20 +42981,11 @@
       <c r="I14">
         <v>0.29812168224459701</v>
       </c>
-      <c r="J14">
-        <v>0.116371596619122</v>
-      </c>
-      <c r="K14">
-        <v>0.37061752871736697</v>
-      </c>
-      <c r="L14">
-        <v>0.16601054616959801</v>
-      </c>
-      <c r="M14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -43139,20 +43013,11 @@
       <c r="I15">
         <v>0.29557494412627699</v>
       </c>
-      <c r="J15">
-        <v>0.10986020770343501</v>
-      </c>
-      <c r="K15">
-        <v>0.36872634321523001</v>
-      </c>
-      <c r="L15">
-        <v>0.130344919985003</v>
-      </c>
-      <c r="M15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -43180,20 +43045,11 @@
       <c r="I16">
         <v>0.28703701889827998</v>
       </c>
-      <c r="J16">
-        <v>9.9521366108945006E-2</v>
-      </c>
-      <c r="K16">
-        <v>0.35626655546140701</v>
-      </c>
-      <c r="L16">
-        <v>0.16451383006376399</v>
-      </c>
-      <c r="M16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -43221,20 +43077,11 @@
       <c r="I17">
         <v>0.278455759329435</v>
       </c>
-      <c r="J17">
-        <v>9.6697949017982995E-2</v>
-      </c>
-      <c r="K17">
-        <v>0.34922652104979302</v>
-      </c>
-      <c r="L17">
-        <v>0.131504898713554</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -43262,20 +43109,11 @@
       <c r="I18">
         <v>0.27767390944208298</v>
       </c>
-      <c r="J18">
-        <v>9.7151158850333999E-2</v>
-      </c>
-      <c r="K18">
-        <v>0.34475223501444902</v>
-      </c>
-      <c r="L18">
-        <v>0.15643645488052399</v>
-      </c>
-      <c r="M18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -43303,20 +43141,11 @@
       <c r="I19">
         <v>0.28337926257683399</v>
       </c>
-      <c r="J19">
-        <v>0.113998534244937</v>
-      </c>
-      <c r="K19">
-        <v>0.35394855692448401</v>
-      </c>
-      <c r="L19">
-        <v>0.119502963301895</v>
-      </c>
-      <c r="M19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -43344,20 +43173,11 @@
       <c r="I20">
         <v>0.32660649403275399</v>
       </c>
-      <c r="J20">
-        <v>0.266772605442962</v>
-      </c>
-      <c r="K20">
-        <v>0.40740014271314401</v>
-      </c>
-      <c r="L20">
-        <v>-0.24456879780849899</v>
-      </c>
-      <c r="M20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -43385,20 +43205,11 @@
       <c r="I21">
         <v>0.28374335572966097</v>
       </c>
-      <c r="J21">
-        <v>0.32767475918883598</v>
-      </c>
-      <c r="K21">
-        <v>0.38316204041370999</v>
-      </c>
-      <c r="L21">
-        <v>0.100664910131698</v>
-      </c>
-      <c r="M21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -43426,20 +43237,11 @@
       <c r="I22">
         <v>0.27639072951014598</v>
       </c>
-      <c r="J22">
-        <v>0.31802045155140901</v>
-      </c>
-      <c r="K22">
-        <v>0.38827733408787202</v>
-      </c>
-      <c r="L22">
-        <v>-2.5075794440729E-2</v>
-      </c>
-      <c r="M22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -43467,20 +43269,11 @@
       <c r="I23">
         <v>0.254714724095842</v>
       </c>
-      <c r="J23">
-        <v>0.32817568927619001</v>
-      </c>
-      <c r="K23">
-        <v>0.35724353556362598</v>
-      </c>
-      <c r="L23">
-        <v>9.0990209811286998E-2</v>
-      </c>
-      <c r="M23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -43508,20 +43301,11 @@
       <c r="I24">
         <v>0.26503036225466797</v>
       </c>
-      <c r="J24">
-        <v>0.318689938248997</v>
-      </c>
-      <c r="K24">
-        <v>0.37872263040383902</v>
-      </c>
-      <c r="L24">
-        <v>-2.6279497739145001E-2</v>
-      </c>
-      <c r="M24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -43549,20 +43333,11 @@
       <c r="I25">
         <v>0.25731871612829799</v>
       </c>
-      <c r="J25">
-        <v>0.27521861741319298</v>
-      </c>
-      <c r="K25">
-        <v>0.36108981142837698</v>
-      </c>
-      <c r="L25">
-        <v>0.1024540203103</v>
-      </c>
-      <c r="M25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -43590,20 +43365,11 @@
       <c r="I26">
         <v>0.25718612214139702</v>
       </c>
-      <c r="J26">
-        <v>0.26124017958662799</v>
-      </c>
-      <c r="K26">
-        <v>0.372633723770604</v>
-      </c>
-      <c r="L26">
-        <v>-2.4747258559656999E-2</v>
-      </c>
-      <c r="M26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -43631,20 +43397,11 @@
       <c r="I27">
         <v>0.25685932490847102</v>
       </c>
-      <c r="J27">
-        <v>0.27072925868730302</v>
-      </c>
-      <c r="K27">
-        <v>0.36677938028909102</v>
-      </c>
-      <c r="L27">
-        <v>4.1984573255447001E-2</v>
-      </c>
-      <c r="M27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -43672,20 +43429,11 @@
       <c r="I28">
         <v>0.25970053326575698</v>
       </c>
-      <c r="J28">
-        <v>0.25681291799568201</v>
-      </c>
-      <c r="K28">
-        <v>0.37037051391239201</v>
-      </c>
-      <c r="L28">
-        <v>-7.1420333888979996E-3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -43713,20 +43461,11 @@
       <c r="I29">
         <v>0.25599449791114298</v>
       </c>
-      <c r="J29">
-        <v>0.27041832593276599</v>
-      </c>
-      <c r="K29">
-        <v>0.36362269262924801</v>
-      </c>
-      <c r="L29">
-        <v>4.1621347903005E-2</v>
-      </c>
-      <c r="M29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -43754,20 +43493,11 @@
       <c r="I30">
         <v>0.26025738082684302</v>
       </c>
-      <c r="J30">
-        <v>0.253172690175476</v>
-      </c>
-      <c r="K30">
-        <v>0.364724694033222</v>
-      </c>
-      <c r="L30">
-        <v>1.2080226520055999E-2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -43795,20 +43525,11 @@
       <c r="I31">
         <v>0.25977243249235799</v>
       </c>
-      <c r="J31">
-        <v>0.233253656645805</v>
-      </c>
-      <c r="K31">
-        <v>0.36234604984758101</v>
-      </c>
-      <c r="L31">
-        <v>6.9788292721130005E-2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -43836,20 +43557,11 @@
       <c r="I32">
         <v>0.26604144652307299</v>
       </c>
-      <c r="J32">
-        <v>0.23851561382192699</v>
-      </c>
-      <c r="K32">
-        <v>0.36997821971770001</v>
-      </c>
-      <c r="L32">
-        <v>2.2931345300098001E-2</v>
-      </c>
-      <c r="M32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -43877,20 +43589,11 @@
       <c r="I33">
         <v>0.26673116844922801</v>
       </c>
-      <c r="J33">
-        <v>0.22613902137356501</v>
-      </c>
-      <c r="K33">
-        <v>0.36648023416437497</v>
-      </c>
-      <c r="L33">
-        <v>7.1165117711326997E-2</v>
-      </c>
-      <c r="M33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -43918,20 +43621,11 @@
       <c r="I34">
         <v>0.27047637718623302</v>
       </c>
-      <c r="J34">
-        <v>0.20345063433996999</v>
-      </c>
-      <c r="K34">
-        <v>0.37311726583850202</v>
-      </c>
-      <c r="L34">
-        <v>2.9562340691050001E-2</v>
-      </c>
-      <c r="M34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -43959,20 +43653,11 @@
       <c r="I35">
         <v>0.26811656710135001</v>
       </c>
-      <c r="J35">
-        <v>0.20381750860696199</v>
-      </c>
-      <c r="K35">
-        <v>0.36920690652858301</v>
-      </c>
-      <c r="L35">
-        <v>7.1535336341002995E-2</v>
-      </c>
-      <c r="M35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -44000,20 +43685,11 @@
       <c r="I36">
         <v>0.270398624280346</v>
       </c>
-      <c r="J36">
-        <v>0.198392579879789</v>
-      </c>
-      <c r="K36">
-        <v>0.37090395057104802</v>
-      </c>
-      <c r="L36">
-        <v>3.9197036053515003E-2</v>
-      </c>
-      <c r="M36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -44041,20 +43717,11 @@
       <c r="I37">
         <v>0.26613675899356298</v>
       </c>
-      <c r="J37">
-        <v>0.196595521821601</v>
-      </c>
-      <c r="K37">
-        <v>0.36577794050771301</v>
-      </c>
-      <c r="L37">
-        <v>8.1450214144696997E-2</v>
-      </c>
-      <c r="M37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -44082,20 +43749,11 @@
       <c r="I38">
         <v>0.35421119597752698</v>
       </c>
-      <c r="J38">
-        <v>4.4766610015816E-2</v>
-      </c>
-      <c r="K38">
-        <v>0.445178763825747</v>
-      </c>
-      <c r="L38">
-        <v>-0.35560241550828398</v>
-      </c>
-      <c r="M38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -44123,20 +43781,11 @@
       <c r="I39">
         <v>0.31725160692633497</v>
       </c>
-      <c r="J39">
-        <v>2.9864417981795999E-2</v>
-      </c>
-      <c r="K39">
-        <v>0.39609167401811302</v>
-      </c>
-      <c r="L39">
-        <v>0.19387199204165301</v>
-      </c>
-      <c r="M39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -44164,20 +43813,11 @@
       <c r="I40">
         <v>0.311105109758475</v>
       </c>
-      <c r="J40">
-        <v>0.14929667436243499</v>
-      </c>
-      <c r="K40">
-        <v>0.39185902416034302</v>
-      </c>
-      <c r="L40">
-        <v>2.2115685253674001E-2</v>
-      </c>
-      <c r="M40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -44205,20 +43845,11 @@
       <c r="I41">
         <v>0.27826474705230703</v>
       </c>
-      <c r="J41">
-        <v>0.18544463972640801</v>
-      </c>
-      <c r="K41">
-        <v>0.37551617259919601</v>
-      </c>
-      <c r="L41">
-        <v>0.228042526841747</v>
-      </c>
-      <c r="M41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -44246,20 +43877,11 @@
       <c r="I42">
         <v>0.277023231003244</v>
       </c>
-      <c r="J42">
-        <v>0.145207368356226</v>
-      </c>
-      <c r="K42">
-        <v>0.390509160482643</v>
-      </c>
-      <c r="L42">
-        <v>2.7589047107895E-2</v>
-      </c>
-      <c r="M42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -44287,20 +43909,11 @@
       <c r="I43">
         <v>0.26891310618777797</v>
       </c>
-      <c r="J43">
-        <v>0.19794670751931701</v>
-      </c>
-      <c r="K43">
-        <v>0.38388099970239098</v>
-      </c>
-      <c r="L43">
-        <v>0.12815291520140201</v>
-      </c>
-      <c r="M43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -44328,20 +43941,11 @@
       <c r="I44">
         <v>0.258668502182621</v>
       </c>
-      <c r="J44">
-        <v>0.183937925987915</v>
-      </c>
-      <c r="K44">
-        <v>0.37329699921184001</v>
-      </c>
-      <c r="L44">
-        <v>4.3971099375522002E-2</v>
-      </c>
-      <c r="M44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -44369,20 +43973,11 @@
       <c r="I45">
         <v>0.25591264358820098</v>
       </c>
-      <c r="J45">
-        <v>0.18284394123210301</v>
-      </c>
-      <c r="K45">
-        <v>0.37535737873355102</v>
-      </c>
-      <c r="L45">
-        <v>0.13885020830835401</v>
-      </c>
-      <c r="M45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -44410,20 +44005,11 @@
       <c r="I46">
         <v>0.25890861244788899</v>
       </c>
-      <c r="J46">
-        <v>0.174235659728389</v>
-      </c>
-      <c r="K46">
-        <v>0.375971246446626</v>
-      </c>
-      <c r="L46">
-        <v>9.8316969859528994E-2</v>
-      </c>
-      <c r="M46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -44451,20 +44037,11 @@
       <c r="I47">
         <v>0.25513486406846803</v>
       </c>
-      <c r="J47">
-        <v>0.16569313985276801</v>
-      </c>
-      <c r="K47">
-        <v>0.37140119809871203</v>
-      </c>
-      <c r="L47">
-        <v>0.108387042426431</v>
-      </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -44492,20 +44069,11 @@
       <c r="I48">
         <v>0.25023268966373702</v>
       </c>
-      <c r="J48">
-        <v>0.16358300493412101</v>
-      </c>
-      <c r="K48">
-        <v>0.36180599638938199</v>
-      </c>
-      <c r="L48">
-        <v>0.15232283801552801</v>
-      </c>
-      <c r="M48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -44533,20 +44101,11 @@
       <c r="I49">
         <v>0.26344884830099502</v>
       </c>
-      <c r="J49">
-        <v>0.169129065081255</v>
-      </c>
-      <c r="K49">
-        <v>0.38042468144365099</v>
-      </c>
-      <c r="L49">
-        <v>5.6764036264467001E-2</v>
-      </c>
-      <c r="M49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -44574,20 +44133,11 @@
       <c r="I50">
         <v>0.26204655977073399</v>
       </c>
-      <c r="J50">
-        <v>0.153525893242133</v>
-      </c>
-      <c r="K50">
-        <v>0.37334030359231501</v>
-      </c>
-      <c r="L50">
-        <v>8.1983213829308996E-2</v>
-      </c>
-      <c r="M50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -44615,20 +44165,11 @@
       <c r="I51">
         <v>0.267622497920527</v>
       </c>
-      <c r="J51">
-        <v>0.147581901132258</v>
-      </c>
-      <c r="K51">
-        <v>0.38071959272912598</v>
-      </c>
-      <c r="L51">
-        <v>3.6810057359334E-2</v>
-      </c>
-      <c r="M51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -44656,20 +44197,11 @@
       <c r="I52">
         <v>0.26564834018474598</v>
       </c>
-      <c r="J52">
-        <v>0.14133904593070401</v>
-      </c>
-      <c r="K52">
-        <v>0.37655064805017902</v>
-      </c>
-      <c r="L52">
-        <v>8.8191276278658998E-2</v>
-      </c>
-      <c r="M52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -44697,20 +44229,11 @@
       <c r="I53">
         <v>0.26835354581718601</v>
       </c>
-      <c r="J53">
-        <v>0.13005903381245801</v>
-      </c>
-      <c r="K53">
-        <v>0.37794523907127697</v>
-      </c>
-      <c r="L53">
-        <v>5.9482542254067003E-2</v>
-      </c>
-      <c r="M53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -44738,20 +44261,11 @@
       <c r="I54">
         <v>0.26859076242579899</v>
       </c>
-      <c r="J54">
-        <v>0.11909406599783399</v>
-      </c>
-      <c r="K54">
-        <v>0.377854095938639</v>
-      </c>
-      <c r="L54">
-        <v>8.1952726189424993E-2</v>
-      </c>
-      <c r="M54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -44779,20 +44293,11 @@
       <c r="I55">
         <v>0.45025839710764098</v>
       </c>
-      <c r="J55">
-        <v>0.290499754762363</v>
-      </c>
-      <c r="K55">
-        <v>0.60337639746206095</v>
-      </c>
-      <c r="L55">
-        <v>-0.27503656017775902</v>
-      </c>
-      <c r="M55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -44820,20 +44325,11 @@
       <c r="I56">
         <v>0.37895422412228003</v>
       </c>
-      <c r="J56">
-        <v>0.19371287437800599</v>
-      </c>
-      <c r="K56">
-        <v>0.52652982546375005</v>
-      </c>
-      <c r="L56">
-        <v>0.16500316214207</v>
-      </c>
-      <c r="M56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -44861,20 +44357,11 @@
       <c r="I57">
         <v>0.38226854987791697</v>
       </c>
-      <c r="J57">
-        <v>0.19382104940849501</v>
-      </c>
-      <c r="K57">
-        <v>0.51962390139124903</v>
-      </c>
-      <c r="L57">
-        <v>5.1889544872777998E-2</v>
-      </c>
-      <c r="M57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -44902,20 +44389,11 @@
       <c r="I58">
         <v>9.9441013090804997E-2</v>
       </c>
-      <c r="J58">
-        <v>0.155293989829317</v>
-      </c>
-      <c r="K58">
-        <v>0.12884778341810799</v>
-      </c>
-      <c r="L58">
-        <v>0.28789362862538997</v>
-      </c>
-      <c r="M58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -44943,20 +44421,11 @@
       <c r="I59">
         <v>0.11373955963804699</v>
       </c>
-      <c r="J59">
-        <v>0.14375223729282599</v>
-      </c>
-      <c r="K59">
-        <v>0.14904150781616299</v>
-      </c>
-      <c r="L59">
-        <v>6.1148883320508003E-2</v>
-      </c>
-      <c r="M59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -44984,20 +44453,11 @@
       <c r="I60">
         <v>0.12524431291945301</v>
       </c>
-      <c r="J60">
-        <v>0.120233141941177</v>
-      </c>
-      <c r="K60">
-        <v>0.160438450228581</v>
-      </c>
-      <c r="L60">
-        <v>0.17031643888116599</v>
-      </c>
-      <c r="M60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -45025,20 +44485,11 @@
       <c r="I61">
         <v>0.48364766023236599</v>
       </c>
-      <c r="J61">
-        <v>0.23698745092892301</v>
-      </c>
-      <c r="K61">
-        <v>0.63093912169672794</v>
-      </c>
-      <c r="L61">
-        <v>-0.38822685064985901</v>
-      </c>
-      <c r="M61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -45066,20 +44517,11 @@
       <c r="I62">
         <v>0.36819616273674999</v>
       </c>
-      <c r="J62">
-        <v>0.28300571858988099</v>
-      </c>
-      <c r="K62">
-        <v>0.49294691288783399</v>
-      </c>
-      <c r="L62">
-        <v>-5.6303776959872001E-2</v>
-      </c>
-      <c r="M62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -45107,20 +44549,11 @@
       <c r="I63">
         <v>0.35449271522515102</v>
       </c>
-      <c r="J63">
-        <v>0.21871662326888999</v>
-      </c>
-      <c r="K63">
-        <v>0.48377471901569202</v>
-      </c>
-      <c r="L63">
-        <v>-0.13661519906015199</v>
-      </c>
-      <c r="M63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -45148,20 +44581,11 @@
       <c r="I64">
         <v>0.33191740940702102</v>
       </c>
-      <c r="J64">
-        <v>0.13743942203635701</v>
-      </c>
-      <c r="K64">
-        <v>0.428816842479817</v>
-      </c>
-      <c r="L64">
-        <v>1.6467556205887999E-2</v>
-      </c>
-      <c r="M64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -45189,20 +44613,11 @@
       <c r="I65">
         <v>0.33243042010868101</v>
       </c>
-      <c r="J65">
-        <v>0.121599693271347</v>
-      </c>
-      <c r="K65">
-        <v>0.42778531257173702</v>
-      </c>
-      <c r="L65">
-        <v>-3.2123081002950998E-2</v>
-      </c>
-      <c r="M65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -45230,20 +44645,11 @@
       <c r="I66">
         <v>0.31992833203300902</v>
       </c>
-      <c r="J66">
-        <v>0.105029495648575</v>
-      </c>
-      <c r="K66">
-        <v>0.406905276729634</v>
-      </c>
-      <c r="L66">
-        <v>5.8982726123467E-2</v>
-      </c>
-      <c r="M66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -45271,20 +44677,11 @@
       <c r="I67">
         <v>0.31016865817645001</v>
       </c>
-      <c r="J67">
-        <v>0.114617008469063</v>
-      </c>
-      <c r="K67">
-        <v>0.39841185574705101</v>
-      </c>
-      <c r="L67">
-        <v>2.0573520365719999E-3</v>
-      </c>
-      <c r="M67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -45312,20 +44709,11 @@
       <c r="I68">
         <v>0.305326674803795</v>
       </c>
-      <c r="J68">
-        <v>6.6956602298675005E-2</v>
-      </c>
-      <c r="K68">
-        <v>0.38497162838295801</v>
-      </c>
-      <c r="L68">
-        <v>6.7492519000386997E-2</v>
-      </c>
-      <c r="M68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -45353,20 +44741,11 @@
       <c r="I69">
         <v>0.30532550942895498</v>
       </c>
-      <c r="J69">
-        <v>7.1224930913854997E-2</v>
-      </c>
-      <c r="K69">
-        <v>0.38396296171858002</v>
-      </c>
-      <c r="L69">
-        <v>1.4335506631377001E-2</v>
-      </c>
-      <c r="M69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -45394,20 +44773,11 @@
       <c r="I70">
         <v>0.30205321440319</v>
       </c>
-      <c r="J70">
-        <v>7.0048958913121004E-2</v>
-      </c>
-      <c r="K70">
-        <v>0.37696038762668399</v>
-      </c>
-      <c r="L70">
-        <v>6.9574953873796003E-2</v>
-      </c>
-      <c r="M70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -45435,20 +44805,11 @@
       <c r="I71">
         <v>0.30086916105929001</v>
       </c>
-      <c r="J71">
-        <v>7.1885852609734999E-2</v>
-      </c>
-      <c r="K71">
-        <v>0.38236331732881601</v>
-      </c>
-      <c r="L71">
-        <v>2.9179639066661E-2</v>
-      </c>
-      <c r="M71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -45476,20 +44837,11 @@
       <c r="I72">
         <v>0.29523894395113198</v>
       </c>
-      <c r="J72">
-        <v>9.2196740276461006E-2</v>
-      </c>
-      <c r="K72">
-        <v>0.373917222660823</v>
-      </c>
-      <c r="L72">
-        <v>4.8684593773887001E-2</v>
-      </c>
-      <c r="M72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -45517,20 +44869,11 @@
       <c r="I73">
         <v>0.28647895475967</v>
       </c>
-      <c r="J73">
-        <v>9.0929649062522003E-2</v>
-      </c>
-      <c r="K73">
-        <v>0.36561094209198902</v>
-      </c>
-      <c r="L73">
-        <v>1.8118859078443999E-2</v>
-      </c>
-      <c r="M73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -45558,20 +44901,11 @@
       <c r="I74">
         <v>0.27904809026010802</v>
       </c>
-      <c r="J74">
-        <v>0.10914946453785</v>
-      </c>
-      <c r="K74">
-        <v>0.356639484666053</v>
-      </c>
-      <c r="L74">
-        <v>5.4975844728038001E-2</v>
-      </c>
-      <c r="M74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -45599,20 +44933,11 @@
       <c r="I75">
         <v>0.277602096730865</v>
       </c>
-      <c r="J75">
-        <v>0.118736906995344</v>
-      </c>
-      <c r="K75">
-        <v>0.35846727525962802</v>
-      </c>
-      <c r="L75">
-        <v>2.2435271010955E-2</v>
-      </c>
-      <c r="M75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -45640,20 +44965,11 @@
       <c r="I76">
         <v>0.27419033400009102</v>
       </c>
-      <c r="J76">
-        <v>0.124624022623448</v>
-      </c>
-      <c r="K76">
-        <v>0.35444581376419099</v>
-      </c>
-      <c r="L76">
-        <v>5.0460927444269998E-2</v>
-      </c>
-      <c r="M76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -45681,17 +44997,1800 @@
       <c r="I77">
         <v>0.27448720349278499</v>
       </c>
-      <c r="J77">
-        <v>0.13018852579708301</v>
-      </c>
-      <c r="K77">
-        <v>0.35760795787956301</v>
-      </c>
-      <c r="L77">
-        <v>1.9709668592304001E-2</v>
-      </c>
-      <c r="M77" t="s">
-        <v>9</v>
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>-0.18199239339383499</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>-0.69936656940676001</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0.32646308292288301</v>
+      </c>
+      <c r="J78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>-0.259724133076705</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>-1.65981270122018</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0.33105696228014497</v>
+      </c>
+      <c r="J79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>-0.22306521571632401</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>-0.19305644230157201</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0.29281082383962098</v>
+      </c>
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.19138890796649599</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0.38089151219130202</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0.284130840604287</v>
+      </c>
+      <c r="J81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>-0.18142725980395299</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>-0.82019335777442004</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0.29773461055879702</v>
+      </c>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>-1.2298915771971E-2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>-1.73099005919315</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0.291396172678132</v>
+      </c>
+      <c r="J83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>-0.172598361028894</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>-0.86747826984754195</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0.29833925646687798</v>
+      </c>
+      <c r="J84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>-7.6882770933320004E-3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.102663275113268</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0.30061382228891698</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>-0.32291972734872398</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>-0.244676790638755</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0.29988019031628499</v>
+      </c>
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>-1.0183374225036E-2</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0.11672832765057201</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0.29460329230999899</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>-0.16258590299101899</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>-0.78834195412535502</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0.29131625463247701</v>
+      </c>
+      <c r="J88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>8.3371655623582994E-2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0.29867784704911998</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0.28048492788125201</v>
+      </c>
+      <c r="J89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>-0.15900632416852301</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>-0.21425632951010901</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0.27515100273104698</v>
+      </c>
+      <c r="J90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0.31843360680081401</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0.120823396585569</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0.27287692671463099</v>
+      </c>
+      <c r="J91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>-0.17531264203675501</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>-0.80116875212902405</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0.26902398934756599</v>
+      </c>
+      <c r="J92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>8.1822778116752995E-2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0.35735672385627099</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.26607000828230298</v>
+      </c>
+      <c r="J93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>-0.16867288915020101</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>-0.72575430961120502</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0.26316879089934297</v>
+      </c>
+      <c r="J94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0.36280518336476902</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0.10915730623947301</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0.26198881662948398</v>
+      </c>
+      <c r="J95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>8.8235593743377E-2</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0.66155323779020803</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>9.6494784043263004E-2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>-3.6106577637031997E-2</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1.0976372765092399</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0.101724109139866</v>
+      </c>
+      <c r="J97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0.13842706999232399</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0.83614650527753398</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0.100245457163936</v>
+      </c>
+      <c r="J98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0.227693580570314</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0.28646697631272999</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0.103008532381954</v>
+      </c>
+      <c r="J99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>-0.120707086443819</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.174644665495435</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0.16572156518071801</v>
+      </c>
+      <c r="J100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>6.1921025074056002E-2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0.16829215240430301</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0.134680360191057</v>
+      </c>
+      <c r="J101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>-0.132930518746156</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>-8.3024743333166007E-2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0.12032748649206799</v>
+      </c>
+      <c r="J102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0.14131437966374899</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>9.4987304785339993E-3</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0.19884824410923199</v>
+      </c>
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>2.8802577237266001E-2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>-1.14656192949064</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0.14788200014473599</v>
+      </c>
+      <c r="J104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>-0.143866565044764</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>-0.50838080534957997</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0.14897988313521199</v>
+      </c>
+      <c r="J105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0.18696556633110401</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0.17885872630251401</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0.13528725509128001</v>
+      </c>
+      <c r="J106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>-0.116255241075213</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>-0.42739807421075798</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0.133990936351704</v>
+      </c>
+      <c r="J107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0.17939088410592299</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0.195178068748913</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0.125652059777178</v>
+      </c>
+      <c r="J108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>-0.130894321743593</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>-0.41922608514016602</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0.12605412824711801</v>
+      </c>
+      <c r="J109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0.14457855475762399</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0.24511994484310401</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0.12616503710459101</v>
+      </c>
+      <c r="J110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>8.2200666807302994E-2</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>-0.72152091842476396</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0.121780744281273</v>
+      </c>
+      <c r="J111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>6.4029277863118003E-2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0.21608429737919599</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0.117141733075773</v>
+      </c>
+      <c r="J112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>-0.13136330593155601</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>-0.118836509201294</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0.115756190780615</v>
+      </c>
+      <c r="J113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0.17484361723689101</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>-2.2018625207519298</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0.114960364584062</v>
+      </c>
+      <c r="J114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>-0.143420641735376</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>-0.171026163932046</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0.112917318418656</v>
+      </c>
+      <c r="J115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>-0.14088329192844801</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0.103305206128295</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0.11120871420832</v>
+      </c>
+      <c r="J116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>-0.117850633907816</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0.55878320692572703</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0.108845296167948</v>
+      </c>
+      <c r="J117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>-0.17237365433322699</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0.14772893511344001</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0.109376735606802</v>
+      </c>
+      <c r="J118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>-0.133293478029023</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0.73131700787226195</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0.10856778895875099</v>
+      </c>
+      <c r="J119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>-8.6535769430209995E-3</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>9.7372417247542004E-2</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0.108632932482028</v>
+      </c>
+      <c r="J120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>-0.14491722133022</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>-0.415404729942569</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0.145161027181959</v>
+      </c>
+      <c r="J121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0.145291331093653</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0.18427243295114801</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0.13622570739412401</v>
+      </c>
+      <c r="J122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>-0.146147997439288</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>-0.47797050678621</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0.12861284574825799</v>
+      </c>
+      <c r="J123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>-0.17422916587621101</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0.20519405331030199</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0.20820549769188401</v>
+      </c>
+      <c r="J124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>4.8971606005817001E-2</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>6.2496960057099003E-2</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0.151442379013113</v>
+      </c>
+      <c r="J125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>5.1101330625525999E-2</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>-8.9304306237803999E-2</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0.13162715202980499</v>
+      </c>
+      <c r="J126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>7.0745587444742006E-2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>6.3238930920721997E-2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0.119007142688152</v>
+      </c>
+      <c r="J127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>-0.13981494028920599</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>-0.46311067168792203</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0.123868239784292</v>
+      </c>
+      <c r="J128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>9.5305666422953003E-2</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0.13847571924068999</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0.120146283966063</v>
+      </c>
+      <c r="J129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>-0.146182080792713</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>-8.0125441150231999E-2</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0.120042934769092</v>
+      </c>
+      <c r="J130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>2.9842630960537998E-2</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>-0.39932340497979402</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0.11480263586496101</v>
+      </c>
+      <c r="J131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>-0.109602606601842</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>-0.113987594416718</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0.11103373169305999</v>
+      </c>
+      <c r="J132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0.107333910605504</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0.47347161956102801</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0.107820293203714</v>
+      </c>
+      <c r="J133" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B341B2B0-5D3E-4F2C-9152-86A9623FDE7C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9BC454B1-EECB-462D-884C-DCAFA8018052}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="25">
   <si>
     <t>first_peak</t>
   </si>
@@ -42529,15 +42529,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42563,77 +42563,68 @@
         <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.17961008691793301</v>
+        <v>-3.8875161925448001E-2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>-0.22444477383981501</v>
+        <v>0.220910514605066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.30080979772323602</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-0.35861668636614102</v>
+        <v>-6.4062993177077004E-2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.74762574291583805</v>
+        <v>6.5431375654209006E-2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0.35497164679200599</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -42641,31 +42632,28 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-9.9722477300889997E-3</v>
+        <v>7.3344682703136002E-2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.157315771439798</v>
+        <v>-3.1954747632812003E-2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.30723520174042601</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -42673,7 +42661,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.30049732235495302</v>
+        <v>-0.17608911549102901</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -42682,30 +42670,27 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.78481839453643398</v>
+        <v>-0.25090616841270902</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0.32624635266785301</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-2.2481705954554999E-2</v>
+        <v>-0.181346809205852</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -42714,71 +42699,65 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.15736982006175801</v>
+        <v>-0.19693113798753301</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0.31191201982879002</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>-0.23091984147660399</v>
+        <v>0.24512997257725799</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>-0.75550781746829698</v>
+        <v>0.23014061772422001</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.32219887402674102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.401927196059787</v>
+        <v>-0.12668433143937299</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.14962303804549601</v>
+        <v>-7.2782538009650002E-3</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -42786,86 +42765,77 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0.31094292652739502</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-0.19543133656881601</v>
+        <v>0.24985865470149199</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.23482893444206401</v>
+        <v>-1.55161282405189</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0.30791479122285897</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-0.30441172624907398</v>
+        <v>0.13300402995239299</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22127413462884399</v>
+        <v>-0.42214758664856999</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0.30066803501024902</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.251789649096548</v>
+        <v>5.5487975961770004E-3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -42874,62 +42844,56 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.68573215357512396</v>
+        <v>-0.16068653976835101</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.30354513138497502</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.39766098941782801</v>
+        <v>2.0110257846073998E-2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.118778017057615</v>
+        <v>-1.0408044377007999E-2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0.29692758351569298</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.233180526094657</v>
+        <v>1.1866308500604E-2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -42938,54 +42902,48 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.77561175607176303</v>
+        <v>-0.16058383215046099</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.300642028806057</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-4.5938647990929997E-3</v>
+        <v>-0.118693111448422</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.133431620803516</v>
+        <v>-0.116833398535777</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.29812168224459701</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -42993,39 +42951,36 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.218004449415866</v>
+        <v>-0.13004727673505401</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.66884651221967495</v>
+        <v>-0.113198028969581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.29557494412627699</v>
-      </c>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.1026967129625E-2</v>
+        <v>0.121633707127622</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -43034,22 +42989,19 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.13289585826366401</v>
+        <v>0.20629722793668001</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0.28703701889827998</v>
-      </c>
-      <c r="J16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -43057,39 +43009,36 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.29137858995280902</v>
+        <v>-0.22074924929336601</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.72505776603035299</v>
+        <v>-6.9189891897264003E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0.278455759329435</v>
-      </c>
-      <c r="J17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.38547382999882301</v>
+        <v>0.28380813713410402</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -43098,182 +43047,164 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.101077796575131</v>
+        <v>1.0768091631941E-2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0.27767390944208298</v>
-      </c>
-      <c r="J18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>-0.24185836139733699</v>
+        <v>0.18171840671703501</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.85715442516332396</v>
+        <v>9.8124235311776997E-2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.28337926257683399</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.32302530077242197</v>
+        <v>9.1825536156102006E-2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>-0.71125635765697903</v>
+        <v>9.0022009846411996E-2</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.32660649403275399</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.313061013668818</v>
+        <v>-0.20993465441058201</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.23237309621049099</v>
+        <v>-9.1786048057163006E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.28374335572966097</v>
-      </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>-0.17734098381944999</v>
+        <v>8.4440748396796994E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>-0.71744051299182299</v>
+        <v>7.5956989600520997E-2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0.27639072951014598</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.28621412456317902</v>
+        <v>0.142503277738254</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.19573218393483499</v>
+        <v>-7.7883704349590004E-3</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0.254714724095842</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -43281,16 +43212,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.31796775199940303</v>
+        <v>-0.140576772998454</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>-0.83749044915417103</v>
+        <v>6.0703015159999998E-2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -43298,54 +43229,48 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0.26503036225466797</v>
-      </c>
-      <c r="J24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3.543024677083E-3</v>
+        <v>0.86888719284098503</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.17598592500263699</v>
+        <v>0.18543314483307499</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0.25731871612829799</v>
-      </c>
-      <c r="J25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-0.27265410961631498</v>
+        <v>0.16269737814101501</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -43354,22 +43279,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.81647670360670599</v>
+        <v>-0.28977691411775403</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0.25718612214139702</v>
-      </c>
-      <c r="J26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -43377,39 +43299,36 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2.6755165391659998E-3</v>
+        <v>0.205192416799684</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.198255836396074</v>
+        <v>-0.53759364733703097</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0.25685932490847102</v>
-      </c>
-      <c r="J27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>-0.221989884887</v>
+        <v>0.15535750227466</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -43418,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>-0.242943971616045</v>
+        <v>1.8948501250820999E-2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -43426,54 +43345,48 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0.25970053326575698</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.165037699958069</v>
+        <v>-0.19772524953996501</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.20744017186190999</v>
+        <v>0.113551029984298</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0.25599449791114298</v>
-      </c>
-      <c r="J29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>-0.31382335361477598</v>
+        <v>0.68229626510730801</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -43482,62 +43395,56 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.77633552070589595</v>
+        <v>-0.54230077600077697</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0.26025738082684302</v>
-      </c>
-      <c r="J30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.37025524374177199</v>
+        <v>-0.18984940261094699</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.13484492024964401</v>
+        <v>-0.19249137997421401</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0.25977243249235799</v>
-      </c>
-      <c r="J31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-0.24398930753074999</v>
+        <v>0.10287808208421199</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -43546,39 +43453,36 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>-0.24027575724334399</v>
+        <v>0.190227387310481</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0.26604144652307299</v>
-      </c>
-      <c r="J32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.40394214235110598</v>
+        <v>-0.24356309637710499</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.158808092884029</v>
+        <v>-0.602645126514048</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -43586,31 +43490,28 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0.26673116844922801</v>
-      </c>
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>-0.219674248772359</v>
+        <v>0.40763850593886702</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.270534248025809</v>
+        <v>-0.38381877359983202</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -43618,46 +43519,40 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0.27047637718623302</v>
-      </c>
-      <c r="J34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.28135104973533298</v>
+        <v>-0.29117369946692501</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.30302817106063801</v>
+        <v>-0.148765420272189</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>0.26811656710135001</v>
-      </c>
-      <c r="J35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -43665,16 +43560,16 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-0.37001418335202602</v>
+        <v>-0.25508928401384501</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>-0.80588194611541297</v>
+        <v>8.5767304603241001E-2</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -43682,46 +43577,40 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0.270398624280346</v>
-      </c>
-      <c r="J36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.28782173153181301</v>
+        <v>-0.150731724559763</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.326325796370391</v>
+        <v>-0.18219336326277899</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0.26613675899356298</v>
-      </c>
-      <c r="J37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -43729,16 +43618,16 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-0.28014425958998501</v>
+        <v>-0.28853630294871602</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.186686597485648</v>
+        <v>-0.18112179490879099</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -43746,46 +43635,40 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0.35421119597752698</v>
-      </c>
-      <c r="J38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.42228742906646199</v>
+        <v>-0.24910052519921799</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.20709902780618</v>
+        <v>-1.5431166091961901</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0.31725160692633497</v>
-      </c>
-      <c r="J39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -43793,16 +43676,16 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>-0.19123219261982699</v>
+        <v>-0.269079504516468</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.19340485215384501</v>
+        <v>-0.61129073201107598</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -43810,22 +43693,19 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0.311105109758475</v>
-      </c>
-      <c r="J40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.12991042248430601</v>
+        <v>-1.6779910411659001E-2</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -43834,22 +43714,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.94505784292223904</v>
+        <v>-0.39805091620184702</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0.27826474705230703</v>
-      </c>
-      <c r="J41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -43857,39 +43734,36 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.19419257766782899</v>
+        <v>-0.36304337644908202</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>-0.28079611332545101</v>
+        <v>-0.13669894706296401</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0.277023231003244</v>
-      </c>
-      <c r="J42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.13490848996386401</v>
+        <v>0.36064735360855299</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -43898,22 +43772,19 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.31112142935356502</v>
+        <v>-0.293807517732739</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0.26891310618777797</v>
-      </c>
-      <c r="J43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -43921,48 +43792,45 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.18449870619332001</v>
+        <v>-0.234046818270119</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.75988596147770004</v>
+        <v>-0.117656368748717</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0.258668502182621</v>
-      </c>
-      <c r="J44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.362297806862312</v>
+        <v>0.23556018785309599</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>-1.5472212760408099</v>
+        <v>-9.9626906402993001E-2</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -43970,14 +43838,11 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0.25591264358820098</v>
-      </c>
-      <c r="J45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -43985,31 +43850,28 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-0.214285313840342</v>
+        <v>-0.23201893883387101</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.76243147492395202</v>
+        <v>-0.12460719544838</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0.25890861244788899</v>
-      </c>
-      <c r="J46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -44017,112 +43879,103 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>-0.180349008566419</v>
+        <v>-0.184059041962922</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>-0.77049753320190995</v>
+        <v>4.1673866594978001E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0.25513486406846803</v>
-      </c>
-      <c r="J47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0.31003417498951802</v>
+        <v>0.20967978452438399</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.219775864815587</v>
+        <v>0.188604790877173</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0.25023268966373702</v>
-      </c>
-      <c r="J48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>-0.37433216674394398</v>
+        <v>0.20421712996166699</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>-0.95492233481238897</v>
+        <v>8.2311752780547004E-2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>0.26344884830099502</v>
-      </c>
-      <c r="J49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-2.7011057033119999E-3</v>
+        <v>-0.244779518321424</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.14703864856452101</v>
+        <v>-0.55078111995761403</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -44130,31 +43983,28 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0.26204655977073399</v>
-      </c>
-      <c r="J50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>-0.208984126771075</v>
+        <v>0.15670238085159199</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>-0.87554947402950001</v>
+        <v>-3.6114189626729E-2</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -44162,46 +44012,40 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0.267622497920527</v>
-      </c>
-      <c r="J51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.354412200284002</v>
+        <v>-0.150151766789687</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.224978742289622</v>
+        <v>-0.115840577686232</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0.26564834018474598</v>
-      </c>
-      <c r="J52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -44209,7 +44053,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-0.23176181892981301</v>
+        <v>-0.31346985679962303</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -44218,62 +44062,56 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.82451104713145296</v>
+        <v>-0.479685607733839</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0.26835354581718601</v>
-      </c>
-      <c r="J53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>7.3325810878669996E-3</v>
+        <v>-0.20385966003610601</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.246821069055632</v>
+        <v>-5.8074618578786E-2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0.26859076242579899</v>
-      </c>
-      <c r="J54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-0.249691451397072</v>
+        <v>0.205929591263109</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -44282,7 +44120,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>-0.253767878491367</v>
+        <v>2.6406037955164999E-2</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -44290,54 +44128,48 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0.45025839710764098</v>
-      </c>
-      <c r="J55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>-9.2471346860200005E-4</v>
+        <v>-0.162946628156174</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.21976515512744901</v>
+        <v>0.206424547853337</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0.37895422412228003</v>
-      </c>
-      <c r="J56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>-0.19042586432973599</v>
+        <v>7.5271467168562006E-2</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -44346,118 +44178,106 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>-0.25720935341865397</v>
+        <v>0.30377916739141197</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0.38226854987791697</v>
-      </c>
-      <c r="J57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>-7.4656273037180003E-3</v>
+        <v>-0.243638646138465</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>-1.2715783350474999E-2</v>
+        <v>-0.57585478565266301</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>9.9441013090804997E-2</v>
-      </c>
-      <c r="J58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-0.26011147093894799</v>
+        <v>9.7122913518376999E-2</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>-0.82300331443618602</v>
+        <v>0.223315286957047</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0.11373955963804699</v>
-      </c>
-      <c r="J59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>3.5128905576049998E-3</v>
+        <v>-0.208219802790852</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>7.9547263855553996E-2</v>
+        <v>-0.10597033030021601</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0.12524431291945301</v>
-      </c>
-      <c r="J60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -44465,39 +44285,36 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>-0.230119975366854</v>
+        <v>-0.27169902168804</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>-0.29993677242301597</v>
+        <v>9.7634969577435005E-2</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0.48364766023236599</v>
-      </c>
-      <c r="J61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-8.7849669519799996E-4</v>
+        <v>8.9849318720565993E-2</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -44506,39 +44323,36 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.21383921035150699</v>
+        <v>6.6768498630303E-2</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0.36819616273674999</v>
-      </c>
-      <c r="J62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>-0.18480559518807901</v>
+        <v>0.119001415981197</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>-0.27192107084678402</v>
+        <v>0.424566700255256</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -44546,31 +44360,28 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0.35449271522515102</v>
-      </c>
-      <c r="J63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>-5.2391295947639997E-3</v>
+        <v>-0.16845590486294901</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.15694755637224</v>
+        <v>1.0644944351633E-2</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -44578,14 +44389,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0.33191740940702102</v>
-      </c>
-      <c r="J64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -44593,7 +44401,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>-0.23909420728869801</v>
+        <v>-0.19536190490597699</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -44602,54 +44410,48 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>-0.238766089230915</v>
+        <v>-1.1534461266813E-2</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0.33243042010868101</v>
-      </c>
-      <c r="J65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-1.6152664199044001E-2</v>
+        <v>1.2114572464742001E-2</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.16072360957579701</v>
+        <v>-0.13179639359761</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0.31992833203300902</v>
-      </c>
-      <c r="J66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -44657,16 +44459,16 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>-0.29240072332749001</v>
+        <v>-0.13404977543878499</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0.23431987699307699</v>
+        <v>7.1045853483810003E-3</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -44674,46 +44476,40 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0.31016865817645001</v>
-      </c>
-      <c r="J67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.43473067686844502</v>
+        <v>-3.2008203060529998E-3</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>6.3392340905295996E-2</v>
+        <v>-7.7908976728620002E-3</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0.305326674803795</v>
-      </c>
-      <c r="J68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -44721,48 +44517,45 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-0.32523041964957899</v>
+        <v>-0.16315323764219999</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>-0.19790387832954101</v>
+        <v>0.13505733082723501</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0.30532550942895498</v>
-      </c>
-      <c r="J69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>8.6586184933039999E-3</v>
+        <v>-1.6160071816472998E-2</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.109037645593087</v>
+        <v>-2.2059160019618999E-2</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -44770,14 +44563,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0.30205321440319</v>
-      </c>
-      <c r="J70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -44785,16 +44575,16 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>-0.206989148604456</v>
+        <v>-0.14396111532644101</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>-0.29485253954148899</v>
+        <v>0.10175670003069801</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -44802,14 +44592,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0.30086916105929001</v>
-      </c>
-      <c r="J71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -44817,31 +44604,28 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>-0.19735439713903299</v>
+        <v>-0.62045441627165898</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.23164399539137101</v>
+        <v>-0.18824256090369601</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0.29523894395113198</v>
-      </c>
-      <c r="J72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -44849,7 +44633,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>-0.22217398820197501</v>
+        <v>-0.32786209774786501</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -44858,54 +44642,48 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-0.274535033568995</v>
+        <v>2.7481269787186999E-2</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0.28647895475967</v>
-      </c>
-      <c r="J73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.24151181180342601</v>
+        <v>-1.4384578159249E-2</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.27713635452072399</v>
+        <v>7.6353833506799997E-3</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0.27904809026010802</v>
-      </c>
-      <c r="J74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -44913,16 +44691,16 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>-0.22564130713966499</v>
+        <v>-0.29112683647721999</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>-0.81314440233484797</v>
+        <v>9.5871145538199993E-3</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -44930,46 +44708,40 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0.277602096730865</v>
-      </c>
-      <c r="J75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.28246278808249098</v>
+        <v>-0.20215083009135701</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.27680412807958499</v>
+        <v>-3.665693457456E-3</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>0.27419033400009102</v>
-      </c>
-      <c r="J76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -44977,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>-0.20780444793959299</v>
+        <v>-0.17504270489176199</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -44986,7 +44758,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.79739662548118895</v>
+        <v>-8.8540205878963996E-2</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -44994,46 +44766,40 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>0.27448720349278499</v>
-      </c>
-      <c r="J77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-0.18199239339383499</v>
+        <v>-1.3827270973148001E-2</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>-0.69936656940676001</v>
+        <v>0.15395795512156801</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0.32646308292288301</v>
-      </c>
-      <c r="J78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -45041,103 +44807,94 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>-0.259724133076705</v>
+        <v>-0.28960503053721798</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>-1.65981270122018</v>
+        <v>-2.2064303180318001E-2</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0.33105696228014497</v>
-      </c>
-      <c r="J79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>-0.22306521571632401</v>
+        <v>-7.0748186511801994E-2</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.19305644230157201</v>
+        <v>-0.129621047712693</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0.29281082383962098</v>
-      </c>
-      <c r="J80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0.19138890796649599</v>
+        <v>-0.23526190201906</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.38089151219130202</v>
+        <v>-8.5535994862075998E-2</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0.284130840604287</v>
-      </c>
-      <c r="J81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>-0.18142725980395299</v>
+        <v>0.133373181630733</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -45146,103 +44903,94 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-0.82019335777442004</v>
+        <v>-0.13840149463177201</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0.29773461055879702</v>
-      </c>
-      <c r="J82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>-1.2298915771971E-2</v>
+        <v>-0.20678340045528201</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>-1.73099005919315</v>
+        <v>-1.1422628254273001E-2</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0.291396172678132</v>
-      </c>
-      <c r="J83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>-0.172598361028894</v>
+        <v>0.154603760340599</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.86747826984754195</v>
+        <v>-1.6906588683804E-2</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>0.29833925646687798</v>
-      </c>
-      <c r="J84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>-7.6882770933320004E-3</v>
+        <v>-0.34926442451772199</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0.102663275113268</v>
+        <v>0.178889198876621</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -45250,54 +44998,48 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0.30061382228891698</v>
-      </c>
-      <c r="J85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>-0.32291972734872398</v>
+        <v>0.20999969894231699</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.244676790638755</v>
+        <v>-1.9219875018188001E-2</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0.29988019031628499</v>
-      </c>
-      <c r="J86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>-1.0183374225036E-2</v>
+        <v>-0.14418954349927399</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -45306,54 +45048,48 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0.11672832765057201</v>
+        <v>3.7269343939503999E-2</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0.29460329230999899</v>
-      </c>
-      <c r="J87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>-0.16258590299101899</v>
+        <v>5.4960128872550001E-3</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>-0.78834195412535502</v>
+        <v>0.17807130839600099</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0.29131625463247701</v>
-      </c>
-      <c r="J88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -45361,7 +45097,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>8.3371655623582994E-2</v>
+        <v>-1.1351658254565E-2</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -45370,62 +45106,56 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0.29867784704911998</v>
+        <v>3.1646725527590999E-2</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0.28048492788125201</v>
-      </c>
-      <c r="J89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>-0.15900632416852301</v>
+        <v>-0.364167363623073</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.21425632951010901</v>
+        <v>-1.5367783746879001E-2</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>0.27515100273104698</v>
-      </c>
-      <c r="J90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.31843360680081401</v>
+        <v>-5.3849175192234998E-2</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -45434,7 +45164,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>0.120823396585569</v>
+        <v>-8.9262955081309998E-3</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -45442,63 +45172,57 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0.27287692671463099</v>
-      </c>
-      <c r="J91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>-0.17531264203675501</v>
+        <v>0.17565136689923599</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>-0.80116875212902405</v>
+        <v>-4.9300997786497998E-2</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0.26902398934756599</v>
-      </c>
-      <c r="J92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>8.1822778116752995E-2</v>
+        <v>-0.141030565241131</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>0.35735672385627099</v>
+        <v>9.2168507222411003E-2</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -45506,46 +45230,40 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0.26607000828230298</v>
-      </c>
-      <c r="J93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>-0.16867288915020101</v>
+        <v>-4.5173225803292999E-2</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>-0.72575430961120502</v>
+        <v>-7.8594866488599995E-4</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>0.26316879089934297</v>
-      </c>
-      <c r="J94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -45553,16 +45271,16 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0.36280518336476902</v>
+        <v>0.86716578249478804</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0.10915730623947301</v>
+        <v>0.12633696576212899</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -45570,31 +45288,28 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>0.26198881662948398</v>
-      </c>
-      <c r="J95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>8.8235593743377E-2</v>
+        <v>-0.475775821238342</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.66155323779020803</v>
+        <v>-5.5275296961013999E-2</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -45602,127 +45317,115 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>9.6494784043263004E-2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-3.6106577637031997E-2</v>
+        <v>-0.181684383897321</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.0976372765092399</v>
+        <v>-0.13038029538190299</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0.101724109139866</v>
-      </c>
-      <c r="J97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.13842706999232399</v>
+        <v>7.8960974971108003E-2</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.83614650527753398</v>
+        <v>-0.145881218140129</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0.100245457163936</v>
-      </c>
-      <c r="J98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0.227693580570314</v>
+        <v>0.109635613051058</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.28646697631272999</v>
+        <v>4.1985333501338998E-2</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0.103008532381954</v>
-      </c>
-      <c r="J99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>-0.120707086443819</v>
+        <v>-3.1380801259459998E-3</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0.174644665495435</v>
+        <v>0.19405681849246201</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -45730,54 +45433,48 @@
       <c r="H100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>0.16572156518071801</v>
-      </c>
-      <c r="J100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>6.1921025074056002E-2</v>
+        <v>-0.20768019976360899</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0.16829215240430301</v>
+        <v>0.11115733763350399</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>0.134680360191057</v>
-      </c>
-      <c r="J101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>-0.132930518746156</v>
+        <v>2.1646751328834E-2</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -45786,39 +45483,36 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>-8.3024743333166007E-2</v>
+        <v>0.15672185721788601</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0.12032748649206799</v>
-      </c>
-      <c r="J102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>0.14131437966374899</v>
+        <v>8.8176936693314001E-2</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>9.4987304785339993E-3</v>
+        <v>-0.44846431056515002</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -45826,14 +45520,11 @@
       <c r="H103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>0.19884824410923199</v>
-      </c>
-      <c r="J103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -45841,31 +45532,28 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>2.8802577237266001E-2</v>
+        <v>-2.1115010004940999E-2</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>-1.14656192949064</v>
+        <v>0.11877744323401999</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>0.14788200014473599</v>
-      </c>
-      <c r="J104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -45873,39 +45561,36 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-0.143866565044764</v>
+        <v>-0.196909587414341</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>-0.50838080534957997</v>
+        <v>0.25168103873083503</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0.14897988313521199</v>
-      </c>
-      <c r="J105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>0.18696556633110401</v>
+        <v>6.1114860211850001E-3</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -45914,22 +45599,19 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>0.17885872630251401</v>
+        <v>0.140951291407652</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>0.13528725509128001</v>
-      </c>
-      <c r="J106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -45937,39 +45619,36 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>-0.116255241075213</v>
+        <v>-0.143387721790706</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>-0.42739807421075798</v>
+        <v>-0.149009877149332</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0.133990936351704</v>
-      </c>
-      <c r="J107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0.17939088410592299</v>
+        <v>3.7483498692543998E-2</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -45978,7 +45657,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>0.195178068748913</v>
+        <v>0.27794637619575202</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -45986,110 +45665,98 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108">
-        <v>0.125652059777178</v>
-      </c>
-      <c r="J108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-0.130894321743593</v>
+        <v>-4.9434911112671003E-2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>-0.41922608514016602</v>
+        <v>0.143196896681515</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0.12605412824711801</v>
-      </c>
-      <c r="J109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>0.14457855475762399</v>
+        <v>0.147441698780436</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.24511994484310401</v>
+        <v>-0.124070920960012</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0.12616503710459101</v>
-      </c>
-      <c r="J110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>8.2200666807302994E-2</v>
+        <v>-0.22943392728856399</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>-0.72152091842476396</v>
+        <v>0.13809517122578499</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>0.121780744281273</v>
-      </c>
-      <c r="J111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -46097,7 +45764,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>6.4029277863118003E-2</v>
+        <v>1.7230146773605001E-2</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -46106,22 +45773,19 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>0.21608429737919599</v>
+        <v>0.30967476970906099</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0.117141733075773</v>
-      </c>
-      <c r="J112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -46129,16 +45793,16 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>-0.13136330593155601</v>
+        <v>-0.19762520668518099</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>-0.118836509201294</v>
+        <v>0.101110984221598</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -46146,14 +45810,11 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>0.115756190780615</v>
-      </c>
-      <c r="J113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -46161,31 +45822,28 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0.17484361723689101</v>
+        <v>-1.4091138729156001E-2</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>-2.2018625207519298</v>
+        <v>0.313008481045355</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0.114960364584062</v>
-      </c>
-      <c r="J114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -46193,39 +45851,36 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>-0.143420641735376</v>
+        <v>-0.19157775918272801</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>-0.171026163932046</v>
+        <v>0.16673626727662899</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0.112917318418656</v>
-      </c>
-      <c r="J115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-0.14088329192844801</v>
+        <v>-4.2795823137759002E-2</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -46234,7 +45889,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0.103305206128295</v>
+        <v>0.237481607644942</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -46242,14 +45897,11 @@
       <c r="H116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>0.11120871420832</v>
-      </c>
-      <c r="J116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -46257,7 +45909,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>-0.117850633907816</v>
+        <v>-0.19544263310872401</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -46266,30 +45918,27 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.55878320692572703</v>
+        <v>0.15333722437097999</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>0.108845296167948</v>
-      </c>
-      <c r="J117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>-0.17237365433322699</v>
+        <v>-3.5161070300630003E-2</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -46298,22 +45947,19 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.14772893511344001</v>
+        <v>0.28649661457622</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0.109376735606802</v>
-      </c>
-      <c r="J118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -46321,7 +45967,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>-0.133293478029023</v>
+        <v>-0.26206166889830501</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -46330,39 +45976,36 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0.73131700787226195</v>
+        <v>0.141312807673285</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0.10856778895875099</v>
-      </c>
-      <c r="J119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>-8.6535769430209995E-3</v>
+        <v>0.15266361201084799</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>9.7372417247542004E-2</v>
+        <v>-0.14178016864815601</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -46370,14 +46013,11 @@
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>0.108632932482028</v>
-      </c>
-      <c r="J120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -46385,31 +46025,28 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>-0.14491722133022</v>
+        <v>-0.16376750632853601</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>-0.415404729942569</v>
+        <v>-0.12979259881247501</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>0.145161027181959</v>
-      </c>
-      <c r="J121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -46417,7 +46054,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>0.145291331093653</v>
+        <v>3.964308724888E-2</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -46426,22 +46063,19 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0.18427243295114801</v>
+        <v>1.8392849802474999E-2</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0.13622570739412401</v>
-      </c>
-      <c r="J122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -46449,71 +46083,65 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>-0.146147997439288</v>
+        <v>-0.174719526608028</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>-0.47797050678621</v>
+        <v>1.6754038689701E-2</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>0.12861284574825799</v>
-      </c>
-      <c r="J123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>-0.17422916587621101</v>
+        <v>6.9699170533101998E-2</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>0.20519405331030199</v>
+        <v>0.13402375593930399</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0.20820549769188401</v>
-      </c>
-      <c r="J124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>4.8971606005817001E-2</v>
+        <v>-0.13690208206790899</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -46522,54 +46150,48 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>6.2496960057099003E-2</v>
+        <v>-0.120690409064565</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0.151442379013113</v>
-      </c>
-      <c r="J125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>5.1101330625525999E-2</v>
+        <v>-0.42533330909081601</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126">
-        <v>-8.9304306237803999E-2</v>
+        <v>0.63882606965283395</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0.13162715202980499</v>
-      </c>
-      <c r="J126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -46577,7 +46199,7 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>7.0745587444742006E-2</v>
+        <v>3.7604850908614998E-2</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -46586,7 +46208,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>6.3238930920721997E-2</v>
+        <v>-6.4957875546775998E-2</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -46594,22 +46216,19 @@
       <c r="H127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>0.119007142688152</v>
-      </c>
-      <c r="J127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>-0.13981494028920599</v>
+        <v>5.0095782996209997E-3</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -46618,39 +46237,36 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>-0.46311067168792203</v>
+        <v>-0.176630349491433</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>0.123868239784292</v>
-      </c>
-      <c r="J128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>9.5305666422953003E-2</v>
+        <v>-0.12674927267206601</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>0.13847571924068999</v>
+        <v>0.105856422085327</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -46658,31 +46274,28 @@
       <c r="H129">
         <v>1</v>
       </c>
-      <c r="I129">
-        <v>0.120146283966063</v>
-      </c>
-      <c r="J129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>-0.146182080792713</v>
+        <v>-0.15138710846622599</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>-8.0125441150231999E-2</v>
+        <v>-0.15622402729173099</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -46690,107 +46303,37 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>0.120042934769092</v>
-      </c>
-      <c r="J130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>2.9842630960537998E-2</v>
+        <v>-0.12074033460738599</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>-0.39932340497979402</v>
+        <v>-8.7469192835413004E-2</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0.11480263586496101</v>
-      </c>
-      <c r="J131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>-0.109602606601842</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>-0.113987594416718</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0.11103373169305999</v>
-      </c>
-      <c r="J132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>0.107333910605504</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>0.47347161956102801</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0.107820293203714</v>
-      </c>
-      <c r="J133" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9BC454B1-EECB-462D-884C-DCAFA8018052}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC3431A2-E8AE-4FC4-991E-BF2D88A2C91D}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
     <sheet name="increased_gain" sheetId="16" r:id="rId8"/>
     <sheet name="schema_2" sheetId="17" r:id="rId9"/>
+    <sheet name="schema_2_continuous" sheetId="18" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">decision_data!$A$1:$H$151</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="27">
   <si>
     <t>first_peak</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>second_peak_2</t>
+  </si>
+  <si>
+    <t>gradient_1</t>
+  </si>
+  <si>
+    <t>gradient_2</t>
   </si>
 </sst>
 </file>
@@ -6552,6 +6559,3530 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D9306-7CC2-4811-A201-EA3B40165022}">
+  <dimension ref="A1:I121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.952490246</v>
+      </c>
+      <c r="B2">
+        <v>2.1005278860000001</v>
+      </c>
+      <c r="C2">
+        <v>2.1103205570000001</v>
+      </c>
+      <c r="D2">
+        <v>1.424833601</v>
+      </c>
+      <c r="E2">
+        <v>3.0161426059999998</v>
+      </c>
+      <c r="F2">
+        <v>3.740800245</v>
+      </c>
+      <c r="G2">
+        <v>-0.134442019</v>
+      </c>
+      <c r="H2">
+        <v>-0.15133518100000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.836125775</v>
+      </c>
+      <c r="B3">
+        <v>2.090735215</v>
+      </c>
+      <c r="C3">
+        <v>3.0700022950000001</v>
+      </c>
+      <c r="D3">
+        <v>3.4421237850000002</v>
+      </c>
+      <c r="E3">
+        <v>1.8116440979999999</v>
+      </c>
+      <c r="F3">
+        <v>3.021038941</v>
+      </c>
+      <c r="G3">
+        <v>6.015947E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.11171848299999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="B4">
+        <v>2.1005278860000001</v>
+      </c>
+      <c r="C4">
+        <v>3.5449468290000001</v>
+      </c>
+      <c r="D4">
+        <v>1.738199067</v>
+      </c>
+      <c r="E4">
+        <v>2.9475939100000002</v>
+      </c>
+      <c r="F4">
+        <v>1.6206870170000001</v>
+      </c>
+      <c r="G4">
+        <v>-0.118709228</v>
+      </c>
+      <c r="H4">
+        <v>-0.42912442299999998</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.875296458</v>
+      </c>
+      <c r="B5">
+        <v>1.9732231659999999</v>
+      </c>
+      <c r="C5">
+        <v>3.0895876370000002</v>
+      </c>
+      <c r="D5">
+        <v>3.324611736</v>
+      </c>
+      <c r="E5">
+        <v>1.71371739</v>
+      </c>
+      <c r="F5">
+        <v>3.0895876370000002</v>
+      </c>
+      <c r="G5">
+        <v>2.2964293E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.9158160999999996E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.9867645930000002</v>
+      </c>
+      <c r="B6">
+        <v>2.051564532</v>
+      </c>
+      <c r="C6">
+        <v>2.1299058990000002</v>
+      </c>
+      <c r="D6">
+        <v>1.576619998</v>
+      </c>
+      <c r="E6">
+        <v>2.9867645930000002</v>
+      </c>
+      <c r="F6">
+        <v>3.6820442199999999</v>
+      </c>
+      <c r="G6">
+        <v>-0.171887125</v>
+      </c>
+      <c r="H6">
+        <v>-0.126629041</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="B7">
+        <v>2.1299058990000002</v>
+      </c>
+      <c r="C7">
+        <v>3.0014536000000001</v>
+      </c>
+      <c r="D7">
+        <v>3.931757325</v>
+      </c>
+      <c r="E7">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="F7">
+        <v>2.9133195619999999</v>
+      </c>
+      <c r="G7">
+        <v>-0.144720664</v>
+      </c>
+      <c r="H7">
+        <v>0.30448439399999999</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="B8">
+        <v>3.1875143449999999</v>
+      </c>
+      <c r="C8">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="D8">
+        <v>1.8557111159999999</v>
+      </c>
+      <c r="E8">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="F8">
+        <v>3.6037028539999998</v>
+      </c>
+      <c r="G8">
+        <v>6.4896550999999997E-2</v>
+      </c>
+      <c r="H8">
+        <v>-6.3777236000000001E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.914467141</v>
+      </c>
+      <c r="B9">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="C9">
+        <v>3.0063499349999998</v>
+      </c>
+      <c r="D9">
+        <v>3.4274347789999999</v>
+      </c>
+      <c r="E9">
+        <v>1.919363476</v>
+      </c>
+      <c r="F9">
+        <v>2.9867645930000002</v>
+      </c>
+      <c r="G9">
+        <v>4.5391519999999998E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.122332644</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.8312294389999999</v>
+      </c>
+      <c r="B10">
+        <v>3.2266850279999999</v>
+      </c>
+      <c r="C10">
+        <v>2.183765588</v>
+      </c>
+      <c r="D10">
+        <v>1.9487414890000001</v>
+      </c>
+      <c r="E10">
+        <v>1.8165404329999999</v>
+      </c>
+      <c r="F10">
+        <v>3.0895876370000002</v>
+      </c>
+      <c r="G10">
+        <v>0.51005194899999995</v>
+      </c>
+      <c r="H10">
+        <v>-8.5903486000000001E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.051564532</v>
+      </c>
+      <c r="B11">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="C11">
+        <v>2.8447708669999998</v>
+      </c>
+      <c r="D11">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="E11">
+        <v>2.0026011779999999</v>
+      </c>
+      <c r="F11">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="G11">
+        <v>1.3206087E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.144321963</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="B12">
+        <v>3.24627037</v>
+      </c>
+      <c r="C12">
+        <v>2.193558259</v>
+      </c>
+      <c r="D12">
+        <v>1.9095708060000001</v>
+      </c>
+      <c r="E12">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="F12">
+        <v>2.193558259</v>
+      </c>
+      <c r="G12">
+        <v>8.1722622999999994E-2</v>
+      </c>
+      <c r="H12">
+        <v>-6.2441731E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.02218652</v>
+      </c>
+      <c r="B13">
+        <v>2.193558259</v>
+      </c>
+      <c r="C13">
+        <v>2.8839415499999999</v>
+      </c>
+      <c r="D13">
+        <v>3.5302578229999999</v>
+      </c>
+      <c r="E13">
+        <v>1.9585341599999999</v>
+      </c>
+      <c r="F13">
+        <v>3.0455206179999998</v>
+      </c>
+      <c r="G13">
+        <v>4.0091817000000002E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.19180810200000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="B14">
+        <v>2.1984545940000002</v>
+      </c>
+      <c r="C14">
+        <v>3.5351541580000001</v>
+      </c>
+      <c r="D14">
+        <v>1.90467447</v>
+      </c>
+      <c r="E14">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="F14">
+        <v>1.8459184449999999</v>
+      </c>
+      <c r="G14">
+        <v>-0.109061686</v>
+      </c>
+      <c r="H14">
+        <v>-0.42009363999999999</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.8557111159999999</v>
+      </c>
+      <c r="B15">
+        <v>2.1984545940000002</v>
+      </c>
+      <c r="C15">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="D15">
+        <v>2.1690765820000002</v>
+      </c>
+      <c r="E15">
+        <v>2.0172901840000002</v>
+      </c>
+      <c r="F15">
+        <v>1.4933822969999999</v>
+      </c>
+      <c r="G15">
+        <v>8.3259552000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.184976586</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.01124627</v>
+      </c>
+      <c r="B16">
+        <v>1.929156147</v>
+      </c>
+      <c r="C16">
+        <v>2.090735215</v>
+      </c>
+      <c r="D16">
+        <v>1.434626272</v>
+      </c>
+      <c r="E16">
+        <v>2.991660929</v>
+      </c>
+      <c r="F16">
+        <v>2.02218652</v>
+      </c>
+      <c r="G16">
+        <v>-0.23133933400000001</v>
+      </c>
+      <c r="H16">
+        <v>-0.16537116399999999</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.0956315509999999</v>
+      </c>
+      <c r="B17">
+        <v>2.839874531</v>
+      </c>
+      <c r="C17">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="D17">
+        <v>3.8681049650000001</v>
+      </c>
+      <c r="E17">
+        <v>1.625583352</v>
+      </c>
+      <c r="F17">
+        <v>3.2903373880000002</v>
+      </c>
+      <c r="G17">
+        <v>0.14155021000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.35804491500000002</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.123861985</v>
+      </c>
+      <c r="B18">
+        <v>1.894881799</v>
+      </c>
+      <c r="C18">
+        <v>3.6232881950000002</v>
+      </c>
+      <c r="D18">
+        <v>2.8349781959999998</v>
+      </c>
+      <c r="E18">
+        <v>3.1875143449999999</v>
+      </c>
+      <c r="F18">
+        <v>1.1065718</v>
+      </c>
+      <c r="G18">
+        <v>-0.25500355200000002</v>
+      </c>
+      <c r="H18">
+        <v>-0.15843470800000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.997704843</v>
+      </c>
+      <c r="B19">
+        <v>2.8447708669999998</v>
+      </c>
+      <c r="C19">
+        <v>2.991660929</v>
+      </c>
+      <c r="D19">
+        <v>4.0100986919999997</v>
+      </c>
+      <c r="E19">
+        <v>1.7920587560000001</v>
+      </c>
+      <c r="F19">
+        <v>2.991660929</v>
+      </c>
+      <c r="G19">
+        <v>0.16400945</v>
+      </c>
+      <c r="H19">
+        <v>0.36157309700000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.0014536000000001</v>
+      </c>
+      <c r="B20">
+        <v>1.889985464</v>
+      </c>
+      <c r="C20">
+        <v>2.1592839110000002</v>
+      </c>
+      <c r="D20">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="E20">
+        <v>3.0014536000000001</v>
+      </c>
+      <c r="F20">
+        <v>3.5645321700000001</v>
+      </c>
+      <c r="G20">
+        <v>-0.20935399199999999</v>
+      </c>
+      <c r="H20">
+        <v>0.134358166</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.8312294389999999</v>
+      </c>
+      <c r="B21">
+        <v>2.8007038479999999</v>
+      </c>
+      <c r="C21">
+        <v>3.0797949660000001</v>
+      </c>
+      <c r="D21">
+        <v>3.5449468290000001</v>
+      </c>
+      <c r="E21">
+        <v>1.6353760230000001</v>
+      </c>
+      <c r="F21">
+        <v>3.0797949660000001</v>
+      </c>
+      <c r="G21">
+        <v>0.17206906399999999</v>
+      </c>
+      <c r="H21">
+        <v>0.15587548000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="B22">
+        <v>1.9242598120000001</v>
+      </c>
+      <c r="C22">
+        <v>2.02218652</v>
+      </c>
+      <c r="D22">
+        <v>2.952490246</v>
+      </c>
+      <c r="E22">
+        <v>1.542345651</v>
+      </c>
+      <c r="F22">
+        <v>3.3980567669999999</v>
+      </c>
+      <c r="G22">
+        <v>-0.162638121</v>
+      </c>
+      <c r="H22">
+        <v>0.15801340899999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.8704001219999999</v>
+      </c>
+      <c r="B23">
+        <v>2.8349781959999998</v>
+      </c>
+      <c r="C23">
+        <v>3.0651059599999999</v>
+      </c>
+      <c r="D23">
+        <v>2.849667202</v>
+      </c>
+      <c r="E23">
+        <v>3.0602096240000001</v>
+      </c>
+      <c r="F23">
+        <v>3.0651059599999999</v>
+      </c>
+      <c r="G23">
+        <v>0.152527632</v>
+      </c>
+      <c r="H23">
+        <v>-4.2487757000000001E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.8349781959999998</v>
+      </c>
+      <c r="B24">
+        <v>2.0809425450000001</v>
+      </c>
+      <c r="C24">
+        <v>2.1005278860000001</v>
+      </c>
+      <c r="D24">
+        <v>2.839874531</v>
+      </c>
+      <c r="E24">
+        <v>2.8447708669999998</v>
+      </c>
+      <c r="F24">
+        <v>3.5351541580000001</v>
+      </c>
+      <c r="G24">
+        <v>-0.117814171</v>
+      </c>
+      <c r="H24">
+        <v>0.112756172</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.7626807440000001</v>
+      </c>
+      <c r="B25">
+        <v>1.6696503709999999</v>
+      </c>
+      <c r="C25">
+        <v>3.153239997</v>
+      </c>
+      <c r="D25">
+        <v>2.981868258</v>
+      </c>
+      <c r="E25">
+        <v>2.981868258</v>
+      </c>
+      <c r="F25">
+        <v>1.7969550910000001</v>
+      </c>
+      <c r="G25">
+        <v>-1.8414930999999999E-2</v>
+      </c>
+      <c r="H25">
+        <v>-3.3397464000000002E-2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.557034657</v>
+      </c>
+      <c r="B26">
+        <v>2.0466681969999998</v>
+      </c>
+      <c r="C26">
+        <v>1.385662918</v>
+      </c>
+      <c r="D26">
+        <v>1.747991737</v>
+      </c>
+      <c r="E26">
+        <v>3.1728253390000001</v>
+      </c>
+      <c r="F26">
+        <v>3.1189656490000002</v>
+      </c>
+      <c r="G26">
+        <v>0.12545094100000001</v>
+      </c>
+      <c r="H26">
+        <v>0.109404326</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.9536378240000001</v>
+      </c>
+      <c r="B27">
+        <v>2.952490246</v>
+      </c>
+      <c r="C27">
+        <v>2.981868258</v>
+      </c>
+      <c r="D27">
+        <v>2.1641802459999999</v>
+      </c>
+      <c r="E27">
+        <v>1.836125775</v>
+      </c>
+      <c r="F27">
+        <v>3.1777216739999998</v>
+      </c>
+      <c r="G27">
+        <v>0.17671413799999999</v>
+      </c>
+      <c r="H27">
+        <v>-0.14086243600000001</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.810496519</v>
+      </c>
+      <c r="B28">
+        <v>2.9182158980000001</v>
+      </c>
+      <c r="C28">
+        <v>2.0711498740000001</v>
+      </c>
+      <c r="D28">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="E28">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="F28">
+        <v>2.0711498740000001</v>
+      </c>
+      <c r="G28">
+        <v>2.2526596999999999E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.20955211900000001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.9536378240000001</v>
+      </c>
+      <c r="B29">
+        <v>1.743095402</v>
+      </c>
+      <c r="C29">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="D29">
+        <v>3.305026394</v>
+      </c>
+      <c r="E29">
+        <v>3.163032668</v>
+      </c>
+      <c r="F29">
+        <v>1.8214367680000001</v>
+      </c>
+      <c r="G29">
+        <v>-4.1960853999999999E-2</v>
+      </c>
+      <c r="H29">
+        <v>9.3415149000000003E-2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2.830081861</v>
+      </c>
+      <c r="B30">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="C30">
+        <v>2.0074975140000002</v>
+      </c>
+      <c r="D30">
+        <v>2.849667202</v>
+      </c>
+      <c r="E30">
+        <v>3.0308316120000001</v>
+      </c>
+      <c r="F30">
+        <v>3.5890138469999999</v>
+      </c>
+      <c r="G30">
+        <v>-0.10263517699999999</v>
+      </c>
+      <c r="H30">
+        <v>0.13587639900000001</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.7822660850000001</v>
+      </c>
+      <c r="B31">
+        <v>1.7773697500000001</v>
+      </c>
+      <c r="C31">
+        <v>3.133654655</v>
+      </c>
+      <c r="D31">
+        <v>2.8741488789999998</v>
+      </c>
+      <c r="E31">
+        <v>1.7822660850000001</v>
+      </c>
+      <c r="F31">
+        <v>1.8018514269999999</v>
+      </c>
+      <c r="G31">
+        <v>-9.3576399999999995E-4</v>
+      </c>
+      <c r="H31">
+        <v>-4.8119228E-2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.839874531</v>
+      </c>
+      <c r="B32">
+        <v>1.90467447</v>
+      </c>
+      <c r="C32">
+        <v>1.860607452</v>
+      </c>
+      <c r="D32">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="E32">
+        <v>1.772473414</v>
+      </c>
+      <c r="F32">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="G32">
+        <v>-0.17148925600000001</v>
+      </c>
+      <c r="H32">
+        <v>0.20413363400000001</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.9389488180000001</v>
+      </c>
+      <c r="B33">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="C33">
+        <v>3.0063499349999998</v>
+      </c>
+      <c r="D33">
+        <v>3.1483436619999998</v>
+      </c>
+      <c r="E33">
+        <v>1.9389488180000001</v>
+      </c>
+      <c r="F33">
+        <v>1.8067477620000001</v>
+      </c>
+      <c r="G33">
+        <v>0.13586314499999999</v>
+      </c>
+      <c r="H33">
+        <v>3.3882108000000001E-2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.8349781959999998</v>
+      </c>
+      <c r="B34">
+        <v>1.889985464</v>
+      </c>
+      <c r="C34">
+        <v>3.5694285059999999</v>
+      </c>
+      <c r="D34">
+        <v>2.9475939100000002</v>
+      </c>
+      <c r="E34">
+        <v>2.972075587</v>
+      </c>
+      <c r="F34">
+        <v>1.708821054</v>
+      </c>
+      <c r="G34">
+        <v>-0.15223832100000001</v>
+      </c>
+      <c r="H34">
+        <v>-0.107707733</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.8704001219999999</v>
+      </c>
+      <c r="B35">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="C35">
+        <v>2.9622829159999999</v>
+      </c>
+      <c r="D35">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="E35">
+        <v>3.3784714249999999</v>
+      </c>
+      <c r="F35">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="G35">
+        <v>0.15538632299999999</v>
+      </c>
+      <c r="H35">
+        <v>-3.2439998999999997E-2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="B36">
+        <v>2.1103205570000001</v>
+      </c>
+      <c r="C36">
+        <v>3.486190804</v>
+      </c>
+      <c r="D36">
+        <v>1.752888073</v>
+      </c>
+      <c r="E36">
+        <v>1.703924719</v>
+      </c>
+      <c r="F36">
+        <v>1.5178639739999999</v>
+      </c>
+      <c r="G36">
+        <v>-0.118989519</v>
+      </c>
+      <c r="H36">
+        <v>-0.40923130200000002</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.757784408</v>
+      </c>
+      <c r="B37">
+        <v>1.9487414890000001</v>
+      </c>
+      <c r="C37">
+        <v>3.1385509909999998</v>
+      </c>
+      <c r="D37">
+        <v>3.5302578229999999</v>
+      </c>
+      <c r="E37">
+        <v>1.757784408</v>
+      </c>
+      <c r="F37">
+        <v>1.6794430419999999</v>
+      </c>
+      <c r="G37">
+        <v>3.6338151999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.10084928</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.9280085690000002</v>
+      </c>
+      <c r="B38">
+        <v>2.1494912400000001</v>
+      </c>
+      <c r="C38">
+        <v>2.0956315509999999</v>
+      </c>
+      <c r="D38">
+        <v>1.8116440979999999</v>
+      </c>
+      <c r="E38">
+        <v>2.810496519</v>
+      </c>
+      <c r="F38">
+        <v>3.628184531</v>
+      </c>
+      <c r="G38">
+        <v>-0.11913539200000001</v>
+      </c>
+      <c r="H38">
+        <v>-5.5394060000000002E-2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.733302731</v>
+      </c>
+      <c r="B39">
+        <v>2.839874531</v>
+      </c>
+      <c r="C39">
+        <v>3.133654655</v>
+      </c>
+      <c r="D39">
+        <v>2.810496519</v>
+      </c>
+      <c r="E39">
+        <v>1.733302731</v>
+      </c>
+      <c r="F39">
+        <v>1.718613725</v>
+      </c>
+      <c r="G39">
+        <v>0.174599276</v>
+      </c>
+      <c r="H39">
+        <v>-6.5027584999999999E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="B40">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="C40">
+        <v>2.0662535379999998</v>
+      </c>
+      <c r="D40">
+        <v>1.6745467060000001</v>
+      </c>
+      <c r="E40">
+        <v>2.82028919</v>
+      </c>
+      <c r="F40">
+        <v>3.6869405550000001</v>
+      </c>
+      <c r="G40">
+        <v>-0.113762058</v>
+      </c>
+      <c r="H40">
+        <v>-7.2061259000000003E-2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.8312294389999999</v>
+      </c>
+      <c r="B41">
+        <v>2.154387576</v>
+      </c>
+      <c r="C41">
+        <v>3.0748986309999999</v>
+      </c>
+      <c r="D41">
+        <v>2.1445949049999999</v>
+      </c>
+      <c r="E41">
+        <v>2.154387576</v>
+      </c>
+      <c r="F41">
+        <v>3.0748986309999999</v>
+      </c>
+      <c r="G41">
+        <v>6.7207223999999996E-2</v>
+      </c>
+      <c r="H41">
+        <v>-0.20000679900000001</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3.0504169540000001</v>
+      </c>
+      <c r="B42">
+        <v>2.041771861</v>
+      </c>
+      <c r="C42">
+        <v>2.154387576</v>
+      </c>
+      <c r="D42">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="E42">
+        <v>1.7773697500000001</v>
+      </c>
+      <c r="F42">
+        <v>3.6330808659999998</v>
+      </c>
+      <c r="G42">
+        <v>-0.15824313800000001</v>
+      </c>
+      <c r="H42">
+        <v>0.11190826</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.8704001219999999</v>
+      </c>
+      <c r="B43">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="C43">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="D43">
+        <v>3.3980567669999999</v>
+      </c>
+      <c r="E43">
+        <v>2.952490246</v>
+      </c>
+      <c r="F43">
+        <v>1.71371739</v>
+      </c>
+      <c r="G43">
+        <v>5.0048887E-2</v>
+      </c>
+      <c r="H43">
+        <v>9.6105461000000003E-2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.9133195619999999</v>
+      </c>
+      <c r="B44">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="C44">
+        <v>3.4959834750000001</v>
+      </c>
+      <c r="D44">
+        <v>2.9182158980000001</v>
+      </c>
+      <c r="E44">
+        <v>1.8312294389999999</v>
+      </c>
+      <c r="F44">
+        <v>1.733302731</v>
+      </c>
+      <c r="G44">
+        <v>-1.0987779999999999E-3</v>
+      </c>
+      <c r="H44">
+        <v>-0.168014203</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.1396985690000001</v>
+      </c>
+      <c r="B45">
+        <v>2.0270828550000002</v>
+      </c>
+      <c r="C45">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="D45">
+        <v>3.2903373880000002</v>
+      </c>
+      <c r="E45">
+        <v>2.154387576</v>
+      </c>
+      <c r="F45">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="G45">
+        <v>-2.1298505999999998E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.104505077</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="B46">
+        <v>2.839874531</v>
+      </c>
+      <c r="C46">
+        <v>2.1103205570000001</v>
+      </c>
+      <c r="D46">
+        <v>2.991660929</v>
+      </c>
+      <c r="E46">
+        <v>1.919363476</v>
+      </c>
+      <c r="F46">
+        <v>3.5596358349999999</v>
+      </c>
+      <c r="G46">
+        <v>-2.2742302999999998E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.19748212500000001</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.0172901840000002</v>
+      </c>
+      <c r="B47">
+        <v>1.9242598120000001</v>
+      </c>
+      <c r="C47">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="D47">
+        <v>3.1287583200000002</v>
+      </c>
+      <c r="E47">
+        <v>3.1777216739999998</v>
+      </c>
+      <c r="F47">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="G47">
+        <v>-1.7958160000000001E-2</v>
+      </c>
+      <c r="H47">
+        <v>4.7172645999999999E-2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.0700022950000001</v>
+      </c>
+      <c r="B48">
+        <v>3.114069314</v>
+      </c>
+      <c r="C48">
+        <v>2.0662535379999998</v>
+      </c>
+      <c r="D48">
+        <v>2.0809425450000001</v>
+      </c>
+      <c r="E48">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="F48">
+        <v>3.4715017979999998</v>
+      </c>
+      <c r="G48">
+        <v>9.0683299999999994E-3</v>
+      </c>
+      <c r="H48">
+        <v>2.975016E-3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="B49">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="C49">
+        <v>2.8251855250000002</v>
+      </c>
+      <c r="D49">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="E49">
+        <v>2.1592839110000002</v>
+      </c>
+      <c r="F49">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="G49">
+        <v>9.9191180000000004E-2</v>
+      </c>
+      <c r="H49">
+        <v>5.3664150000000002E-3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.8986305560000001</v>
+      </c>
+      <c r="B50">
+        <v>2.1005278860000001</v>
+      </c>
+      <c r="C50">
+        <v>2.02218652</v>
+      </c>
+      <c r="D50">
+        <v>1.8116440979999999</v>
+      </c>
+      <c r="E50">
+        <v>2.888837885</v>
+      </c>
+      <c r="F50">
+        <v>3.6526662079999999</v>
+      </c>
+      <c r="G50">
+        <v>-0.154673637</v>
+      </c>
+      <c r="H50">
+        <v>-4.7245770999999999E-2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.0809425450000001</v>
+      </c>
+      <c r="B51">
+        <v>2.1641802459999999</v>
+      </c>
+      <c r="C51">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="D51">
+        <v>2.1690765820000002</v>
+      </c>
+      <c r="E51">
+        <v>2.0809425450000001</v>
+      </c>
+      <c r="F51">
+        <v>1.6745467060000001</v>
+      </c>
+      <c r="G51">
+        <v>2.2147099E-2</v>
+      </c>
+      <c r="H51">
+        <v>-0.186268714</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.0944839719999999</v>
+      </c>
+      <c r="B52">
+        <v>1.90467447</v>
+      </c>
+      <c r="C52">
+        <v>3.902379313</v>
+      </c>
+      <c r="D52">
+        <v>2.9329049039999999</v>
+      </c>
+      <c r="E52">
+        <v>3.8632086299999999</v>
+      </c>
+      <c r="F52">
+        <v>0.72465763900000002</v>
+      </c>
+      <c r="G52">
+        <v>-0.23911485900000001</v>
+      </c>
+      <c r="H52">
+        <v>-0.201156697</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.914467141</v>
+      </c>
+      <c r="B53">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="C53">
+        <v>3.0406242830000001</v>
+      </c>
+      <c r="D53">
+        <v>2.183765588</v>
+      </c>
+      <c r="E53">
+        <v>1.571723663</v>
+      </c>
+      <c r="F53">
+        <v>3.0406242830000001</v>
+      </c>
+      <c r="G53">
+        <v>0.19588107599999999</v>
+      </c>
+      <c r="H53">
+        <v>-0.15523237000000001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.5351541580000001</v>
+      </c>
+      <c r="B54">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="C54">
+        <v>2.0711498740000001</v>
+      </c>
+      <c r="D54">
+        <v>1.370973912</v>
+      </c>
+      <c r="E54">
+        <v>0.944992732</v>
+      </c>
+      <c r="F54">
+        <v>1.90467447</v>
+      </c>
+      <c r="G54">
+        <v>-0.32695812699999999</v>
+      </c>
+      <c r="H54">
+        <v>-0.17377451099999999</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.0466681969999998</v>
+      </c>
+      <c r="B55">
+        <v>2.8790452150000001</v>
+      </c>
+      <c r="C55">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="D55">
+        <v>2.8007038479999999</v>
+      </c>
+      <c r="E55">
+        <v>1.4835896260000001</v>
+      </c>
+      <c r="F55">
+        <v>3.5204651519999999</v>
+      </c>
+      <c r="G55">
+        <v>0.149705646</v>
+      </c>
+      <c r="H55">
+        <v>-3.3679972000000002E-2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2.9769719229999998</v>
+      </c>
+      <c r="B56">
+        <v>1.8067477620000001</v>
+      </c>
+      <c r="C56">
+        <v>2.1250095629999999</v>
+      </c>
+      <c r="D56">
+        <v>2.9182158980000001</v>
+      </c>
+      <c r="E56">
+        <v>1.248565527</v>
+      </c>
+      <c r="F56">
+        <v>2.1250095629999999</v>
+      </c>
+      <c r="G56">
+        <v>-0.22534738700000001</v>
+      </c>
+      <c r="H56">
+        <v>0.13178104099999999</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.899778135</v>
+      </c>
+      <c r="B57">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="C57">
+        <v>3.0602096240000001</v>
+      </c>
+      <c r="D57">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="E57">
+        <v>1.610894346</v>
+      </c>
+      <c r="F57">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="G57">
+        <v>0.17897121399999999</v>
+      </c>
+      <c r="H57">
+        <v>-0.16706085200000001</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3.314819065</v>
+      </c>
+      <c r="B58">
+        <v>1.7675770790000001</v>
+      </c>
+      <c r="C58">
+        <v>3.7603855859999999</v>
+      </c>
+      <c r="D58">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="E58">
+        <v>3.3490934129999999</v>
+      </c>
+      <c r="F58">
+        <v>1.0086450920000001</v>
+      </c>
+      <c r="G58">
+        <v>-0.31884221899999998</v>
+      </c>
+      <c r="H58">
+        <v>-0.165501274</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.6745467060000001</v>
+      </c>
+      <c r="B59">
+        <v>2.9769719229999998</v>
+      </c>
+      <c r="C59">
+        <v>3.3099227299999998</v>
+      </c>
+      <c r="D59">
+        <v>2.1348022339999999</v>
+      </c>
+      <c r="E59">
+        <v>1.733302731</v>
+      </c>
+      <c r="F59">
+        <v>3.3099227299999998</v>
+      </c>
+      <c r="G59">
+        <v>0.26413236200000001</v>
+      </c>
+      <c r="H59">
+        <v>-0.236439703</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.859459873</v>
+      </c>
+      <c r="B60">
+        <v>1.929156147</v>
+      </c>
+      <c r="C60">
+        <v>2.193558259</v>
+      </c>
+      <c r="D60">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="E60">
+        <v>3.5008798099999998</v>
+      </c>
+      <c r="F60">
+        <v>2.0760462089999998</v>
+      </c>
+      <c r="G60">
+        <v>-0.15230453299999999</v>
+      </c>
+      <c r="H60">
+        <v>0.11652699399999999</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.885089129</v>
+      </c>
+      <c r="B61">
+        <v>2.82028919</v>
+      </c>
+      <c r="C61">
+        <v>2.9965572640000002</v>
+      </c>
+      <c r="D61">
+        <v>3.8044526049999998</v>
+      </c>
+      <c r="E61">
+        <v>2.0270828550000002</v>
+      </c>
+      <c r="F61">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="G61">
+        <v>0.160309392</v>
+      </c>
+      <c r="H61">
+        <v>0.219644169</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.839874531</v>
+      </c>
+      <c r="B62">
+        <v>1.9340524830000001</v>
+      </c>
+      <c r="C62">
+        <v>2.061357203</v>
+      </c>
+      <c r="D62">
+        <v>2.8447708669999998</v>
+      </c>
+      <c r="E62">
+        <v>3.0014536000000001</v>
+      </c>
+      <c r="F62">
+        <v>1.5227603089999999</v>
+      </c>
+      <c r="G62">
+        <v>-0.14666354600000001</v>
+      </c>
+      <c r="H62">
+        <v>0.12221005</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.8704001219999999</v>
+      </c>
+      <c r="B63">
+        <v>1.836125775</v>
+      </c>
+      <c r="C63">
+        <v>3.1581363320000002</v>
+      </c>
+      <c r="D63">
+        <v>3.1287583200000002</v>
+      </c>
+      <c r="E63">
+        <v>1.889985464</v>
+      </c>
+      <c r="F63">
+        <v>0.90092571300000002</v>
+      </c>
+      <c r="G63">
+        <v>-1.0437161E-2</v>
+      </c>
+      <c r="H63">
+        <v>-9.8879020000000005E-3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3.3099227299999998</v>
+      </c>
+      <c r="B64">
+        <v>1.9340524830000001</v>
+      </c>
+      <c r="C64">
+        <v>3.3784714249999999</v>
+      </c>
+      <c r="D64">
+        <v>2.859459873</v>
+      </c>
+      <c r="E64">
+        <v>3.314819065</v>
+      </c>
+      <c r="F64">
+        <v>0.86175502999999998</v>
+      </c>
+      <c r="G64">
+        <v>-0.26462168400000002</v>
+      </c>
+      <c r="H64">
+        <v>-0.102125442</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="B65">
+        <v>2.9622829159999999</v>
+      </c>
+      <c r="C65">
+        <v>3.143447326</v>
+      </c>
+      <c r="D65">
+        <v>2.1690765820000002</v>
+      </c>
+      <c r="E65">
+        <v>1.6941320479999999</v>
+      </c>
+      <c r="F65">
+        <v>3.0357279469999998</v>
+      </c>
+      <c r="G65">
+        <v>2.4863030000000001E-2</v>
+      </c>
+      <c r="H65">
+        <v>-0.18033320899999999</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="B66">
+        <v>1.880192793</v>
+      </c>
+      <c r="C66">
+        <v>2.0368755260000002</v>
+      </c>
+      <c r="D66">
+        <v>2.888837885</v>
+      </c>
+      <c r="E66">
+        <v>3.24627037</v>
+      </c>
+      <c r="F66">
+        <v>3.902379313</v>
+      </c>
+      <c r="G66">
+        <v>-0.21388554000000001</v>
+      </c>
+      <c r="H66">
+        <v>0.15236040300000001</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.772473414</v>
+      </c>
+      <c r="B67">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="C67">
+        <v>3.114069314</v>
+      </c>
+      <c r="D67">
+        <v>4.0884400579999998</v>
+      </c>
+      <c r="E67">
+        <v>1.865503787</v>
+      </c>
+      <c r="F67">
+        <v>2.9329049039999999</v>
+      </c>
+      <c r="G67">
+        <v>0.204520219</v>
+      </c>
+      <c r="H67">
+        <v>0.33607513900000002</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.972075587</v>
+      </c>
+      <c r="B68">
+        <v>1.8067477620000001</v>
+      </c>
+      <c r="C68">
+        <v>1.9389488180000001</v>
+      </c>
+      <c r="D68">
+        <v>2.9280085690000002</v>
+      </c>
+      <c r="E68">
+        <v>2.9133195619999999</v>
+      </c>
+      <c r="F68">
+        <v>3.9464463319999998</v>
+      </c>
+      <c r="G68">
+        <v>-0.220662735</v>
+      </c>
+      <c r="H68">
+        <v>0.180597958</v>
+      </c>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.865503787</v>
+      </c>
+      <c r="B69">
+        <v>2.8986305560000001</v>
+      </c>
+      <c r="C69">
+        <v>3.1042766429999999</v>
+      </c>
+      <c r="D69">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="E69">
+        <v>1.865503787</v>
+      </c>
+      <c r="F69">
+        <v>3.314819065</v>
+      </c>
+      <c r="G69">
+        <v>0.194383205</v>
+      </c>
+      <c r="H69">
+        <v>-0.17375592300000001</v>
+      </c>
+      <c r="I69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.9622829159999999</v>
+      </c>
+      <c r="B70">
+        <v>1.733302731</v>
+      </c>
+      <c r="C70">
+        <v>1.836125775</v>
+      </c>
+      <c r="D70">
+        <v>2.9867645930000002</v>
+      </c>
+      <c r="E70">
+        <v>3.3784714249999999</v>
+      </c>
+      <c r="F70">
+        <v>4.0003060210000001</v>
+      </c>
+      <c r="G70">
+        <v>-0.22148124</v>
+      </c>
+      <c r="H70">
+        <v>0.20591398499999999</v>
+      </c>
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.865503787</v>
+      </c>
+      <c r="B71">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="C71">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="D71">
+        <v>2.193558259</v>
+      </c>
+      <c r="E71">
+        <v>1.860607452</v>
+      </c>
+      <c r="F71">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="G71">
+        <v>0.18794673100000001</v>
+      </c>
+      <c r="H71">
+        <v>-0.157780329</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3.1189656490000002</v>
+      </c>
+      <c r="B72">
+        <v>2.1494912400000001</v>
+      </c>
+      <c r="C72">
+        <v>3.7848672630000002</v>
+      </c>
+      <c r="D72">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="E72">
+        <v>3.1483436619999998</v>
+      </c>
+      <c r="F72">
+        <v>1.077193788</v>
+      </c>
+      <c r="G72">
+        <v>-0.18341375900000001</v>
+      </c>
+      <c r="H72">
+        <v>-0.178745346</v>
+      </c>
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.7822660850000001</v>
+      </c>
+      <c r="B73">
+        <v>2.8251855250000002</v>
+      </c>
+      <c r="C73">
+        <v>3.0748986309999999</v>
+      </c>
+      <c r="D73">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="E73">
+        <v>1.6206870170000001</v>
+      </c>
+      <c r="F73">
+        <v>3.344197077</v>
+      </c>
+      <c r="G73">
+        <v>0.189237813</v>
+      </c>
+      <c r="H73">
+        <v>-5.1790507999999999E-2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3.1777216739999998</v>
+      </c>
+      <c r="B74">
+        <v>1.7871624209999999</v>
+      </c>
+      <c r="C74">
+        <v>3.5890138469999999</v>
+      </c>
+      <c r="D74">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="E74">
+        <v>1.2828398750000001</v>
+      </c>
+      <c r="F74">
+        <v>1.1849131669999999</v>
+      </c>
+      <c r="G74">
+        <v>-0.27360417999999997</v>
+      </c>
+      <c r="H74">
+        <v>-0.115380444</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.0858388799999998</v>
+      </c>
+      <c r="B75">
+        <v>2.9133195619999999</v>
+      </c>
+      <c r="C75">
+        <v>2.839874531</v>
+      </c>
+      <c r="D75">
+        <v>2.1250095629999999</v>
+      </c>
+      <c r="E75">
+        <v>2.0858388799999998</v>
+      </c>
+      <c r="F75">
+        <v>2.839874531</v>
+      </c>
+      <c r="G75">
+        <v>0.14208321700000001</v>
+      </c>
+      <c r="H75">
+        <v>-0.120323808</v>
+      </c>
+      <c r="I75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2.888837885</v>
+      </c>
+      <c r="B76">
+        <v>1.9928085069999999</v>
+      </c>
+      <c r="C76">
+        <v>2.1005278860000001</v>
+      </c>
+      <c r="D76">
+        <v>2.0956315509999999</v>
+      </c>
+      <c r="E76">
+        <v>2.888837885</v>
+      </c>
+      <c r="F76">
+        <v>3.750592916</v>
+      </c>
+      <c r="G76">
+        <v>-0.15704346699999999</v>
+      </c>
+      <c r="H76">
+        <v>-1.291564E-3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.9231122329999999</v>
+      </c>
+      <c r="B77">
+        <v>2.810496519</v>
+      </c>
+      <c r="C77">
+        <v>3.0504169540000001</v>
+      </c>
+      <c r="D77">
+        <v>3.2560630399999999</v>
+      </c>
+      <c r="E77">
+        <v>1.9389488180000001</v>
+      </c>
+      <c r="F77">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="G77">
+        <v>-1.6539689999999999E-2</v>
+      </c>
+      <c r="H77">
+        <v>6.2588791000000005E-2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.4127457730000001</v>
+      </c>
+      <c r="B78">
+        <v>1.772473414</v>
+      </c>
+      <c r="C78">
+        <v>2.193558259</v>
+      </c>
+      <c r="D78">
+        <v>2.9573865810000002</v>
+      </c>
+      <c r="E78">
+        <v>1.062504782</v>
+      </c>
+      <c r="F78">
+        <v>3.6722515489999998</v>
+      </c>
+      <c r="G78">
+        <v>-0.356154097</v>
+      </c>
+      <c r="H78">
+        <v>0.13127826000000001</v>
+      </c>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.1690765820000002</v>
+      </c>
+      <c r="B79">
+        <v>3.021038941</v>
+      </c>
+      <c r="C79">
+        <v>2.8741488789999998</v>
+      </c>
+      <c r="D79">
+        <v>2.1005278860000001</v>
+      </c>
+      <c r="E79">
+        <v>2.1788692529999998</v>
+      </c>
+      <c r="F79">
+        <v>2.82028919</v>
+      </c>
+      <c r="G79">
+        <v>0.16127124100000001</v>
+      </c>
+      <c r="H79">
+        <v>-0.14218647100000001</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.0846913009999999</v>
+      </c>
+      <c r="B80">
+        <v>3.3882640959999999</v>
+      </c>
+      <c r="C80">
+        <v>2.9182158980000001</v>
+      </c>
+      <c r="D80">
+        <v>2.9965572640000002</v>
+      </c>
+      <c r="E80">
+        <v>3.0944839719999999</v>
+      </c>
+      <c r="F80">
+        <v>1.9389488180000001</v>
+      </c>
+      <c r="G80">
+        <v>5.3208037999999999E-2</v>
+      </c>
+      <c r="H80">
+        <v>1.0223984E-2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="B81">
+        <v>2.9133195619999999</v>
+      </c>
+      <c r="C81">
+        <v>2.981868258</v>
+      </c>
+      <c r="D81">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="E81">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="F81">
+        <v>2.1299058990000002</v>
+      </c>
+      <c r="G81">
+        <v>0.10509237</v>
+      </c>
+      <c r="H81">
+        <v>-1.2818413000000001E-2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="B82">
+        <v>2.0368755260000002</v>
+      </c>
+      <c r="C82">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="D82">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="E82">
+        <v>2.830081861</v>
+      </c>
+      <c r="F82">
+        <v>2.1299058990000002</v>
+      </c>
+      <c r="G82">
+        <v>-0.102011373</v>
+      </c>
+      <c r="H82">
+        <v>9.7624400000000003E-4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.9830158369999999</v>
+      </c>
+      <c r="B83">
+        <v>2.810496519</v>
+      </c>
+      <c r="C83">
+        <v>2.0466681969999998</v>
+      </c>
+      <c r="D83">
+        <v>2.0760462089999998</v>
+      </c>
+      <c r="E83">
+        <v>1.850814781</v>
+      </c>
+      <c r="F83">
+        <v>2.051564532</v>
+      </c>
+      <c r="G83">
+        <v>0.117571728</v>
+      </c>
+      <c r="H83">
+        <v>3.7730149999999998E-3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.9475939100000002</v>
+      </c>
+      <c r="B84">
+        <v>1.9879121719999999</v>
+      </c>
+      <c r="C84">
+        <v>2.02218652</v>
+      </c>
+      <c r="D84">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="E84">
+        <v>2.8251855250000002</v>
+      </c>
+      <c r="F84">
+        <v>2.1250095629999999</v>
+      </c>
+      <c r="G84">
+        <v>-0.159181135</v>
+      </c>
+      <c r="H84">
+        <v>0.113133834</v>
+      </c>
+      <c r="I84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.1103205570000001</v>
+      </c>
+      <c r="B85">
+        <v>2.859459873</v>
+      </c>
+      <c r="C85">
+        <v>2.849667202</v>
+      </c>
+      <c r="D85">
+        <v>2.0074975140000002</v>
+      </c>
+      <c r="E85">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="F85">
+        <v>3.0259352769999999</v>
+      </c>
+      <c r="G85">
+        <v>0.122697982</v>
+      </c>
+      <c r="H85">
+        <v>-0.133662008</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="B86">
+        <v>2.1348022339999999</v>
+      </c>
+      <c r="C86">
+        <v>1.9536378240000001</v>
+      </c>
+      <c r="D86">
+        <v>3.0063499349999998</v>
+      </c>
+      <c r="E86">
+        <v>2.9182158980000001</v>
+      </c>
+      <c r="F86">
+        <v>1.9340524830000001</v>
+      </c>
+      <c r="G86">
+        <v>-0.115999808</v>
+      </c>
+      <c r="H86">
+        <v>0.13978671100000001</v>
+      </c>
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1.9781195009999999</v>
+      </c>
+      <c r="B87">
+        <v>2.9133195619999999</v>
+      </c>
+      <c r="C87">
+        <v>3.0993803080000002</v>
+      </c>
+      <c r="D87">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="E87">
+        <v>1.9389488180000001</v>
+      </c>
+      <c r="F87">
+        <v>3.1728253390000001</v>
+      </c>
+      <c r="G87">
+        <v>0.16345198399999999</v>
+      </c>
+      <c r="H87">
+        <v>-3.8748228000000003E-2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.0406242830000001</v>
+      </c>
+      <c r="B88">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="C88">
+        <v>2.0074975140000002</v>
+      </c>
+      <c r="D88">
+        <v>3.1091729780000001</v>
+      </c>
+      <c r="E88">
+        <v>3.0455206179999998</v>
+      </c>
+      <c r="F88">
+        <v>2.839874531</v>
+      </c>
+      <c r="G88">
+        <v>-0.13991393499999999</v>
+      </c>
+      <c r="H88">
+        <v>0.162419219</v>
+      </c>
+      <c r="I88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.1984545940000002</v>
+      </c>
+      <c r="B89">
+        <v>2.8447708669999998</v>
+      </c>
+      <c r="C89">
+        <v>2.8251855250000002</v>
+      </c>
+      <c r="D89">
+        <v>2.061357203</v>
+      </c>
+      <c r="E89">
+        <v>2.1641802459999999</v>
+      </c>
+      <c r="F89">
+        <v>2.9769719229999998</v>
+      </c>
+      <c r="G89">
+        <v>9.3064280999999999E-2</v>
+      </c>
+      <c r="H89">
+        <v>-0.108765003</v>
+      </c>
+      <c r="I89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2.952490246</v>
+      </c>
+      <c r="B90">
+        <v>2.1984545940000002</v>
+      </c>
+      <c r="C90">
+        <v>2.9769719229999998</v>
+      </c>
+      <c r="D90">
+        <v>2.952490246</v>
+      </c>
+      <c r="E90">
+        <v>1.708821054</v>
+      </c>
+      <c r="F90">
+        <v>3.01124627</v>
+      </c>
+      <c r="G90">
+        <v>-0.110626426</v>
+      </c>
+      <c r="H90">
+        <v>-2.8282889999999999E-3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2.8839415499999999</v>
+      </c>
+      <c r="B91">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="C91">
+        <v>2.9475939100000002</v>
+      </c>
+      <c r="D91">
+        <v>2.041771861</v>
+      </c>
+      <c r="E91">
+        <v>1.547241986</v>
+      </c>
+      <c r="F91">
+        <v>2.972075587</v>
+      </c>
+      <c r="G91">
+        <v>-2.0699389999999998E-3</v>
+      </c>
+      <c r="H91">
+        <v>-0.113837512</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3.2413740340000001</v>
+      </c>
+      <c r="B92">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="C92">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="D92">
+        <v>2.859459873</v>
+      </c>
+      <c r="E92">
+        <v>3.324611736</v>
+      </c>
+      <c r="F92">
+        <v>2.8251855250000002</v>
+      </c>
+      <c r="G92">
+        <v>-0.17824162900000001</v>
+      </c>
+      <c r="H92">
+        <v>-5.4817110000000002E-3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.0809425450000001</v>
+      </c>
+      <c r="B93">
+        <v>2.952490246</v>
+      </c>
+      <c r="C93">
+        <v>2.1592839110000002</v>
+      </c>
+      <c r="D93">
+        <v>2.810496519</v>
+      </c>
+      <c r="E93">
+        <v>2.041771861</v>
+      </c>
+      <c r="F93">
+        <v>2.1494912400000001</v>
+      </c>
+      <c r="G93">
+        <v>0.13189551899999999</v>
+      </c>
+      <c r="H93">
+        <v>7.6402327000000006E-2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="B94">
+        <v>2.193558259</v>
+      </c>
+      <c r="C94">
+        <v>2.051564532</v>
+      </c>
+      <c r="D94">
+        <v>2.952490246</v>
+      </c>
+      <c r="E94">
+        <v>1.625583352</v>
+      </c>
+      <c r="F94">
+        <v>2.0760462089999998</v>
+      </c>
+      <c r="G94">
+        <v>-0.12351400899999999</v>
+      </c>
+      <c r="H94">
+        <v>0.121912992</v>
+      </c>
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2.1299058990000002</v>
+      </c>
+      <c r="B95">
+        <v>2.859459873</v>
+      </c>
+      <c r="C95">
+        <v>2.1690765820000002</v>
+      </c>
+      <c r="D95">
+        <v>2.0368755260000002</v>
+      </c>
+      <c r="E95">
+        <v>1.8410221099999999</v>
+      </c>
+      <c r="F95">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="G95">
+        <v>0.105405916</v>
+      </c>
+      <c r="H95">
+        <v>-1.6821572999999999E-2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.9867645930000002</v>
+      </c>
+      <c r="B96">
+        <v>3.1875143449999999</v>
+      </c>
+      <c r="C96">
+        <v>2.839874531</v>
+      </c>
+      <c r="D96">
+        <v>3.0846913009999999</v>
+      </c>
+      <c r="E96">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="F96">
+        <v>2.859459873</v>
+      </c>
+      <c r="G96">
+        <v>3.6931580999999998E-2</v>
+      </c>
+      <c r="H96">
+        <v>3.2453021999999998E-2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="B97">
+        <v>2.8986305560000001</v>
+      </c>
+      <c r="C97">
+        <v>2.1984545940000002</v>
+      </c>
+      <c r="D97">
+        <v>2.9231122329999999</v>
+      </c>
+      <c r="E97">
+        <v>1.6941320479999999</v>
+      </c>
+      <c r="F97">
+        <v>2.1396985690000001</v>
+      </c>
+      <c r="G97">
+        <v>0.108996484</v>
+      </c>
+      <c r="H97">
+        <v>8.2320292000000003E-2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="B98">
+        <v>2.1396985690000001</v>
+      </c>
+      <c r="C98">
+        <v>2.8790452150000001</v>
+      </c>
+      <c r="D98">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="E98">
+        <v>2.9231122329999999</v>
+      </c>
+      <c r="F98">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="G98">
+        <v>-9.7046751000000001E-2</v>
+      </c>
+      <c r="H98">
+        <v>3.3825510000000001E-3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.850814781</v>
+      </c>
+      <c r="B99">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="C99">
+        <v>2.1494912400000001</v>
+      </c>
+      <c r="D99">
+        <v>2.0662535379999998</v>
+      </c>
+      <c r="E99">
+        <v>1.850814781</v>
+      </c>
+      <c r="F99">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="G99">
+        <v>0.178687758</v>
+      </c>
+      <c r="H99">
+        <v>-1.305137E-2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.981868258</v>
+      </c>
+      <c r="B100">
+        <v>2.154387576</v>
+      </c>
+      <c r="C100">
+        <v>3.0700022950000001</v>
+      </c>
+      <c r="D100">
+        <v>3.0748986309999999</v>
+      </c>
+      <c r="E100">
+        <v>2.9231122329999999</v>
+      </c>
+      <c r="F100">
+        <v>3.0944839719999999</v>
+      </c>
+      <c r="G100">
+        <v>-0.11934729199999999</v>
+      </c>
+      <c r="H100">
+        <v>6.2206800000000003E-4</v>
+      </c>
+      <c r="I100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1.8165404329999999</v>
+      </c>
+      <c r="B101">
+        <v>2.8839415499999999</v>
+      </c>
+      <c r="C101">
+        <v>2.1445949049999999</v>
+      </c>
+      <c r="D101">
+        <v>2.0466681969999998</v>
+      </c>
+      <c r="E101">
+        <v>3.0357279469999998</v>
+      </c>
+      <c r="F101">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="G101">
+        <v>0.150111988</v>
+      </c>
+      <c r="H101">
+        <v>-1.1652437E-2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.8349781959999998</v>
+      </c>
+      <c r="B102">
+        <v>3.0014536000000001</v>
+      </c>
+      <c r="C102">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="D102">
+        <v>2.9329049039999999</v>
+      </c>
+      <c r="E102">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="F102">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="G102">
+        <v>6.6583277999999996E-2</v>
+      </c>
+      <c r="H102">
+        <v>8.4979370000000005E-3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2.9769719229999998</v>
+      </c>
+      <c r="B103">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="C103">
+        <v>2.0026011779999999</v>
+      </c>
+      <c r="D103">
+        <v>2.991660929</v>
+      </c>
+      <c r="E103">
+        <v>2.991660929</v>
+      </c>
+      <c r="F103">
+        <v>2.0809425450000001</v>
+      </c>
+      <c r="G103">
+        <v>-0.53317082000000005</v>
+      </c>
+      <c r="H103">
+        <v>0.41877684700000001</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1.8263331039999999</v>
+      </c>
+      <c r="B104">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="C104">
+        <v>2.8447708669999998</v>
+      </c>
+      <c r="D104">
+        <v>2.0858388799999998</v>
+      </c>
+      <c r="E104">
+        <v>1.8263331039999999</v>
+      </c>
+      <c r="F104">
+        <v>2.8937342209999999</v>
+      </c>
+      <c r="G104">
+        <v>0.174486685</v>
+      </c>
+      <c r="H104">
+        <v>-0.11983927599999999</v>
+      </c>
+      <c r="I104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.8007038479999999</v>
+      </c>
+      <c r="B105">
+        <v>2.0466681969999998</v>
+      </c>
+      <c r="C105">
+        <v>1.9536378240000001</v>
+      </c>
+      <c r="D105">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="E105">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="F105">
+        <v>3.0406242830000001</v>
+      </c>
+      <c r="G105">
+        <v>-0.11090090599999999</v>
+      </c>
+      <c r="H105">
+        <v>0.125308961</v>
+      </c>
+      <c r="I105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2.1299058990000002</v>
+      </c>
+      <c r="B106">
+        <v>1.9487414890000001</v>
+      </c>
+      <c r="C106">
+        <v>2.1396985690000001</v>
+      </c>
+      <c r="D106">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="E106">
+        <v>1.889985464</v>
+      </c>
+      <c r="F106">
+        <v>2.1250095629999999</v>
+      </c>
+      <c r="G106">
+        <v>-3.1255365E-2</v>
+      </c>
+      <c r="H106">
+        <v>8.3356722999999994E-2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.7920587560000001</v>
+      </c>
+      <c r="B107">
+        <v>2.1984545940000002</v>
+      </c>
+      <c r="C107">
+        <v>1.8263331039999999</v>
+      </c>
+      <c r="D107">
+        <v>3.143447326</v>
+      </c>
+      <c r="E107">
+        <v>1.7969550910000001</v>
+      </c>
+      <c r="F107">
+        <v>1.899778135</v>
+      </c>
+      <c r="G107">
+        <v>0.194867964</v>
+      </c>
+      <c r="H107">
+        <v>0.48492690100000002</v>
+      </c>
+      <c r="I107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3.123861985</v>
+      </c>
+      <c r="B108">
+        <v>2.051564532</v>
+      </c>
+      <c r="C108">
+        <v>3.0504169540000001</v>
+      </c>
+      <c r="D108">
+        <v>2.193558259</v>
+      </c>
+      <c r="E108">
+        <v>3.0455206179999998</v>
+      </c>
+      <c r="F108">
+        <v>1.9634304950000001</v>
+      </c>
+      <c r="G108">
+        <v>-0.60077377799999998</v>
+      </c>
+      <c r="H108">
+        <v>-0.23712348699999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1.9095708060000001</v>
+      </c>
+      <c r="B109">
+        <v>1.9732231659999999</v>
+      </c>
+      <c r="C109">
+        <v>3.01124627</v>
+      </c>
+      <c r="D109">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="E109">
+        <v>1.9095708060000001</v>
+      </c>
+      <c r="F109">
+        <v>2.859459873</v>
+      </c>
+      <c r="G109">
+        <v>1.1669641E-2</v>
+      </c>
+      <c r="H109">
+        <v>-2.2932818000000001E-2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="B110">
+        <v>1.997704843</v>
+      </c>
+      <c r="C110">
+        <v>1.997704843</v>
+      </c>
+      <c r="D110">
+        <v>2.849667202</v>
+      </c>
+      <c r="E110">
+        <v>2.830081861</v>
+      </c>
+      <c r="F110">
+        <v>2.0956315509999999</v>
+      </c>
+      <c r="G110">
+        <v>-0.155667741</v>
+      </c>
+      <c r="H110">
+        <v>0.108522311</v>
+      </c>
+      <c r="I110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1.860607452</v>
+      </c>
+      <c r="B111">
+        <v>2.090735215</v>
+      </c>
+      <c r="C111">
+        <v>2.8007038479999999</v>
+      </c>
+      <c r="D111">
+        <v>2.1641802459999999</v>
+      </c>
+      <c r="E111">
+        <v>1.8067477620000001</v>
+      </c>
+      <c r="F111">
+        <v>2.183765588</v>
+      </c>
+      <c r="G111">
+        <v>4.7832709000000001E-2</v>
+      </c>
+      <c r="H111">
+        <v>-0.107807582</v>
+      </c>
+      <c r="I111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.8007038479999999</v>
+      </c>
+      <c r="B112">
+        <v>2.1739729169999999</v>
+      </c>
+      <c r="C112">
+        <v>3.163032668</v>
+      </c>
+      <c r="D112">
+        <v>3.021038941</v>
+      </c>
+      <c r="E112">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="F112">
+        <v>3.7603855859999999</v>
+      </c>
+      <c r="G112">
+        <v>-0.117697529</v>
+      </c>
+      <c r="H112">
+        <v>-2.4182710999999999E-2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.747991737</v>
+      </c>
+      <c r="B113">
+        <v>2.8692525440000001</v>
+      </c>
+      <c r="C113">
+        <v>3.1581363320000002</v>
+      </c>
+      <c r="D113">
+        <v>2.8153928540000002</v>
+      </c>
+      <c r="E113">
+        <v>1.7920587560000001</v>
+      </c>
+      <c r="F113">
+        <v>3.2070996859999998</v>
+      </c>
+      <c r="G113">
+        <v>0.18737942899999999</v>
+      </c>
+      <c r="H113">
+        <v>-4.7641642999999997E-2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.8790452150000001</v>
+      </c>
+      <c r="B114">
+        <v>2.193558259</v>
+      </c>
+      <c r="C114">
+        <v>3.6771478850000001</v>
+      </c>
+      <c r="D114">
+        <v>2.9965572640000002</v>
+      </c>
+      <c r="E114">
+        <v>2.8790452150000001</v>
+      </c>
+      <c r="F114">
+        <v>3.6037028539999998</v>
+      </c>
+      <c r="G114">
+        <v>-0.12413386</v>
+      </c>
+      <c r="H114">
+        <v>-0.121484782</v>
+      </c>
+      <c r="I114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1.860607452</v>
+      </c>
+      <c r="B115">
+        <v>2.82028919</v>
+      </c>
+      <c r="C115">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="D115">
+        <v>2.9378012390000001</v>
+      </c>
+      <c r="E115">
+        <v>1.8410221099999999</v>
+      </c>
+      <c r="F115">
+        <v>3.0357279469999998</v>
+      </c>
+      <c r="G115">
+        <v>0.159273044</v>
+      </c>
+      <c r="H115">
+        <v>9.3392892000000005E-2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="B116">
+        <v>3.3344044070000001</v>
+      </c>
+      <c r="C116">
+        <v>2.0172901840000002</v>
+      </c>
+      <c r="D116">
+        <v>2.9475939100000002</v>
+      </c>
+      <c r="E116">
+        <v>2.9035268919999999</v>
+      </c>
+      <c r="F116">
+        <v>3.3882640959999999</v>
+      </c>
+      <c r="G116">
+        <v>8.6727100000000001E-2</v>
+      </c>
+      <c r="H116">
+        <v>0.14385619699999999</v>
+      </c>
+      <c r="I116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1.6745467060000001</v>
+      </c>
+      <c r="B117">
+        <v>2.9231122329999999</v>
+      </c>
+      <c r="C117">
+        <v>2.061357203</v>
+      </c>
+      <c r="D117">
+        <v>2.8986305560000001</v>
+      </c>
+      <c r="E117">
+        <v>1.6745467060000001</v>
+      </c>
+      <c r="F117">
+        <v>2.1152168919999998</v>
+      </c>
+      <c r="G117">
+        <v>0.208476525</v>
+      </c>
+      <c r="H117">
+        <v>0.105892009</v>
+      </c>
+      <c r="I117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2.8056001840000002</v>
+      </c>
+      <c r="B118">
+        <v>2.051564532</v>
+      </c>
+      <c r="C118">
+        <v>1.9242598120000001</v>
+      </c>
+      <c r="D118">
+        <v>2.859459873</v>
+      </c>
+      <c r="E118">
+        <v>2.8545635379999998</v>
+      </c>
+      <c r="F118">
+        <v>3.295233724</v>
+      </c>
+      <c r="G118">
+        <v>-0.112755145</v>
+      </c>
+      <c r="H118">
+        <v>0.11334380600000001</v>
+      </c>
+      <c r="I118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1.9781195009999999</v>
+      </c>
+      <c r="B119">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="C119">
+        <v>2.1103205570000001</v>
+      </c>
+      <c r="D119">
+        <v>2.1886619230000002</v>
+      </c>
+      <c r="E119">
+        <v>1.914467141</v>
+      </c>
+      <c r="F119">
+        <v>2.0760462089999998</v>
+      </c>
+      <c r="G119">
+        <v>0.117130025</v>
+      </c>
+      <c r="H119">
+        <v>9.0801119999999996E-3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.9084232270000001</v>
+      </c>
+      <c r="B120">
+        <v>1.9536378240000001</v>
+      </c>
+      <c r="C120">
+        <v>2.8007038479999999</v>
+      </c>
+      <c r="D120">
+        <v>2.1788692529999998</v>
+      </c>
+      <c r="E120">
+        <v>2.8839415499999999</v>
+      </c>
+      <c r="F120">
+        <v>2.193558259</v>
+      </c>
+      <c r="G120">
+        <v>-0.11972002900000001</v>
+      </c>
+      <c r="H120">
+        <v>-6.3879274999999999E-2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1.9095708060000001</v>
+      </c>
+      <c r="B121">
+        <v>2.8643562079999998</v>
+      </c>
+      <c r="C121">
+        <v>3.0504169540000001</v>
+      </c>
+      <c r="D121">
+        <v>2.183765588</v>
+      </c>
+      <c r="E121">
+        <v>1.875296458</v>
+      </c>
+      <c r="F121">
+        <v>3.133654655</v>
+      </c>
+      <c r="G121">
+        <v>0.12982867400000001</v>
+      </c>
+      <c r="H121">
+        <v>-0.111898952</v>
+      </c>
+      <c r="I121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ECDCC4-9527-4DB8-879A-F36B822E8C6E}">
   <dimension ref="A1:L158"/>
@@ -42529,10 +46060,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42571,19 +46102,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-3.8875161925448001E-2</v>
+        <v>-0.13444201866398101</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.220910514605066</v>
+        <v>-0.15133518107074501</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -42597,28 +46128,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.4062993177077004E-2</v>
+        <v>6.0159469682047002E-2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>6.5431375654209006E-2</v>
+        <v>0.11171848257962801</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -42629,25 +46160,25 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.3344682703136002E-2</v>
+        <v>-0.11870922764802599</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-3.1954747632812003E-2</v>
+        <v>-0.42912442290857</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -42655,28 +46186,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.17608911549102901</v>
+        <v>2.2964292925891999E-2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.25090616841270902</v>
+        <v>6.9158161297062995E-2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -42690,22 +46221,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.181346809205852</v>
+        <v>-0.171887125231866</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.19693113798753301</v>
+        <v>-0.126629040927692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -42713,13 +46244,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.24512997257725799</v>
+        <v>-0.144720663820917</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -42728,10 +46259,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.23014061772422001</v>
+        <v>0.30448439358781998</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -42745,10 +46276,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-0.12668433143937299</v>
+        <v>6.4896550725600993E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -42757,13 +46288,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7.2782538009650002E-3</v>
+        <v>-6.3777235698478998E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -42774,25 +46305,25 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.24985865470149199</v>
+        <v>4.5391520343475003E-2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-1.55161282405189</v>
+        <v>0.122332643628892</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -42800,31 +46331,31 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.13300402995239299</v>
+        <v>0.51005194905755702</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.42214758664856999</v>
+        <v>-8.5903486157062003E-2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -42835,7 +46366,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.5487975961770004E-3</v>
+        <v>1.3206086540862E-2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -42844,7 +46375,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.16068653976835101</v>
+        <v>-0.144321962982394</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -42864,7 +46395,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2.0110257846073998E-2</v>
+        <v>8.1722622681685994E-2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -42873,13 +46404,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.0408044377007999E-2</v>
+        <v>-6.2441730577661003E-2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -42893,16 +46424,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.1866308500604E-2</v>
+        <v>4.0091816517151997E-2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>-0.16058383215046099</v>
+        <v>0.19180810236540499</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -42922,22 +46453,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.118693111448422</v>
+        <v>-0.10906168584768</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.116833398535777</v>
+        <v>-0.42009364036820002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>9</v>
@@ -42945,51 +46476,51 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.13004727673505401</v>
+        <v>8.3259552498954004E-2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.113198028969581</v>
+        <v>-0.18497658617351001</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.121633707127622</v>
+        <v>-0.23133933401989201</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.20629722793668001</v>
+        <v>-0.165371163602549</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -42998,27 +46529,27 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>-0.22074924929336601</v>
+        <v>0.141550210389773</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-6.9189891897264003E-2</v>
+        <v>0.35804491458431797</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -43027,18 +46558,18 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.28380813713410402</v>
+        <v>-0.25500355151994197</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -43047,123 +46578,123 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1.0768091631941E-2</v>
+        <v>-0.158434707802768</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.18171840671703501</v>
+        <v>0.16400944992288899</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>9.8124235311776997E-2</v>
+        <v>0.36157309686938799</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.1825536156102006E-2</v>
+        <v>-0.20935399242932701</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>9.0022009846411996E-2</v>
+        <v>0.13435816617684601</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>-0.20993465441058201</v>
+        <v>0.17206906406297801</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>-9.1786048057163006E-2</v>
+        <v>0.15587547968787799</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.4440748396796994E-2</v>
+        <v>-0.16263812072032899</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>7.5956989600520997E-2</v>
+        <v>0.15801340880009301</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -43172,27 +46703,27 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.142503277738254</v>
+        <v>0.15252763227504701</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>-7.7883704349590004E-3</v>
+        <v>-4.2487757242789997E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -43201,7 +46732,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -43212,25 +46743,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.140576772998454</v>
+        <v>-0.117814171421394</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>6.0703015159999998E-2</v>
+        <v>0.11275617177679501</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -43238,25 +46769,25 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.86888719284098503</v>
+        <v>-1.8414931372395998E-2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.18543314483307499</v>
+        <v>-3.3397464334143999E-2</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>9</v>
@@ -43270,36 +46801,36 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.16269737814101501</v>
+        <v>0.12545094050556799</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.28977691411775403</v>
+        <v>0.10940432564737999</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0.205192416799684</v>
+        <v>0.176714137535634</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -43308,36 +46839,36 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.53759364733703097</v>
+        <v>-0.14086243582480301</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.15535750227466</v>
+        <v>2.2526596868187001E-2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1.8948501250820999E-2</v>
+        <v>0.209552118869581</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -43346,33 +46877,33 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-0.19772524953996501</v>
+        <v>-4.1960853757126E-2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.113551029984298</v>
+        <v>9.3415148633384001E-2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>9</v>
@@ -43380,109 +46911,109 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.68229626510730801</v>
+        <v>-0.102635177218489</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>-0.54230077600077697</v>
+        <v>0.135876398827637</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-0.18984940261094699</v>
+        <v>-9.3576433148900005E-4</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>-0.19249137997421401</v>
+        <v>-4.8119228193510999E-2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.10287808208421199</v>
+        <v>-0.17148925560665201</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.190227387310481</v>
+        <v>0.20413363419272401</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>-0.24356309637710499</v>
+        <v>0.135863144844344</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>-0.602645126514048</v>
+        <v>3.3882108072132003E-2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -43491,27 +47022,27 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.40763850593886702</v>
+        <v>-0.15223832082091901</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>-0.38381877359983202</v>
+        <v>-0.10770773321409</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -43520,36 +47051,36 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>-0.29117369946692501</v>
+        <v>0.15538632329948501</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>-0.148765420272189</v>
+        <v>-3.2439998912852E-2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -43560,16 +47091,16 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-0.25508928401384501</v>
+        <v>-0.11898951861384</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>8.5767304603241001E-2</v>
+        <v>-0.40923130184600798</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -43578,36 +47109,36 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>-0.150731724559763</v>
+        <v>3.6338152191158997E-2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>-0.18219336326277899</v>
+        <v>0.100849279713009</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -43618,7 +47149,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-0.28853630294871602</v>
+        <v>-0.119135391597137</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -43627,13 +47158,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.18112179490879099</v>
+        <v>-5.5394059569297001E-2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>9</v>
@@ -43641,22 +47172,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>-0.24910052519921799</v>
+        <v>0.17459927614739601</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>-1.5431166091961901</v>
+        <v>-6.5027584615896999E-2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -43676,22 +47207,22 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>-0.269079504516468</v>
+        <v>-0.11376205798990099</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.61129073201107598</v>
+        <v>-7.2061258519043006E-2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>9</v>
@@ -43699,13 +47230,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-1.6779910411659001E-2</v>
+        <v>6.7207223935079996E-2</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -43714,13 +47245,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.39805091620184702</v>
+        <v>-0.20000679875257599</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
@@ -43734,16 +47265,16 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.36304337644908202</v>
+        <v>-0.158243137848496</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>-0.13669894706296401</v>
+        <v>0.111908260149312</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -43760,10 +47291,10 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.36064735360855299</v>
+        <v>5.0048887465697002E-2</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -43772,10 +47303,10 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>-0.293807517732739</v>
+        <v>9.6105461433904998E-2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -43789,19 +47320,19 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>-0.234046818270119</v>
+        <v>-1.0987782431799999E-3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>-0.117656368748717</v>
+        <v>-0.16801420274572801</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -43821,7 +47352,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0.23556018785309599</v>
+        <v>-2.1298505576274E-2</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -43830,13 +47361,13 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>-9.9626906402993001E-2</v>
+        <v>0.104505077199626</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
@@ -43847,19 +47378,19 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>-0.23201893883387101</v>
+        <v>-2.2742302728967E-2</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>-0.12460719544838</v>
+        <v>0.19748212519772301</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -43873,13 +47404,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>-0.184059041962922</v>
+        <v>-1.7958159898718001E-2</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -43888,7 +47419,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>4.1673866594978001E-2</v>
+        <v>4.7172646144169002E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -43908,7 +47439,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0.20967978452438399</v>
+        <v>9.0683298523990003E-3</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -43917,7 +47448,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.188604790877173</v>
+        <v>2.975015604078E-3</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -43934,10 +47465,10 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.20421712996166699</v>
+        <v>9.9191179827126996E-2</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -43946,13 +47477,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>8.2311752780547004E-2</v>
+        <v>5.3664149728770002E-3</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>8</v>
@@ -43966,19 +47497,19 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-0.244779518321424</v>
+        <v>-0.15467363747655299</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.55078111995761403</v>
+        <v>-4.7245770833776998E-2</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -43995,19 +47526,19 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.15670238085159199</v>
+        <v>2.2147098518280998E-2</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>-3.6114189626729E-2</v>
+        <v>-0.186268714288958</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -44024,22 +47555,22 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>-0.150151766789687</v>
+        <v>-0.23911485899985599</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>-0.115840577686232</v>
+        <v>-0.20115669735300201</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>9</v>
@@ -44047,13 +47578,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>-0.31346985679962303</v>
+        <v>0.195881075636505</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -44062,13 +47593,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.479685607733839</v>
+        <v>-0.155232369645563</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
@@ -44082,7 +47613,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>-0.20385966003610601</v>
+        <v>-0.32695812747156</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -44091,13 +47622,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-5.8074618578786E-2</v>
+        <v>-0.17377451139121</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>9</v>
@@ -44108,10 +47639,10 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0.205929591263109</v>
+        <v>0.14970564601005701</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -44120,13 +47651,13 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>2.6406037955164999E-2</v>
+        <v>-3.3679972290021003E-2</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
         <v>8</v>
@@ -44140,22 +47671,22 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>-0.162946628156174</v>
+        <v>-0.22534738651316399</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.206424547853337</v>
+        <v>0.13178104069579599</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>9</v>
@@ -44166,25 +47697,25 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>7.5271467168562006E-2</v>
+        <v>0.178971213629049</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.30377916739141197</v>
+        <v>-0.16706085153025299</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>8</v>
@@ -44198,22 +47729,22 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>-0.243638646138465</v>
+        <v>-0.31884221907738802</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>-0.57585478565266301</v>
+        <v>-0.165501274133209</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>9</v>
@@ -44224,22 +47755,22 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>9.7122913518376999E-2</v>
+        <v>0.26413236238451898</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.223315286957047</v>
+        <v>-0.23643970322416499</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -44256,22 +47787,22 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>-0.208219802790852</v>
+        <v>-0.15230453275990699</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>-0.10597033030021601</v>
+        <v>0.11652699414513</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>9</v>
@@ -44279,60 +47810,60 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>-0.27169902168804</v>
+        <v>0.16030939167928199</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>9.7634969577435005E-2</v>
+        <v>0.21964416896979699</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>8.9849318720565993E-2</v>
+        <v>-0.14666354559832201</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>6.6768498630303E-2</v>
+        <v>0.122210050239013</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -44343,25 +47874,25 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.119001415981197</v>
+        <v>-1.0437161274953999E-2</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0.424566700255256</v>
+        <v>-9.8879019474089995E-3</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -44372,25 +47903,25 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>-0.16845590486294901</v>
+        <v>-0.26462168388531299</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.0644944351633E-2</v>
+        <v>-0.102125441669681</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -44398,68 +47929,68 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>-0.19536190490597699</v>
+        <v>2.4863030131543E-2</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>-1.1534461266813E-2</v>
+        <v>-0.180333208606306</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1.2114572464742001E-2</v>
+        <v>-0.21388553958238499</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>-0.13179639359761</v>
+        <v>0.152360403075014</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>-0.13404977543878499</v>
+        <v>0.20452021866669801</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -44468,132 +47999,132 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>7.1045853483810003E-3</v>
+        <v>0.33607513888757701</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>-3.2008203060529998E-3</v>
+        <v>-0.22066273492487001</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>-7.7908976728620002E-3</v>
+        <v>0.180597958035697</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>-0.16315323764219999</v>
+        <v>0.19438320462268299</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.13505733082723501</v>
+        <v>-0.173755922781717</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-1.6160071816472998E-2</v>
+        <v>-0.22148123999986</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>-2.2059160019618999E-2</v>
+        <v>0.20591398512725101</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>-0.14396111532644101</v>
+        <v>0.18794673141535501</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.10175670003069801</v>
+        <v>-0.157780328773786</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -44604,36 +48135,36 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>-0.62045441627165898</v>
+        <v>-0.183413759454363</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>-0.18824256090369601</v>
+        <v>-0.178745346212309</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>-0.32786209774786501</v>
+        <v>0.18923781301245199</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -44642,7 +48173,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>2.7481269787186999E-2</v>
+        <v>-5.1790508429324998E-2</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -44651,7 +48182,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -44659,19 +48190,19 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>-1.4384578159249E-2</v>
+        <v>-0.273604179944134</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>7.6353833506799997E-3</v>
+        <v>-0.11538044445569499</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -44680,36 +48211,36 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>-0.29112683647721999</v>
+        <v>0.14208321723940401</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>9.5871145538199993E-3</v>
+        <v>-0.120323807673319</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -44720,7 +48251,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-0.20215083009135701</v>
+        <v>-0.15704346654469301</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -44729,16 +48260,16 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-3.665693457456E-3</v>
+        <v>-1.2915638632419999E-3</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -44746,39 +48277,39 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>-0.17504270489176199</v>
+        <v>-1.6539689583644001E-2</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>-8.8540205878963996E-2</v>
+        <v>6.2588791318209006E-2</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-1.3827270973148001E-2</v>
+        <v>-0.35615409716945001</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -44787,7 +48318,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0.15395795512156801</v>
+        <v>0.131278260351746</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -44796,27 +48327,27 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>-0.28960503053721798</v>
+        <v>0.161271240962439</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>-2.2064303180318001E-2</v>
+        <v>-0.142186471082515</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -44825,221 +48356,221 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>-7.0748186511801994E-2</v>
+        <v>5.3208037610046E-2</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>-0.129621047712693</v>
+        <v>1.0223984287827E-2</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>-0.23526190201906</v>
+        <v>0.105092369665734</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>-8.5535994862075998E-2</v>
+        <v>-1.2818413329636E-2</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0.133373181630733</v>
+        <v>-0.10201137287809001</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>-0.13840149463177201</v>
+        <v>9.7624352778300004E-4</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>-0.20678340045528201</v>
+        <v>0.11757172801388099</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>-1.1422628254273001E-2</v>
+        <v>3.7730149618120002E-3</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.154603760340599</v>
+        <v>-0.15918113453205801</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>-1.6906588683804E-2</v>
+        <v>0.11313383398636601</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>-0.34926442451772199</v>
+        <v>0.122697982367105</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.178889198876621</v>
+        <v>-0.13366200806164999</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.20999969894231699</v>
+        <v>-0.115999808439659</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>-1.9219875018188001E-2</v>
+        <v>0.139786711099712</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>-0.14418954349927399</v>
+        <v>0.16345198403401401</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -45048,27 +48579,27 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>3.7269343939503999E-2</v>
+        <v>-3.8748227954689997E-2</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>5.4960128872550001E-3</v>
+        <v>-0.13991393499259799</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -45077,16 +48608,16 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0.17807130839600099</v>
+        <v>0.162419218849611</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -45094,28 +48625,28 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>-1.1351658254565E-2</v>
+        <v>9.3064281274971003E-2</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>3.1646725527590999E-2</v>
+        <v>-0.108765002620727</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -45123,68 +48654,68 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>-0.364167363623073</v>
+        <v>-0.11062642586065401</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>-1.5367783746879001E-2</v>
+        <v>-2.8282894996770002E-3</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>-5.3849175192234998E-2</v>
+        <v>-2.0699391527400001E-3</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>-8.9262955081309998E-3</v>
+        <v>-0.113837512095641</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.17565136689923599</v>
+        <v>-0.17824162871940299</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -45193,27 +48724,27 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>-4.9300997786497998E-2</v>
+        <v>-5.4817109746539998E-3</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>-0.141030565241131</v>
+        <v>0.13189551887155701</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -45222,36 +48753,36 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>9.2168507222411003E-2</v>
+        <v>7.6402326949309998E-2</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>-4.5173225803292999E-2</v>
+        <v>-0.123514009213835</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>-7.8594866488599995E-4</v>
+        <v>0.12191299153200701</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -45260,7 +48791,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -45271,25 +48802,25 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0.86716578249478804</v>
+        <v>0.10540591574715499</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.12633696576212899</v>
+        <v>-1.6821573163617001E-2</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -45297,19 +48828,19 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>-0.475775821238342</v>
+        <v>3.6931581275430003E-2</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>-5.5275296961013999E-2</v>
+        <v>3.2453022433112003E-2</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -45318,65 +48849,65 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>-0.181684383897321</v>
+        <v>0.10899648432013399</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>-0.13038029538190299</v>
+        <v>8.2320292079367002E-2</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>7.8960974971108003E-2</v>
+        <v>-9.7046751234984005E-2</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>-0.145881218140129</v>
+        <v>3.3825510797829998E-3</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -45384,10 +48915,10 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>0.109635613051058</v>
+        <v>0.178687757762445</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -45396,16 +48927,16 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>4.1985333501338998E-2</v>
+        <v>-1.3051369501976001E-2</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -45413,10 +48944,10 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>-3.1380801259459998E-3</v>
+        <v>-0.119347291889037</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -45425,7 +48956,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0.19405681849246201</v>
+        <v>6.2206800287199998E-4</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -45434,27 +48965,27 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>-0.20768019976360899</v>
+        <v>0.15011198786749899</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.11115733763350399</v>
+        <v>-1.1652436904024E-2</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -45463,18 +48994,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>2.1646751328834E-2</v>
+        <v>6.6583278160225995E-2</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -45483,16 +49014,16 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>0.15672185721788601</v>
+        <v>8.4979370741900002E-3</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -45500,28 +49031,28 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>8.8176936693314001E-2</v>
+        <v>-0.53317081973829294</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>-0.44846431056515002</v>
+        <v>0.418776847215315</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -45529,19 +49060,19 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>-2.1115010004940999E-2</v>
+        <v>0.174486684852629</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.11877744323401999</v>
+        <v>-0.11983927625103701</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -45550,7 +49081,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -45561,7 +49092,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-0.196909587414341</v>
+        <v>-0.110900906428491</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -45570,103 +49101,103 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>0.25168103873083503</v>
+        <v>0.12530896079849899</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>6.1114860211850001E-3</v>
+        <v>-3.1255364625172997E-2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>0.140951291407652</v>
+        <v>8.3356723436002006E-2</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>-0.143387721790706</v>
+        <v>0.19486796385866001</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107">
-        <v>-0.149009877149332</v>
+        <v>0.48492690087323098</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3.7483498692543998E-2</v>
+        <v>-0.60077377795770504</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.27794637619575202</v>
+        <v>-0.237123487019715</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -45677,94 +49208,94 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-4.9434911112671003E-2</v>
+        <v>1.1669641101446001E-2</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.143196896681515</v>
+        <v>-2.2932818099174999E-2</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.147441698780436</v>
+        <v>-0.15566774087615901</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>-0.124070920960012</v>
+        <v>0.108522311265966</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>-0.22943392728856399</v>
+        <v>4.7832708928762999E-2</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.13809517122578499</v>
+        <v>-0.107807582326715</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>1.7230146773605001E-2</v>
+        <v>-0.117697529359594</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -45773,56 +49304,56 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>0.30967476970906099</v>
+        <v>-2.4182710563851E-2</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>-0.19762520668518099</v>
+        <v>0.18737942908371399</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>0.101110984221598</v>
+        <v>-4.7641643289103003E-2</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>-1.4091138729156001E-2</v>
+        <v>-0.124133860307092</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -45831,7 +49362,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>0.313008481045355</v>
+        <v>-0.121484781558247</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -45840,18 +49371,18 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>-0.19157775918272801</v>
+        <v>0.15927304427733399</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -45860,56 +49391,56 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>0.16673626727662899</v>
+        <v>9.3392892195125005E-2</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>-4.2795823137759002E-2</v>
+        <v>8.6727100335694002E-2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0.237481607644942</v>
+        <v>0.143856197150079</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>-0.19544263310872401</v>
+        <v>0.20847652484180801</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -45918,65 +49449,65 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.15333722437097999</v>
+        <v>0.105892009059274</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>-3.5161070300630003E-2</v>
+        <v>-0.112755145241889</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.28649661457622</v>
+        <v>0.11334380622228001</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>-0.26206166889830501</v>
+        <v>0.1171300247188</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.141312807673285</v>
+        <v>9.0801119993489995E-3</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -45985,18 +49516,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0.15266361201084799</v>
+        <v>-0.11972002909356901</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -46005,335 +49536,45 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>-0.14178016864815601</v>
+        <v>-6.3879275043950995E-2</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>-0.16376750632853601</v>
+        <v>0.12982867431265299</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>-0.12979259881247501</v>
+        <v>-0.11189895173039401</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>3.964308724888E-2</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>1.8392849802474999E-2</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>-0.174719526608028</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>1.6754038689701E-2</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>6.9699170533101998E-2</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>0.13402375593930399</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>-0.13690208206790899</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>-0.120690409064565</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>-0.42533330909081601</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>0.63882606965283395</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>3.7604850908614998E-2</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>-6.4957875546775998E-2</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>5.0095782996209997E-3</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>-0.176630349491433</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>-0.12674927267206601</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>0.105856422085327</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>-0.15138710846622599</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>-0.15622402729173099</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>-0.12074033460738599</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>-8.7469192835413004E-2</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="30" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC3431A2-E8AE-4FC4-991E-BF2D88A2C91D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D9306-7CC2-4811-A201-EA3B40165022}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46062,7 +46062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I121"/>
     </sheetView>
   </sheetViews>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC3431A2-E8AE-4FC4-991E-BF2D88A2C91D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6089C275-0D90-4686-A462-31C4075F452C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1140" windowWidth="19200" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="27">
   <si>
     <t>first_peak</t>
   </si>
@@ -46060,10 +46060,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I121"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46105,7 +46105,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.13444201866398101</v>
+        <v>-0.134442019</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -46114,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.15133518107074501</v>
+        <v>-0.15133518100000001</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -46134,7 +46134,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.0159469682047002E-2</v>
+        <v>6.015947E-2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -46143,7 +46143,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.11171848257962801</v>
+        <v>0.11171848299999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -46163,7 +46163,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.11870922764802599</v>
+        <v>-0.118709228</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -46172,7 +46172,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.42912442290857</v>
+        <v>-0.42912442299999998</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -46192,7 +46192,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.2964292925891999E-2</v>
+        <v>2.2964293E-2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -46201,7 +46201,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>6.9158161297062995E-2</v>
+        <v>6.9158160999999996E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -46221,7 +46221,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.171887125231866</v>
+        <v>-0.171887125</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -46230,7 +46230,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.126629040927692</v>
+        <v>-0.126629041</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -46250,7 +46250,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.144720663820917</v>
+        <v>-0.144720664</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -46259,7 +46259,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.30448439358781998</v>
+        <v>0.30448439399999999</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -46279,7 +46279,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6.4896550725600993E-2</v>
+        <v>6.4896550999999997E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -46288,7 +46288,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.3777235698478998E-2</v>
+        <v>-6.3777236000000001E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -46308,7 +46308,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.5391520343475003E-2</v>
+        <v>4.5391519999999998E-2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -46317,7 +46317,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.122332643628892</v>
+        <v>0.122332644</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -46337,7 +46337,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.51005194905755702</v>
+        <v>0.51005194899999995</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -46346,7 +46346,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-8.5903486157062003E-2</v>
+        <v>-8.5903486000000001E-2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -46366,7 +46366,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.3206086540862E-2</v>
+        <v>1.3206087E-2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.144321962982394</v>
+        <v>-0.144321963</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -46395,7 +46395,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>8.1722622681685994E-2</v>
+        <v>8.1722622999999994E-2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -46404,7 +46404,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-6.2441730577661003E-2</v>
+        <v>-6.2441731E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -46424,7 +46424,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.0091816517151997E-2</v>
+        <v>4.0091817000000002E-2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -46433,7 +46433,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.19180810236540499</v>
+        <v>0.19180810200000001</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -46453,7 +46453,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.10906168584768</v>
+        <v>-0.109061686</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -46462,7 +46462,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.42009364036820002</v>
+        <v>-0.42009363999999999</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -46482,7 +46482,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.3259552498954004E-2</v>
+        <v>8.3259552000000001E-2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -46491,7 +46491,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.18497658617351001</v>
+        <v>-0.184976586</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -46511,7 +46511,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.23133933401989201</v>
+        <v>-0.23133933400000001</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -46520,7 +46520,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-0.165371163602549</v>
+        <v>-0.16537116399999999</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -46540,7 +46540,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.141550210389773</v>
+        <v>0.14155021000000001</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -46549,7 +46549,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.35804491458431797</v>
+        <v>0.35804491500000002</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -46569,7 +46569,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.25500355151994197</v>
+        <v>-0.25500355200000002</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -46578,7 +46578,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>-0.158434707802768</v>
+        <v>-0.15843470800000001</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.16400944992288899</v>
+        <v>0.16400945</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -46607,7 +46607,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.36157309686938799</v>
+        <v>0.36157309700000001</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -46627,7 +46627,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.20935399242932701</v>
+        <v>-0.20935399199999999</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -46636,7 +46636,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.13435816617684601</v>
+        <v>0.134358166</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -46656,7 +46656,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.17206906406297801</v>
+        <v>0.17206906399999999</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -46665,7 +46665,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.15587547968787799</v>
+        <v>0.15587548000000001</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -46685,7 +46685,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>-0.16263812072032899</v>
+        <v>-0.162638121</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -46694,7 +46694,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.15801340880009301</v>
+        <v>0.15801340899999999</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -46714,7 +46714,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.15252763227504701</v>
+        <v>0.152527632</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -46723,7 +46723,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>-4.2487757242789997E-2</v>
+        <v>-4.2487757000000001E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -46743,7 +46743,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.117814171421394</v>
+        <v>-0.117814171</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -46752,7 +46752,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.11275617177679501</v>
+        <v>0.112756172</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -46772,7 +46772,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>-1.8414931372395998E-2</v>
+        <v>-1.8414930999999999E-2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -46781,7 +46781,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>-3.3397464334143999E-2</v>
+        <v>-3.3397464000000002E-2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -46801,7 +46801,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.12545094050556799</v>
+        <v>0.12545094100000001</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -46810,7 +46810,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.10940432564737999</v>
+        <v>0.109404326</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -46830,7 +46830,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0.176714137535634</v>
+        <v>0.17671413799999999</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -46839,7 +46839,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.14086243582480301</v>
+        <v>-0.14086243600000001</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -46859,7 +46859,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2.2526596868187001E-2</v>
+        <v>2.2526596999999999E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -46868,7 +46868,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.209552118869581</v>
+        <v>0.20955211900000001</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -46888,7 +46888,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-4.1960853757126E-2</v>
+        <v>-4.1960853999999999E-2</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -46897,7 +46897,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>9.3415148633384001E-2</v>
+        <v>9.3415149000000003E-2</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>-0.102635177218489</v>
+        <v>-0.10263517699999999</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -46926,7 +46926,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.135876398827637</v>
+        <v>0.13587639900000001</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -46946,7 +46946,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-9.3576433148900005E-4</v>
+        <v>-9.3576399999999995E-4</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -46955,7 +46955,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-4.8119228193510999E-2</v>
+        <v>-4.8119228E-2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -46975,7 +46975,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-0.17148925560665201</v>
+        <v>-0.17148925600000001</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -46984,7 +46984,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.20413363419272401</v>
+        <v>0.20413363400000001</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -47004,7 +47004,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0.135863144844344</v>
+        <v>0.13586314499999999</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -47013,7 +47013,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>3.3882108072132003E-2</v>
+        <v>3.3882108000000001E-2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -47033,7 +47033,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>-0.15223832082091901</v>
+        <v>-0.15223832100000001</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -47042,7 +47042,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>-0.10770773321409</v>
+        <v>-0.107707733</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -47062,7 +47062,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.15538632329948501</v>
+        <v>0.15538632299999999</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -47071,7 +47071,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>-3.2439998912852E-2</v>
+        <v>-3.2439998999999997E-2</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -47091,7 +47091,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-0.11898951861384</v>
+        <v>-0.118989519</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -47100,7 +47100,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.40923130184600798</v>
+        <v>-0.40923130200000002</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -47120,7 +47120,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.6338152191158997E-2</v>
+        <v>3.6338151999999999E-2</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -47129,7 +47129,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.100849279713009</v>
+        <v>0.10084928</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -47149,7 +47149,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-0.119135391597137</v>
+        <v>-0.11913539200000001</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -47158,7 +47158,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-5.5394059569297001E-2</v>
+        <v>-5.5394060000000002E-2</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -47178,7 +47178,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0.17459927614739601</v>
+        <v>0.174599276</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -47187,7 +47187,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>-6.5027584615896999E-2</v>
+        <v>-6.5027584999999999E-2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -47207,7 +47207,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>-0.11376205798990099</v>
+        <v>-0.113762058</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-7.2061258519043006E-2</v>
+        <v>-7.2061259000000003E-2</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -47236,7 +47236,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6.7207223935079996E-2</v>
+        <v>6.7207223999999996E-2</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -47245,7 +47245,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.20000679875257599</v>
+        <v>-0.20000679900000001</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -47265,7 +47265,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.158243137848496</v>
+        <v>-0.15824313800000001</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -47274,7 +47274,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.111908260149312</v>
+        <v>0.11190826</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -47294,7 +47294,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5.0048887465697002E-2</v>
+        <v>5.0048887E-2</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -47303,7 +47303,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>9.6105461433904998E-2</v>
+        <v>9.6105461000000003E-2</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -47323,7 +47323,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>-1.0987782431799999E-3</v>
+        <v>-1.0987779999999999E-3</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -47332,7 +47332,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>-0.16801420274572801</v>
+        <v>-0.168014203</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -47352,7 +47352,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>-2.1298505576274E-2</v>
+        <v>-2.1298505999999998E-2</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -47361,7 +47361,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0.104505077199626</v>
+        <v>0.104505077</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -47381,7 +47381,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>-2.2742302728967E-2</v>
+        <v>-2.2742302999999998E-2</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -47390,7 +47390,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0.19748212519772301</v>
+        <v>0.19748212500000001</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -47410,7 +47410,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>-1.7958159898718001E-2</v>
+        <v>-1.7958160000000001E-2</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -47419,7 +47419,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>4.7172646144169002E-2</v>
+        <v>4.7172645999999999E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -47439,7 +47439,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>9.0683298523990003E-3</v>
+        <v>9.0683299999999994E-3</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -47448,7 +47448,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.975015604078E-3</v>
+        <v>2.975016E-3</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -47468,7 +47468,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>9.9191179827126996E-2</v>
+        <v>9.9191180000000004E-2</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -47477,7 +47477,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>5.3664149728770002E-3</v>
+        <v>5.3664150000000002E-3</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -47497,7 +47497,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-0.15467363747655299</v>
+        <v>-0.154673637</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -47506,7 +47506,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-4.7245770833776998E-2</v>
+        <v>-4.7245770999999999E-2</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -47526,7 +47526,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2.2147098518280998E-2</v>
+        <v>2.2147099E-2</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -47535,7 +47535,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.186268714288958</v>
+        <v>-0.186268714</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -47555,7 +47555,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>-0.23911485899985599</v>
+        <v>-0.23911485900000001</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -47564,7 +47564,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>-0.20115669735300201</v>
+        <v>-0.201156697</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -47584,7 +47584,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0.195881075636505</v>
+        <v>0.19588107599999999</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -47593,7 +47593,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.155232369645563</v>
+        <v>-0.15523237000000001</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -47613,7 +47613,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>-0.32695812747156</v>
+        <v>-0.32695812699999999</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -47622,7 +47622,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-0.17377451139121</v>
+        <v>-0.17377451099999999</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -47642,7 +47642,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0.14970564601005701</v>
+        <v>0.149705646</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -47651,7 +47651,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>-3.3679972290021003E-2</v>
+        <v>-3.3679972000000002E-2</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -47671,7 +47671,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>-0.22534738651316399</v>
+        <v>-0.22534738700000001</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -47680,7 +47680,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0.13178104069579599</v>
+        <v>0.13178104099999999</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -47700,7 +47700,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0.178971213629049</v>
+        <v>0.17897121399999999</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -47709,7 +47709,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.16706085153025299</v>
+        <v>-0.16706085200000001</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -47729,7 +47729,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>-0.31884221907738802</v>
+        <v>-0.31884221899999998</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -47738,7 +47738,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>-0.165501274133209</v>
+        <v>-0.165501274</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -47758,7 +47758,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.26413236238451898</v>
+        <v>0.26413236200000001</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -47767,7 +47767,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.23643970322416499</v>
+        <v>-0.236439703</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -47787,7 +47787,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>-0.15230453275990699</v>
+        <v>-0.15230453299999999</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -47796,7 +47796,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0.11652699414513</v>
+        <v>0.11652699399999999</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -47816,7 +47816,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0.16030939167928199</v>
+        <v>0.160309392</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -47825,7 +47825,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0.21964416896979699</v>
+        <v>0.219644169</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -47845,7 +47845,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-0.14666354559832201</v>
+        <v>-0.14666354600000001</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -47854,7 +47854,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.122210050239013</v>
+        <v>0.12221005</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -47874,7 +47874,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>-1.0437161274953999E-2</v>
+        <v>-1.0437161E-2</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -47883,7 +47883,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>-9.8879019474089995E-3</v>
+        <v>-9.8879020000000005E-3</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -47903,7 +47903,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>-0.26462168388531299</v>
+        <v>-0.26462168400000002</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -47912,7 +47912,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>-0.102125441669681</v>
+        <v>-0.102125442</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -47932,7 +47932,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>2.4863030131543E-2</v>
+        <v>2.4863030000000001E-2</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -47941,7 +47941,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.180333208606306</v>
+        <v>-0.18033320899999999</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -47961,7 +47961,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>-0.21388553958238499</v>
+        <v>-0.21388554000000001</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -47970,7 +47970,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0.152360403075014</v>
+        <v>0.15236040300000001</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -47990,7 +47990,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0.20452021866669801</v>
+        <v>0.204520219</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -47999,7 +47999,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0.33607513888757701</v>
+        <v>0.33607513900000002</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -48019,7 +48019,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>-0.22066273492487001</v>
+        <v>-0.220662735</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -48028,7 +48028,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0.180597958035697</v>
+        <v>0.180597958</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -48048,7 +48048,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0.19438320462268299</v>
+        <v>0.194383205</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -48057,7 +48057,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.173755922781717</v>
+        <v>-0.17375592300000001</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -48077,7 +48077,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-0.22148123999986</v>
+        <v>-0.22148124</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -48086,7 +48086,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0.20591398512725101</v>
+        <v>0.20591398499999999</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -48106,7 +48106,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0.18794673141535501</v>
+        <v>0.18794673100000001</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -48115,7 +48115,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.157780328773786</v>
+        <v>-0.157780329</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -48135,7 +48135,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>-0.183413759454363</v>
+        <v>-0.18341375900000001</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -48144,7 +48144,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>-0.178745346212309</v>
+        <v>-0.178745346</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -48164,7 +48164,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.18923781301245199</v>
+        <v>0.189237813</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -48173,7 +48173,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-5.1790508429324998E-2</v>
+        <v>-5.1790507999999999E-2</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -48193,7 +48193,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-0.273604179944134</v>
+        <v>-0.27360417999999997</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -48202,7 +48202,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>-0.11538044445569499</v>
+        <v>-0.115380444</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -48222,7 +48222,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.14208321723940401</v>
+        <v>0.14208321700000001</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -48231,7 +48231,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.120323807673319</v>
+        <v>-0.120323808</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -48251,7 +48251,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-0.15704346654469301</v>
+        <v>-0.15704346699999999</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -48260,7 +48260,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-1.2915638632419999E-3</v>
+        <v>-1.291564E-3</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -48280,7 +48280,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>-1.6539689583644001E-2</v>
+        <v>-1.6539689999999999E-2</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -48289,7 +48289,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>6.2588791318209006E-2</v>
+        <v>6.2588791000000005E-2</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -48309,7 +48309,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-0.35615409716945001</v>
+        <v>-0.356154097</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -48318,7 +48318,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0.131278260351746</v>
+        <v>0.13127826000000001</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -48338,7 +48338,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0.161271240962439</v>
+        <v>0.16127124100000001</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -48347,7 +48347,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.142186471082515</v>
+        <v>-0.14218647100000001</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -48367,7 +48367,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>5.3208037610046E-2</v>
+        <v>5.3208037999999999E-2</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -48376,7 +48376,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1.0223984287827E-2</v>
+        <v>1.0223984E-2</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -48396,7 +48396,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0.105092369665734</v>
+        <v>0.10509237</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -48405,7 +48405,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>-1.2818413329636E-2</v>
+        <v>-1.2818413000000001E-2</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -48425,7 +48425,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>-0.10201137287809001</v>
+        <v>-0.102011373</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -48434,7 +48434,7 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>9.7624352778300004E-4</v>
+        <v>9.7624400000000003E-4</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -48454,7 +48454,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.11757172801388099</v>
+        <v>0.117571728</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -48463,7 +48463,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>3.7730149618120002E-3</v>
+        <v>3.7730149999999998E-3</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -48483,7 +48483,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>-0.15918113453205801</v>
+        <v>-0.159181135</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -48492,7 +48492,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0.11313383398636601</v>
+        <v>0.113133834</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -48512,7 +48512,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0.122697982367105</v>
+        <v>0.122697982</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -48521,7 +48521,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.13366200806164999</v>
+        <v>-0.133662008</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -48541,7 +48541,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>-0.115999808439659</v>
+        <v>-0.115999808</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -48550,7 +48550,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0.139786711099712</v>
+        <v>0.13978671100000001</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -48570,7 +48570,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0.16345198403401401</v>
+        <v>0.16345198399999999</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -48579,7 +48579,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>-3.8748227954689997E-2</v>
+        <v>-3.8748228000000003E-2</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -48599,7 +48599,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>-0.13991393499259799</v>
+        <v>-0.13991393499999999</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -48608,7 +48608,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0.162419218849611</v>
+        <v>0.162419219</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -48628,7 +48628,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>9.3064281274971003E-2</v>
+        <v>9.3064280999999999E-2</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -48637,7 +48637,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.108765002620727</v>
+        <v>-0.108765003</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -48657,7 +48657,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>-0.11062642586065401</v>
+        <v>-0.110626426</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -48666,7 +48666,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>-2.8282894996770002E-3</v>
+        <v>-2.8282889999999999E-3</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -48686,7 +48686,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>-2.0699391527400001E-3</v>
+        <v>-2.0699389999999998E-3</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -48695,7 +48695,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.113837512095641</v>
+        <v>-0.113837512</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -48715,7 +48715,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>-0.17824162871940299</v>
+        <v>-0.17824162900000001</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -48724,7 +48724,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>-5.4817109746539998E-3</v>
+        <v>-5.4817110000000002E-3</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -48744,7 +48744,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0.13189551887155701</v>
+        <v>0.13189551899999999</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -48753,7 +48753,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>7.6402326949309998E-2</v>
+        <v>7.6402327000000006E-2</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -48773,7 +48773,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>-0.123514009213835</v>
+        <v>-0.12351400899999999</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -48782,7 +48782,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>0.12191299153200701</v>
+        <v>0.121912992</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -48802,7 +48802,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0.10540591574715499</v>
+        <v>0.105405916</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -48811,7 +48811,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-1.6821573163617001E-2</v>
+        <v>-1.6821572999999999E-2</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -48831,7 +48831,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>3.6931581275430003E-2</v>
+        <v>3.6931580999999998E-2</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -48840,7 +48840,7 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>3.2453022433112003E-2</v>
+        <v>3.2453021999999998E-2</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -48860,7 +48860,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0.10899648432013399</v>
+        <v>0.108996484</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -48869,7 +48869,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>8.2320292079367002E-2</v>
+        <v>8.2320292000000003E-2</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -48889,7 +48889,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>-9.7046751234984005E-2</v>
+        <v>-9.7046751000000001E-2</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -48898,7 +48898,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>3.3825510797829998E-3</v>
+        <v>3.3825510000000001E-3</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -48918,7 +48918,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0.178687757762445</v>
+        <v>0.178687758</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -48927,7 +48927,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>-1.3051369501976001E-2</v>
+        <v>-1.305137E-2</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -48947,7 +48947,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>-0.119347291889037</v>
+        <v>-0.11934729199999999</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -48956,7 +48956,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>6.2206800287199998E-4</v>
+        <v>6.2206800000000003E-4</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -48976,7 +48976,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>0.15011198786749899</v>
+        <v>0.150111988</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -48985,7 +48985,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>-1.1652436904024E-2</v>
+        <v>-1.1652437E-2</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>6.6583278160225995E-2</v>
+        <v>6.6583277999999996E-2</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -49014,7 +49014,7 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>8.4979370741900002E-3</v>
+        <v>8.4979370000000005E-3</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -49034,7 +49034,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>-0.53317081973829294</v>
+        <v>-0.53317082000000005</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -49043,7 +49043,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0.418776847215315</v>
+        <v>0.41877684700000001</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -49063,7 +49063,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>0.174486684852629</v>
+        <v>0.174486685</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -49072,7 +49072,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-0.11983927625103701</v>
+        <v>-0.11983927599999999</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -49092,7 +49092,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-0.110900906428491</v>
+        <v>-0.11090090599999999</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -49101,7 +49101,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>0.12530896079849899</v>
+        <v>0.125308961</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -49121,7 +49121,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>-3.1255364625172997E-2</v>
+        <v>-3.1255365E-2</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -49130,7 +49130,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>8.3356723436002006E-2</v>
+        <v>8.3356722999999994E-2</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -49150,7 +49150,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0.19486796385866001</v>
+        <v>0.194867964</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -49159,7 +49159,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0.48492690087323098</v>
+        <v>0.48492690100000002</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -49179,7 +49179,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>-0.60077377795770504</v>
+        <v>-0.60077377799999998</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -49188,7 +49188,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>-0.237123487019715</v>
+        <v>-0.23712348699999999</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -49208,7 +49208,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>1.1669641101446001E-2</v>
+        <v>1.1669641E-2</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -49217,7 +49217,7 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>-2.2932818099174999E-2</v>
+        <v>-2.2932818000000001E-2</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -49237,7 +49237,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>-0.15566774087615901</v>
+        <v>-0.155667741</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -49246,7 +49246,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>0.108522311265966</v>
+        <v>0.108522311</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -49266,7 +49266,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>4.7832708928762999E-2</v>
+        <v>4.7832709000000001E-2</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -49275,7 +49275,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>-0.107807582326715</v>
+        <v>-0.107807582</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -49295,7 +49295,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>-0.117697529359594</v>
+        <v>-0.117697529</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -49304,7 +49304,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>-2.4182710563851E-2</v>
+        <v>-2.4182710999999999E-2</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -49324,7 +49324,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>0.18737942908371399</v>
+        <v>0.18737942899999999</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -49333,7 +49333,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>-4.7641643289103003E-2</v>
+        <v>-4.7641642999999997E-2</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -49353,7 +49353,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>-0.124133860307092</v>
+        <v>-0.12413386</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -49362,7 +49362,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>-0.121484781558247</v>
+        <v>-0.121484782</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -49382,7 +49382,7 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>0.15927304427733399</v>
+        <v>0.159273044</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -49391,7 +49391,7 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>9.3392892195125005E-2</v>
+        <v>9.3392892000000005E-2</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -49411,7 +49411,7 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>8.6727100335694002E-2</v>
+        <v>8.6727100000000001E-2</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -49420,7 +49420,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0.143856197150079</v>
+        <v>0.14385619699999999</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -49440,7 +49440,7 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>0.20847652484180801</v>
+        <v>0.208476525</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -49449,7 +49449,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.105892009059274</v>
+        <v>0.105892009</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -49469,7 +49469,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>-0.112755145241889</v>
+        <v>-0.112755145</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -49478,7 +49478,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.11334380622228001</v>
+        <v>0.11334380600000001</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -49498,7 +49498,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>0.1171300247188</v>
+        <v>0.117130025</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -49507,7 +49507,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>9.0801119993489995E-3</v>
+        <v>9.0801119999999996E-3</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -49527,7 +49527,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>-0.11972002909356901</v>
+        <v>-0.11972002900000001</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -49536,7 +49536,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>-6.3879275043950995E-2</v>
+        <v>-6.3879274999999999E-2</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -49556,7 +49556,7 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>0.12982867431265299</v>
+        <v>0.12982867400000001</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -49565,7 +49565,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>-0.11189895173039401</v>
+        <v>-0.111898952</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -49575,6 +49575,2587 @@
       </c>
       <c r="I121" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>-0.192599603290801</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0.149453614155974</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>4.5895041596461003E-2</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0.309895358031478</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>-0.207466539852243</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0.16404748688027601</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0.130917065004518</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>-0.26360674197705602</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>-0.29348461896359901</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>-0.120954367298072</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>-0.48191736511646499</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>-0.17465350445651701</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>0.34695775395133899</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>-0.29891169453785299</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>-0.21147035255465199</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>-0.79124143043642703</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0.27764796855316498</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0.19764193052913701</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>-0.13392549323330899</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>-0.123380724352608</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0.21905243101098101</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0.177717760725879</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>-0.237217916007639</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>-0.126598876372815</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>8.8115238945699996E-3</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>-0.26444634331843703</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>-0.25596241663328601</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>-0.116237686543126</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>-1.5325040631473E-2</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1.08373655535008</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>-0.25456139810515799</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>-0.60184683225587099</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0.18462639863073599</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0.283468285472322</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>-0.14819440236291501</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>-0.61864327696256405</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>3.2164030288606003E-2</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>2.8029395818391999E-2</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>-0.16225957973203001</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0.16016923155254301</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0.22381711250113701</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>-0.109761199398207</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>-0.13298007635433701</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>-6.820967720427E-2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2.0265851853149999E-3</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>-0.132408438282172</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>-0.13842122716859001</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>-0.36972641671052697</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>-0.245517419683284</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0.451238699713709</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>-0.24518203014954101</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>-0.48927308785826301</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>3.2318329080224001E-2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>-0.26105390530214401</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>-0.15746835577742399</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>-0.39468212879065601</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>0.84551350116701196</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0.239101487308127</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>-0.19129599769761799</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0.16991034066292601</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>-0.26795982009499397</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0.40460682240590901</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>-0.41834517404687899</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>-0.20805827870947399</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>-0.23040601931850499</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0.14951990027008599</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>-0.33335862766697599</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>-0.63587457077132803</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0.193834242737912</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>4.9612358312254003E-2</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>-0.14990811136854101</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>-0.12629773605129099</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0.30143592146320503</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0.21627892960981501</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>-0.37444725341665003</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>-0.64386080623515096</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>-0.243173453404054</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>3.1294442438073999E-2</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>-0.32228136804910201</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>-0.184224726862496</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>-0.249575801003345</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0.18224649776319199</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>-0.14818888840837499</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>-0.48476453234550698</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>-0.24830091901610099</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0.13601868824277</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>-0.21949345156406999</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>-0.43558635626084502</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>-5.8100402117764002E-2</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>-0.23409079095326099</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>-0.14650659833260399</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>-0.102358197209554</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>-1.0579662439017E-2</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>5.3527157300471001E-2</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>-0.129669708343046</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>-7.6827388314038E-2</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>5.6803749813407002E-2</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>3.6414817824587997E-2</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>-0.24899884616986301</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>5.3850852399185002E-2</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>-0.210634692293486</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0.111898161912733</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>-0.15857498621185501</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>-0.60627519902109095</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>5.4692322696633003E-2</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>-6.5608157148340004E-3</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>7.7228202419988998E-2</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>4.3006180541197002E-2</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>-0.106523636781959</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>-5.0748104751218E-2</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>-0.215347846344532</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0.34012677828632099</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>-0.26645940800590801</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>-0.51969756648489096</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>6.3949118327960006E-2</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0.29838768511636199</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>-0.261043410456471</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>5.3045221091124001E-2</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>4.4074604013224002E-2</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0.108815578113061</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>-0.30095364422906001</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>-0.55929207108580703</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>-0.198394875151477</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>-0.79751769340562695</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>-0.318575406553676</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>-0.55575744544887395</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>2.0674783175012E-2</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>1.566754412008E-2</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>-0.118545897850774</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>-0.40103456746856198</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>-1.3854062773072001E-2</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0.15449187048353499</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>-0.12981971808269699</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>-0.32223675810222702</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>-7.8732054803659999E-3</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>8.9693627769900003E-2</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>-0.306645991026959</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0.16959247085927801</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0.14673823864844401</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>-0.134400307118895</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>-4.9962808738591998E-2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0.142427662449811</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>-1.9671384768967001E-2</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>0.195014189728278</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>-0.54490809907292104</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>-0.13016973380887301</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0.30598168043440999</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>0.12236216186283499</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>-0.42865035050585798</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0.19445316126635501</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>-0.14972320697792299</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>8.0474869396283996E-2</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>-0.43946296926540801</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0.16134356041512099</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>-0.24447479789436199</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0.43855083707333797</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>-0.50390764153702405</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>-0.56172970395785304</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>0.24985027346743</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>-0.208583245689962</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>-0.17083155567511399</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>-0.133666106055743</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>0.14683020355340501</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>-0.146206997284517</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>-0.59051694841067603</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>-0.14642099695747701</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>0.37885891194193</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>6.5743605398059998E-2</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>-0.55458881579053299</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>0.20346580355836399</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>0.31217564923102897</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>-0.32759151821203403</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>-0.48704773438031301</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0.121166530661194</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>9.2275264661579991E-3</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>-0.18725013160795601</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>-0.51377167984321404</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0.20801115675089099</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6089C275-0D90-4686-A462-31C4075F452C}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6AB1A5D2-1532-41A7-9201-7389304FA7C7}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1140" windowWidth="19200" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
     <sheet name="increased_gain" sheetId="16" r:id="rId8"/>
     <sheet name="schema_2" sheetId="17" r:id="rId9"/>
-    <sheet name="schema_2_continuous" sheetId="18" r:id="rId10"/>
+    <sheet name="scheme_1" sheetId="19" r:id="rId10"/>
+    <sheet name="schema_2_continuous" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">decision_data!$A$1:$H$151</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="29">
   <si>
     <t>first_peak</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>gradient_2</t>
+  </si>
+  <si>
+    <t>second_last_peak</t>
+  </si>
+  <si>
+    <t>second_last_peak_2</t>
   </si>
 </sst>
 </file>
@@ -6560,6 +6567,4396 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A1F1DB-53E2-4230-84C6-C3B0BD8E5FC9}">
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.13417547399643101</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>9.9070886699000006E-4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-1.3590595901492E-2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3.9693393943918E-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.13297973933698601</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-8.1488604291321001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-7.2065449651279007E-2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2.7226593729530998E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.112778770093417</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-8.8577763986919994E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-0.107012077991279</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-2.4802194629036999E-2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.13917544202982499</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-3.838323949519E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>-5.7831186258434003E-2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5.3038465226716E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.132171727569661</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2.4678410390696001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-5.6798872341762001E-2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.21909231801457901</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.103499919283234</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1.5036973249729999E-3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>-8.2783787102042997E-2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-6.5078239294921E-2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.16508482859457899</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7.1000987230235998E-2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-3.7505955678657998E-2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1.1910347931244E-2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.14883556227408001</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.2489616299714E-2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4.7327252165024002E-2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.13636605860467699</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.125578815355675</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6.5775657482960003E-3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-1.7293819131592E-2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8.9747322862978998E-2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.127686746413915</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>6.8833738433143998E-2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>-4.8672651688338002E-2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3.0960758523856002E-2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.108957563140489</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3.2943965696755E-2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-6.4973963754902997E-2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.123859886441301</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.114534348376087</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>-6.0889998074462E-2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-0.110299460908602</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.18019891882605099</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.101550704912798</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>6.6769515136355997E-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>-6.4633067562017005E-2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.13678878859861299</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.113951200752024</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4.3650972679461997E-2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>-4.1796438120853999E-2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.137743548019684</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.12587416840111301</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>8.1057061543749996E-3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>-5.9712397298894999E-2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.12520970562068601</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.13733417452376701</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>-3.337092424707E-2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2.5833714915703999E-2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4.4610304317587002E-2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.114397052025193</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>-0.10503640159323301</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>-8.3557926463339992E-3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5.2997545290345997E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.17560288769774299</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>-9.3076325069922E-2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>6.799178124576E-3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4.8294449799296001E-2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.10470060482138401</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2.0534679073536E-2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1.4933712170531001E-2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>5.5506521569679002E-2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.116037313442519</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3.4687371752996E-2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>-9.2813889505941993E-2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>7.1777400485728005E-2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.115529587945915</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>4.7932715092222002E-2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>-5.5519524554547998E-2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>-4.5792224925176997E-2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.15207340629607299</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-2.242455405879E-2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>-8.8811751565414002E-2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>6.3549694112085997E-2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>9.2483605202298994E-2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>9.3286689155349004E-2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1.5897155714999001E-2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.15072146945378301</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.100307263323253</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>-1.9906079939002001E-2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3.7730160400917999E-2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>-4.9558263898238003E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.12981140289877499</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>-9.6649237932941001E-2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.161630713231395</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>6.8562966683538007E-2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>-6.3521401376444006E-2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0.195942767536878</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.107498698421354</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>-6.2908128708717995E-2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>3.8924903399788997E-2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.29273594246679302</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.12000938830728</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1.4194801815397E-2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>6.2223717750073002E-2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.17308904208210699</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.120086549287689</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>-7.0123906168131994E-2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.147269268127382</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.112644745564403</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>8.9639876987826994E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3.8360383374739002E-2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>-2.4407469660110001E-3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.226251568802501</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.10211866148241899</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>-5.4304833063521997E-2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>-2.9200144214772999E-2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>-3.1107937367649999E-2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.10191604186933099</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>-3.8808431973857999E-2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>-1.9468469927464E-2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0.145228813966024</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>8.8532211781988002E-2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>-5.2558426472329001E-2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>-4.1374017508355003E-2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>7.4365350745059997E-3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>8.7173708688478999E-2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>-4.7089156273286997E-2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>-5.9600852795328001E-2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0.18648898603217501</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.141771073559008</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>-5.9760183983229E-2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>-0.106404905359075</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4.8387902530956997E-2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>8.6696494934256005E-2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1.894736258608E-3</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>-6.6418825118118002E-2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0.13926959525664101</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>9.9657994293338006E-2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>3.2613896684420003E-2</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.166753813752E-3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0.15224760495585399</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>8.1403693437440999E-2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2.7005698393593E-2</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>-6.9353363373756999E-2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0.16799512940196101</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0.120667964441025</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>-0.10214029410633101</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>-5.9487764590108003E-2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0.146346922891987</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>9.0005598900408004E-2</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>-3.4682743442244E-2</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>-0.102781483081323</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0.183809999903156</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.116162662121006</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>-6.5186464899567004E-2</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-6.9867018792668102E-17</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>3.9675060783010002E-2</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>8.5255214299299997E-2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>-2.4392293429167999E-2</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>-6.9470787434110004E-2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0.20892541810368701</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>6.1178697464765001E-2</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>-8.0176851186500005E-4</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>-9.1092810826590001E-2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>4.0653807663133999E-2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0.124178817960456</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>-7.0685446728729999E-3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>-7.9947930283434998E-2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0.17618762261672299</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1.6299259418091998E-2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>-1.2056101408757999E-2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>5.4274961689399999E-2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>9.5887884396439992E-3</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>-0.100191748470613</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>-2.0203546504564001E-2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>3.6543453893426003E-2</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1.6763053966444001E-2</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>-2.9249230938445999E-2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0.104126522984702</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>2.6669296905286001E-2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>5.7601786890580001E-2</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>-1.5270173414902E-2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1.9607047655192E-2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>5.5664858795779003E-2</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>4.4160897246688001E-2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>-4.4756162126631999E-2</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2.7890174570284001E-2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>6.3191051608074006E-2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>-1.5804284268040002E-2</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>-3.1306666859699003E-2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1.7010746761608998E-2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>7.4188312401249996E-3</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>3.8553605486791001E-2</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>-4.2722998920649E-2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>-7.6218735766590004E-3</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>6.7330342485968003E-2</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1.611113023063E-3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>-3.3818596571717E-2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>4.4913575416374002E-2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>7.7485638282887001E-2</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>-1.5394098618425001E-2</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>-0.127205800568475</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>4.5066863552826998E-2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>3.3872643168719997E-2</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>-0.103042644159789</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>-2.9384415388305999E-2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>-0.102799515726542</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>6.1854835827084002E-2</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>-1.0176460482881001E-2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>-3.2297030435842998E-2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1.3833313086988999E-2</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>6.1230778121661E-2</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1.5430128080268999E-2</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>-6.1291545964933997E-2</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>3.1213154706501999E-2</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>6.4162778491672998E-2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0.125986821257566</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>-0.13562253772359301</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.11158697141269899</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0.12624269797207199</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>-7.7952949881903003E-2</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>-5.5102164749135998E-2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>3.4412666253896003E-2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>9.6187813906682004E-2</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>-5.6760343207892999E-2</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>-1.7153485443001E-2</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>5.4094715827938997E-2</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>3.6250877670790001E-2</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2.1759447421506001E-2</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>-3.9980723304619999E-3</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>4.6553693703003003E-2</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>4.6920760543207998E-2</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>7.0733769279023001E-2</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>-4.6055331078773999E-2</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5.0095393181185999E-2</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0.10477150046653901</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>-5.5980922705304997E-2</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>-0.114213413924381</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>3.5939717993679003E-2</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2.5499987587949999E-2</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2.1107346300191999E-2</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D9306-7CC2-4811-A201-EA3B40165022}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -46062,8 +50459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I210"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6089C275-0D90-4686-A462-31C4075F452C}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BFE1708F-69BB-42DA-860D-63D46AB46265}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1140" windowWidth="19200" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
     <sheet name="increased_gain" sheetId="16" r:id="rId8"/>
     <sheet name="schema_2" sheetId="17" r:id="rId9"/>
-    <sheet name="schema_2_continuous" sheetId="18" r:id="rId10"/>
+    <sheet name="schema_1" sheetId="19" r:id="rId10"/>
+    <sheet name="schema_2_continuous" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">decision_data!$A$1:$H$151</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="29">
   <si>
     <t>first_peak</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>gradient_2</t>
+  </si>
+  <si>
+    <t>second_last_peak</t>
+  </si>
+  <si>
+    <t>second_last_peak_2</t>
   </si>
 </sst>
 </file>
@@ -6560,6 +6567,4408 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2990638-EA7F-499C-9830-7D76C07FFC26}">
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.13417547399643101</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>9.9070886699000006E-4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-1.3590595901492E-2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3.9693393943918E-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.13297973933698601</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-8.1488604291321001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-7.2065449651279007E-2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2.7226593729530998E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.112778770093417</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-8.8577763986919994E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-0.107012077991279</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-2.4802194629036999E-2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.13917544202982499</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-3.838323949519E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>-5.7831186258434003E-2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5.3038465226716E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.132171727569661</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2.4678410390696001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-5.6798872341762001E-2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.21909231801457901</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.103499919283234</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1.5036973249729999E-3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>-8.2783787102042997E-2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-6.5078239294921E-2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.16508482859457899</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7.1000987230235998E-2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-3.7505955678657998E-2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1.1910347931244E-2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.14883556227408001</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.2489616299714E-2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4.7327252165024002E-2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.13636605860467699</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.125578815355675</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6.5775657482960003E-3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-1.7293819131592E-2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8.9747322862978998E-2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.127686746413915</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>6.8833738433143998E-2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>-4.8672651688338002E-2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3.0960758523856002E-2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.108957563140489</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3.2943965696755E-2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-6.4973963754902997E-2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.123859886441301</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.114534348376087</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>-6.0889998074462E-2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-0.110299460908602</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.18019891882605099</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.101550704912798</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>6.6769515136355997E-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>-6.4633067562017005E-2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.13678878859861299</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.113951200752024</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4.3650972679461997E-2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>-4.1796438120853999E-2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.137743548019684</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.12587416840111301</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>8.1057061543749996E-3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>-5.9712397298894999E-2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.12520970562068601</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.13733417452376701</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>-3.337092424707E-2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2.5833714915703999E-2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4.4610304317587002E-2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.114397052025193</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>-0.10503640159323301</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>-8.3557926463339992E-3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5.2997545290345997E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.17560288769774299</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>-9.3076325069922E-2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>6.799178124576E-3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4.8294449799296001E-2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.10470060482138401</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2.0534679073536E-2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1.4933712170531001E-2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>5.5506521569679002E-2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.116037313442519</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3.4687371752996E-2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>-9.2813889505941993E-2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>7.1777400485728005E-2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.115529587945915</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>4.7932715092222002E-2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>-5.5519524554547998E-2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>-4.5792224925176997E-2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.15207340629607299</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-2.242455405879E-2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>-8.8811751565414002E-2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>6.3549694112085997E-2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>9.2483605202298994E-2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>9.3286689155349004E-2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1.5897155714999001E-2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.15072146945378301</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.100307263323253</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>-1.9906079939002001E-2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3.7730160400917999E-2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>-4.9558263898238003E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.12981140289877499</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>-9.6649237932941001E-2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.161630713231395</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>6.8562966683538007E-2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>-6.3521401376444006E-2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0.195942767536878</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.107498698421354</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>-6.2908128708717995E-2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>3.8924903399788997E-2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.29273594246679302</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.12000938830728</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1.4194801815397E-2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>6.2223717750073002E-2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.17308904208210699</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.120086549287689</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>-7.0123906168131994E-2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.147269268127382</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.112644745564403</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>8.9639876987826994E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3.8360383374739002E-2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>-2.4407469660110001E-3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.226251568802501</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.10211866148241899</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>-5.4304833063521997E-2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>-2.9200144214772999E-2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>-3.1107937367649999E-2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.10191604186933099</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>-3.8808431973857999E-2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>-1.9468469927464E-2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0.145228813966024</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>8.8532211781988002E-2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>-5.2558426472329001E-2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>-4.1374017508355003E-2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>7.4365350745059997E-3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>8.7173708688478999E-2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>-4.7089156273286997E-2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>-5.9600852795328001E-2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0.18648898603217501</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.141771073559008</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>-5.9760183983229E-2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>-0.106404905359075</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4.8387902530956997E-2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>8.6696494934256005E-2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1.894736258608E-3</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>-6.6418825118118002E-2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0.13926959525664101</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>9.9657994293338006E-2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>3.2613896684420003E-2</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.166753813752E-3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0.15224760495585399</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>8.1403693437440999E-2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2.7005698393593E-2</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>-6.9353363373756999E-2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0.16799512940196101</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0.120667964441025</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>-0.10214029410633101</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>-5.9487764590108003E-2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0.146346922891987</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>9.0005598900408004E-2</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>-3.4682743442244E-2</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>-0.102781483081323</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0.183809999903156</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.116162662121006</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>-6.5186464899567004E-2</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-6.9867018792668102E-17</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>3.9675060783010002E-2</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>8.5255214299299997E-2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>-2.4392293429167999E-2</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>-6.9470787434110004E-2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0.20892541810368701</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>6.1178697464765001E-2</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>-8.0176851186500005E-4</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>-9.1092810826590001E-2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>4.0653807663133999E-2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0.124178817960456</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>-7.0685446728729999E-3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>-7.9947930283434998E-2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0.17618762261672299</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1.6299259418091998E-2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>-1.2056101408757999E-2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>5.4274961689399999E-2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>9.5887884396439992E-3</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>-0.100191748470613</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>-2.0203546504564001E-2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>3.6543453893426003E-2</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1.6763053966444001E-2</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>-2.9249230938445999E-2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0.104126522984702</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>2.6669296905286001E-2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>5.7601786890580001E-2</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>-1.5270173414902E-2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1.9607047655192E-2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>5.5664858795779003E-2</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>4.4160897246688001E-2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>-4.4756162126631999E-2</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2.7890174570284001E-2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>6.3191051608074006E-2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>-1.5804284268040002E-2</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>-3.1306666859699003E-2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1.7010746761608998E-2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>7.4188312401249996E-3</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>3.8553605486791001E-2</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>-4.2722998920649E-2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>-7.6218735766590004E-3</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>6.7330342485968003E-2</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1.611113023063E-3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>-3.3818596571717E-2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>4.4913575416374002E-2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>7.7485638282887001E-2</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>-1.5394098618425001E-2</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>-0.127205800568475</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>4.5066863552826998E-2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>3.3872643168719997E-2</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>-0.103042644159789</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>-2.9384415388305999E-2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>-0.102799515726542</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>6.1854835827084002E-2</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>-1.0176460482881001E-2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>-3.2297030435842998E-2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1.3833313086988999E-2</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>6.1230778121661E-2</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1.5430128080268999E-2</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>-6.1291545964933997E-2</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>3.1213154706501999E-2</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>6.4162778491672998E-2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0.125986821257566</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>-0.13562253772359301</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.11158697141269899</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0.12624269797207199</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>-7.7952949881903003E-2</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>-5.5102164749135998E-2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>3.4412666253896003E-2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>9.6187813906682004E-2</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>-5.6760343207892999E-2</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>-1.7153485443001E-2</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>5.4094715827938997E-2</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>3.6250877670790001E-2</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2.1759447421506001E-2</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>-3.9980723304619999E-3</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>4.6553693703003003E-2</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>4.6920760543207998E-2</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>7.0733769279023001E-2</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>-4.6055331078773999E-2</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5.0095393181185999E-2</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0.10477150046653901</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>-5.5980922705304997E-2</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>-0.114213413924381</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>3.5939717993679003E-2</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2.5499987587949999E-2</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2.1107346300191999E-2</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D9306-7CC2-4811-A201-EA3B40165022}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -46062,8 +50471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62A285-51F5-40B8-A2D0-C84873CEB519}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I210"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BFE1708F-69BB-42DA-860D-63D46AB46265}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D246D432-2AA5-4A25-8268-7CEE930D713B}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26115" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
     <sheet name="increased_gain" sheetId="16" r:id="rId8"/>
     <sheet name="schema_2" sheetId="17" r:id="rId9"/>
-    <sheet name="schema_1" sheetId="19" r:id="rId10"/>
+    <sheet name="scheme_1" sheetId="19" r:id="rId10"/>
     <sheet name="schema_2_continuous" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="29">
   <si>
     <t>first_peak</t>
   </si>
@@ -6567,26 +6567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2990638-EA7F-499C-9830-7D76C07FFC26}">
-  <dimension ref="A1:K125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A1F1DB-53E2-4230-84C6-C3B0BD8E5FC9}">
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K125"/>
+      <selection activeCell="A2" sqref="A2:K193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10960,6 +10948,2386 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0.12587834759376601</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>3.4911583468922001E-2</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>-6.9586179404461004E-2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>3.1252497288195E-2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>9.8359058045160999E-2</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>3.8313836869165001E-2</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0.135312389836899</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0.12216818475437401</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>-2.9746967690679998E-2</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>4.7307840966217998E-2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>6.7311247749722997E-2</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>3.1412841990926997E-2</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>-5.0151019876452999E-2</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0.12721529553908301</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>3.8544184430813998E-2</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>-7.400012888535E-3</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>-1.8566986626454E-2</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>3.0652324702874999E-2</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>6.7482282286725995E-2</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>9.7814604588412998E-2</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>-7.0263159185719001E-2</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0.18229620410880601</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>-1.7671020448010999E-2</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0.114249096546259</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>-1.2199308180773E-2</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0.24921467510915901</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>8.0092594456600003E-4</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0.12930787271059699</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0.13050344501354799</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>-0.121475329345405</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>7.5442564160345005E-2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>5.4331416151837002E-2</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>8.8464491054556005E-2</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>2.4574020263507999E-2</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>2.8445782139730001E-2</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>6.7331902495410004E-2</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>2.3649724651075E-2</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>5.1507649474601E-2</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0.122187262321728</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0.12855152222590399</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1.6747646704168E-2</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>-0.107968465455927</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0.20004366522040601</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0.11977190361734701</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0.174196811839053</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>2.208570158259E-2</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0.16656473244874301</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0.11028810954889599</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>-7.2131916444890002E-3</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0.164538788313775</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0.19769080677557099</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0.115841111204882</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>6.9944879180004998E-2</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0.11222852490518501</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0.258790586906259</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0.107943409499644</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0.147598323041503</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>-1.1428731271656001E-2</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0.17832048849745899</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0.12510275481264899</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0.100298431429984</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>-0.122757792618454</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0.278534734759467</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>6.0936821683702999E-2</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>3.5170315063290998E-2</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>-1.3278989861306E-2</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0.24454415099542001</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0.145737962503005</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0.21381291530174201</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>-3.2360009542414997E-2</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0.49155965593252399</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0.10325941614380001</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>1.6386628311120002E-2</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>-0.14264009103695199</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0.245771390082722</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0.13021483995969399</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0.15261205967334801</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>-0.18167735433553001</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0.42678053946862499</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0.115664688674583</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0.16192762659069099</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>-6.5771644495389997E-3</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0.27189608971817902</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0.16346250043891999</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0.16008220286330299</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>9.9075773954960006E-2</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1.4963641870507E-2</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>-4.9000556221567002E-2</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>6.2209633171937999E-2</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0.102057254290186</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>2.0021098484447001E-2</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>-7.1380801464027005E-2</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>3.2219859614870998E-2</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>5.3751833559836003E-2</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>-1.6025162267238002E-2</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>-6.2642348962186997E-2</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>8.5448174226623E-2</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>8.5067604183791001E-2</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>-2.6146569607001E-2</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>-4.1026934093399997E-2</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0.257558816919154</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>3.7423699240194001E-2</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>5.7804717541829996E-3</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>-6.1874523818413997E-2</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>-1.727017648673E-3</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>0.121334620593191</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>-1.8433882879413999E-2</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>9.6680478559113006E-2</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>8.3571593391845E-2</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>8.3485766432251002E-2</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>-2.4235489941359998E-3</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>-3.5033668162458002E-2</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>9.0226586238517995E-2</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>9.8813416764808995E-2</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>7.2200216511165996E-2</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>3.6429096606767998E-2</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>2.2699645821509999E-3</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>7.0115361094648998E-2</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>4.4310171888179997E-2</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>4.3129725917827003E-2</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>5.7085456422907001E-2</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>-3.3297925541104001E-2</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>7.8133431767489995E-3</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0.106358299154435</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>-5.3710240442535001E-2</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>-3.1682587699729002E-2</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>6.7197061656886006E-2</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>7.2168419648430002E-2</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>6.7835195800275999E-2</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>-2.023650852169E-3</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0.17615785772753201</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>-5.7332836462008999E-2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0.31792420655674303</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>4.9444954157733E-2</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>8.6611415019430996E-2</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" t="s">
         <v>9</v>
       </c>
     </row>
@@ -50472,7 +52840,7 @@
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/decision_data.xlsx
+++ b/decision_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/paul_kumar_mail_utoronto_ca/Documents/engineering_masters/thesis work/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D246D432-2AA5-4A25-8268-7CEE930D713B}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="6_{F6B86153-F216-4926-93F2-3946DCDAA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BFE1708F-69BB-42DA-860D-63D46AB46265}"/>
   <bookViews>
-    <workbookView xWindow="-26115" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3975" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="data_no_higher_order" sheetId="15" r:id="rId7"/>
     <sheet name="increased_gain" sheetId="16" r:id="rId8"/>
     <sheet name="schema_2" sheetId="17" r:id="rId9"/>
-    <sheet name="scheme_1" sheetId="19" r:id="rId10"/>
+    <sheet name="schema_1" sheetId="19" r:id="rId10"/>
     <sheet name="schema_2_continuous" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="29">
   <si>
     <t>first_peak</t>
   </si>
@@ -6567,14 +6567,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A1F1DB-53E2-4230-84C6-C3B0BD8E5FC9}">
-  <dimension ref="A1:K193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2990638-EA7F-499C-9830-7D76C07FFC26}">
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K193"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10948,2386 +10960,6 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0.12587834759376601</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>3.4911583468922001E-2</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
-      <c r="K126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>-6.9586179404461004E-2</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>3.1252497288195E-2</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>9.8359058045160999E-2</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>3.8313836869165001E-2</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="K128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>0.135312389836899</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>0.12216818475437401</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>-2.9746967690679998E-2</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>4.7307840966217998E-2</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="K130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>6.7311247749722997E-2</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>3.1412841990926997E-2</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="K131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>-5.0151019876452999E-2</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>0.12721529553908301</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
-      <c r="K132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>3.8544184430813998E-2</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>-7.400012888535E-3</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>-1.8566986626454E-2</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>3.0652324702874999E-2</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>1</v>
-      </c>
-      <c r="K134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>6.7482282286725995E-2</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>9.7814604588412998E-2</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135">
-        <v>1</v>
-      </c>
-      <c r="K135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>0</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>-7.0263159185719001E-2</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>0.18229620410880601</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-      <c r="K136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>-1.7671020448010999E-2</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>0.114249096546259</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-      <c r="K137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>-1.2199308180773E-2</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>0.24921467510915901</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
-      <c r="K138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>8.0092594456600003E-4</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>0.12930787271059699</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-      <c r="K139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>0.13050344501354799</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>-0.121475329345405</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>7.5442564160345005E-2</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>5.4331416151837002E-2</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>8.8464491054556005E-2</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-      <c r="K142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>2.4574020263507999E-2</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>2.8445782139730001E-2</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>1</v>
-      </c>
-      <c r="K143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>6.7331902495410004E-2</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>2.3649724651075E-2</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>1</v>
-      </c>
-      <c r="K144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>5.1507649474601E-2</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0.122187262321728</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>1</v>
-      </c>
-      <c r="K145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0.12855152222590399</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>1.6747646704168E-2</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>0</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>-0.107968465455927</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>0.20004366522040601</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0.11977190361734701</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>0.174196811839053</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>1</v>
-      </c>
-      <c r="K148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>2.208570158259E-2</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0.16656473244874301</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>0.11028810954889599</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>-7.2131916444890002E-3</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>0.164538788313775</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>0.19769080677557099</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>0.115841111204882</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>6.9944879180004998E-2</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c r="J152">
-        <v>1</v>
-      </c>
-      <c r="K152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>0.11222852490518501</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0.258790586906259</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>1</v>
-      </c>
-      <c r="K153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>0.107943409499644</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0.147598323041503</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-      <c r="J154">
-        <v>1</v>
-      </c>
-      <c r="K154" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>-1.1428731271656001E-2</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>0.17832048849745899</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>0.12510275481264899</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>0.100298431429984</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-      <c r="J156">
-        <v>1</v>
-      </c>
-      <c r="K156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>-0.122757792618454</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>0.278534734759467</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>6.0936821683702999E-2</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>3.5170315063290998E-2</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158">
-        <v>1</v>
-      </c>
-      <c r="K158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>0</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>-1.3278989861306E-2</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>0.24454415099542001</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>0.145737962503005</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0.21381291530174201</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160">
-        <v>1</v>
-      </c>
-      <c r="K160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>-3.2360009542414997E-2</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161">
-        <v>0.49155965593252399</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161">
-        <v>1</v>
-      </c>
-      <c r="K161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>0.10325941614380001</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>1.6386628311120002E-2</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-      <c r="J162">
-        <v>1</v>
-      </c>
-      <c r="K162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>0</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>-0.14264009103695199</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163">
-        <v>0.245771390082722</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>0.13021483995969399</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164">
-        <v>0.15261205967334801</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-      <c r="J164">
-        <v>1</v>
-      </c>
-      <c r="K164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>0</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>-0.18167735433553001</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165">
-        <v>0.42678053946862499</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>1</v>
-      </c>
-      <c r="K165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0.115664688674583</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0.16192762659069099</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166">
-        <v>1</v>
-      </c>
-      <c r="K166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>-6.5771644495389997E-3</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>0.27189608971817902</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>1</v>
-      </c>
-      <c r="K167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>0.16346250043891999</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168">
-        <v>0.16008220286330299</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-      <c r="J168">
-        <v>1</v>
-      </c>
-      <c r="K168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>9.9075773954960006E-2</v>
-      </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169">
-        <v>1.4963641870507E-2</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>-4.9000556221567002E-2</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>6.2209633171937999E-2</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>0.102057254290186</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>2.0021098484447001E-2</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>1</v>
-      </c>
-      <c r="K171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>0</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <v>-7.1380801464027005E-2</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>3.2219859614870998E-2</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>5.3751833559836003E-2</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173">
-        <v>-1.6025162267238002E-2</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>0</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>-6.2642348962186997E-2</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>8.5448174226623E-2</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>1</v>
-      </c>
-      <c r="K174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>8.5067604183791001E-2</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175">
-        <v>-2.6146569607001E-2</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>0</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>-4.1026934093399997E-2</v>
-      </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>0.257558816919154</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>1</v>
-      </c>
-      <c r="K176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>3.7423699240194001E-2</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177">
-        <v>5.7804717541829996E-3</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>0</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178">
-        <v>-6.1874523818413997E-2</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178">
-        <v>-1.727017648673E-3</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
-        <v>0.121334620593191</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179">
-        <v>-1.8433882879413999E-2</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180">
-        <v>9.6680478559113006E-2</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>8.3571593391845E-2</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
-      <c r="J180">
-        <v>1</v>
-      </c>
-      <c r="K180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="C181">
-        <v>8.3485766432251002E-2</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181">
-        <v>-2.4235489941359998E-3</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>0</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182">
-        <v>-3.5033668162458002E-2</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>9.0226586238517995E-2</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-      <c r="J182">
-        <v>1</v>
-      </c>
-      <c r="K182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="C183">
-        <v>9.8813416764808995E-2</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>7.2200216511165996E-2</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-      <c r="J183">
-        <v>1</v>
-      </c>
-      <c r="K183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>0</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>3.6429096606767998E-2</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184">
-        <v>2.2699645821509999E-3</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185">
-        <v>7.0115361094648998E-2</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185">
-        <v>4.4310171888179997E-2</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>4.3129725917827003E-2</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186">
-        <v>5.7085456422907001E-2</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186">
-        <v>1</v>
-      </c>
-      <c r="K186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>0</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <v>-3.3297925541104001E-2</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187">
-        <v>7.8133431767489995E-3</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188">
-        <v>0.106358299154435</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188">
-        <v>-5.3710240442535001E-2</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>0</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189">
-        <v>-3.1682587699729002E-2</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>6.7197061656886006E-2</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>7.2168419648430002E-2</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>6.7835195800275999E-2</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-      <c r="J190">
-        <v>1</v>
-      </c>
-      <c r="K190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
-        <v>-2.023650852169E-3</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191">
-        <v>0.17615785772753201</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191">
-        <v>1</v>
-      </c>
-      <c r="K191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>-5.7332836462008999E-2</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0.31792420655674303</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="J192">
-        <v>1</v>
-      </c>
-      <c r="K192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>4.9444954157733E-2</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>8.6611415019430996E-2</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193">
-        <v>1</v>
-      </c>
-      <c r="K193" t="s">
         <v>9</v>
       </c>
     </row>
@@ -52840,7 +50472,7 @@
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
